--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="6820" windowWidth="25600" windowHeight="19160" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2860" yWindow="60" windowWidth="25080" windowHeight="15480" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="1.1v" sheetId="6" r:id="rId6"/>
     <sheet name="1.5.1" sheetId="7" r:id="rId7"/>
     <sheet name="1.5.1v" sheetId="8" r:id="rId8"/>
+    <sheet name="1.5.2" sheetId="9" r:id="rId9"/>
+    <sheet name="1.5.2v" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1.5.1'!$A$2:$F$34</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="313">
   <si>
     <t>小学</t>
   </si>
@@ -2312,6 +2314,364 @@
   </si>
   <si>
     <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,扇贝,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书
+新东方,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,辞典,学堂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书
+新东方,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,辞典,学堂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,</t>
+  </si>
+  <si>
+    <t>雅思,</t>
+  </si>
+  <si>
+    <t>托福,</t>
+  </si>
+  <si>
+    <t>考研,</t>
+  </si>
+  <si>
+    <t>商务,</t>
+  </si>
+  <si>
+    <t>高考,</t>
+  </si>
+  <si>
+    <t>牛津,</t>
+  </si>
+  <si>
+    <t>英孚,</t>
+  </si>
+  <si>
+    <t>儿童,</t>
+  </si>
+  <si>
+    <t>幼儿,</t>
+  </si>
+  <si>
+    <t>懒人,</t>
+  </si>
+  <si>
+    <t>沪江,</t>
+  </si>
+  <si>
+    <t>有道,</t>
+  </si>
+  <si>
+    <t>中英文,</t>
+  </si>
+  <si>
+    <t>英汉,</t>
+  </si>
+  <si>
+    <t>小学,</t>
+  </si>
+  <si>
+    <t>初中,</t>
+  </si>
+  <si>
+    <t>高中,</t>
+  </si>
+  <si>
+    <t>大学,</t>
+  </si>
+  <si>
+    <t>四六级,</t>
+  </si>
+  <si>
+    <t>双语,</t>
+  </si>
+  <si>
+    <t>词典,</t>
+  </si>
+  <si>
+    <t>发音,</t>
+  </si>
+  <si>
+    <t>音标,</t>
+  </si>
+  <si>
+    <t>作业,</t>
+  </si>
+  <si>
+    <t>美剧,</t>
+  </si>
+  <si>
+    <t>大全,</t>
+  </si>
+  <si>
+    <t>留学,</t>
+  </si>
+  <si>
+    <t>达人,</t>
+  </si>
+  <si>
+    <t>题库,</t>
+  </si>
+  <si>
+    <t>词汇,</t>
+  </si>
+  <si>
+    <t>旅行,</t>
+  </si>
+  <si>
+    <t>听书,</t>
+  </si>
+  <si>
+    <t>新东方,</t>
+  </si>
+  <si>
+    <t>扇贝,</t>
+  </si>
+  <si>
+    <t>星火,</t>
+  </si>
+  <si>
+    <t>百度,</t>
+  </si>
+  <si>
+    <t>51,</t>
+  </si>
+  <si>
+    <t>流利说,</t>
+  </si>
+  <si>
+    <t>多说,</t>
+  </si>
+  <si>
+    <t>百词,</t>
+  </si>
+  <si>
+    <t>趣配音,</t>
+  </si>
+  <si>
+    <t>爽哥,</t>
+  </si>
+  <si>
+    <t>学霸,</t>
+  </si>
+  <si>
+    <t>人人,</t>
+  </si>
+  <si>
+    <t>少儿,</t>
+  </si>
+  <si>
+    <t>开心,</t>
+  </si>
+  <si>
+    <t>voa,</t>
+  </si>
+  <si>
+    <t>bbc,</t>
+  </si>
+  <si>
+    <t>ted,</t>
+  </si>
+  <si>
+    <t>出国,</t>
+  </si>
+  <si>
+    <t>在线,</t>
+  </si>
+  <si>
+    <t>日常,</t>
+  </si>
+  <si>
+    <t>基础,</t>
+  </si>
+  <si>
+    <t>语言,</t>
+  </si>
+  <si>
+    <t>教育,</t>
+  </si>
+  <si>
+    <t>阅读,</t>
+  </si>
+  <si>
+    <t>练习,</t>
+  </si>
+  <si>
+    <t>宝典,</t>
+  </si>
+  <si>
+    <t>软件,</t>
+  </si>
+  <si>
+    <t>课堂,</t>
+  </si>
+  <si>
+    <t>词场,</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>59,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>52,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>32,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>48,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>72,</t>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>33,</t>
+  </si>
+  <si>
+    <t>65,</t>
+  </si>
+  <si>
+    <t>89,</t>
+  </si>
+  <si>
+    <t>76,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>94,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>36,</t>
+  </si>
+  <si>
+    <t>41,</t>
+  </si>
+  <si>
+    <t>120,</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>学堂,</t>
+  </si>
+  <si>
+    <t>75,</t>
+  </si>
+  <si>
+    <t>69,</t>
+  </si>
+  <si>
+    <t>62,</t>
+  </si>
+  <si>
+    <t>44,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>天天,</t>
+  </si>
+  <si>
+    <t>金山,</t>
+  </si>
+  <si>
+    <t>辞典,</t>
+  </si>
+  <si>
+    <t>简单,</t>
+  </si>
+  <si>
+    <t>能飞,</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>辞典</t>
   </si>
 </sst>
 </file>
@@ -2525,7 +2885,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="480">
+  <cellStyleXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3006,8 +3366,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3075,16 +3447,22 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="480">
+  <cellStyles count="492">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3564,6 +3942,18 @@
     <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4795,6 +5185,962 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>264</v>
+      </c>
+      <c r="E44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
+        <v>280</v>
+      </c>
+      <c r="E51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" t="s">
+        <v>286</v>
+      </c>
+      <c r="E56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" t="s">
+        <v>291</v>
+      </c>
+      <c r="E61" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" t="s">
+        <v>296</v>
+      </c>
+      <c r="E64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>270</v>
+      </c>
+      <c r="E65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" t="s">
+        <v>277</v>
+      </c>
+      <c r="E66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67" t="s">
+        <v>304</v>
+      </c>
+      <c r="E67" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" t="s">
+        <v>304</v>
+      </c>
+      <c r="E68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B69" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" t="s">
+        <v>289</v>
+      </c>
+      <c r="E71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="B73" t="s">
+        <v>289</v>
+      </c>
+      <c r="E73" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="C77" s="35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="C78" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="C79" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="C80" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V77"/>
@@ -4853,19 +6199,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="37" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="37">
         <v>4613</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="37">
         <v>1490</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4891,13 +6237,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="39"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="38"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -4921,19 +6267,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="37">
         <v>4605</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="37">
         <v>1750</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4959,13 +6305,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="37"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -4989,19 +6335,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="37" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="37">
         <v>0</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="37">
         <v>1489</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5027,13 +6373,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="38"/>
+      <c r="N7" s="37"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="38"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -5057,19 +6403,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="37" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="37">
         <v>4606</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="37">
         <v>2175</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5095,13 +6441,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="39"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="38"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -5125,19 +6471,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="37" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="37">
         <v>4607</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="37">
         <v>2176</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5163,13 +6509,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="39"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -5193,19 +6539,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="37" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="37">
         <v>0</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="37">
         <v>46</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5231,13 +6577,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="38"/>
+      <c r="N13" s="37"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="39"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="38"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -5261,19 +6607,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="37" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="37">
         <v>4605</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="37">
         <v>2177</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5299,13 +6645,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="37"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="38"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -5329,19 +6675,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="37" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="37">
         <v>53</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="37">
         <v>14</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5367,13 +6713,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="38"/>
+      <c r="N17" s="37"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -5397,19 +6743,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="37" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="37">
         <v>0</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="37">
         <v>816</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5435,13 +6781,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="38"/>
+      <c r="N19" s="37"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="39"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="38"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -5465,19 +6811,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="38" t="s">
+      <c r="N20" s="37" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="37">
         <v>4605</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="37">
         <v>2174</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5494,13 +6840,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="38"/>
+      <c r="N21" s="37"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -5524,19 +6870,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="37" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="37">
         <v>4605</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="37">
         <v>2135</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5562,13 +6908,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="38"/>
+      <c r="N23" s="37"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="38"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -5592,19 +6938,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="37" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P24" s="37">
         <v>4607</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="37">
         <v>1174</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5630,13 +6976,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="38"/>
+      <c r="N25" s="37"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="39"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="38"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -5660,19 +7006,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="38" t="s">
+      <c r="N26" s="37" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="37">
         <v>4607</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="37">
         <v>45</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5698,13 +7044,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="38"/>
+      <c r="N27" s="37"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="38"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -5728,19 +7074,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="37" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="37">
         <v>4606</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="37">
         <v>21</v>
       </c>
-      <c r="R28" s="39" t="s">
+      <c r="R28" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5766,13 +7112,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="38"/>
+      <c r="N29" s="37"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="39"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="38"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -5796,19 +7142,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="37" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30" s="37">
         <v>4605</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="37">
         <v>14</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="38" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5834,13 +7180,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="38"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="39"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="38"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -5881,523 +7227,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="37">
         <v>4613</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="37">
         <v>1490</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="38"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="37" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="37">
         <v>4605</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="37">
         <v>1750</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="38"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="37">
         <v>0</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="37">
         <v>1489</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="38"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="37">
         <v>4606</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="37">
         <v>2175</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="38"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="37" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="37">
         <v>4607</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="37">
         <v>2176</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="38"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="37" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="37">
         <v>0</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="37">
         <v>46</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="38"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="37">
         <v>4605</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="37">
         <v>2177</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="38"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="37" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="37">
         <v>53</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="37">
         <v>14</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="38"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="37" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="37">
         <v>0</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="37">
         <v>816</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="38"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="37" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="37">
         <v>4605</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="37">
         <v>2174</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="38"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="37">
         <v>4605</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="37">
         <v>2135</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="38"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="37" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="37">
         <v>4607</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="37">
         <v>1174</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="38"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="37" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="37">
         <v>4607</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D63" s="37">
         <v>45</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="38"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="37" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="37">
         <v>4606</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="37">
         <v>21</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="38"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="39"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="37" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="37">
         <v>4605</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D67" s="37">
         <v>14</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="38"/>
+      <c r="A68" s="37"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="37" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C69" s="37">
         <v>4605</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69" s="37">
         <v>2172</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="38"/>
+      <c r="A70" s="37"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="37" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="38">
+      <c r="C71" s="37">
         <v>4629</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="37">
         <v>2173</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="38"/>
+      <c r="A72" s="37"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="37" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="37">
         <v>270</v>
       </c>
-      <c r="D73" s="38">
+      <c r="D73" s="37">
         <v>2176</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="38"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="37" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="37">
         <v>0</v>
       </c>
-      <c r="D75" s="38">
+      <c r="D75" s="37">
         <v>11</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="38"/>
+      <c r="A76" s="37"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="38"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -6409,119 +7755,6 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -6546,6 +7779,119 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -8166,7 +9512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1">
+    <row r="6" spans="1:9" ht="16" thickBot="1">
       <c r="A6" s="13">
         <v>33</v>
       </c>
@@ -8195,7 +9541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1">
+    <row r="7" spans="1:9" ht="16" thickBot="1">
       <c r="A7" s="13">
         <v>2</v>
       </c>
@@ -8224,7 +9570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1">
+    <row r="8" spans="1:9" ht="16" thickBot="1">
       <c r="A8" s="13">
         <v>31</v>
       </c>
@@ -8253,7 +9599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1">
+    <row r="9" spans="1:9" ht="16" thickBot="1">
       <c r="A9" s="13">
         <v>23</v>
       </c>
@@ -8282,7 +9628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1">
+    <row r="10" spans="1:9" ht="16" thickBot="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -8311,7 +9657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" thickBot="1">
+    <row r="11" spans="1:9" ht="16" thickBot="1">
       <c r="A11" s="13">
         <v>4</v>
       </c>
@@ -8340,7 +9686,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" thickBot="1">
+    <row r="12" spans="1:9" ht="16" thickBot="1">
       <c r="A12" s="13">
         <v>14</v>
       </c>
@@ -8369,7 +9715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" thickBot="1">
+    <row r="13" spans="1:9" ht="16" thickBot="1">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -8398,7 +9744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" thickBot="1">
+    <row r="14" spans="1:9" ht="16" thickBot="1">
       <c r="A14" s="13">
         <v>26</v>
       </c>
@@ -8427,7 +9773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" thickBot="1">
+    <row r="15" spans="1:9" ht="16" thickBot="1">
       <c r="A15" s="13">
         <v>16</v>
       </c>
@@ -8456,7 +9802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" thickBot="1">
+    <row r="16" spans="1:9" ht="16" thickBot="1">
       <c r="A16" s="13">
         <v>30</v>
       </c>
@@ -8504,7 +9850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" thickBot="1">
+    <row r="18" spans="1:9" ht="16" thickBot="1">
       <c r="A18" s="13">
         <v>11</v>
       </c>
@@ -8533,7 +9879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" thickBot="1">
+    <row r="19" spans="1:9" ht="16" thickBot="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -8562,7 +9908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" thickBot="1">
+    <row r="20" spans="1:9" ht="16" thickBot="1">
       <c r="A20" s="13">
         <v>12</v>
       </c>
@@ -8591,7 +9937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" thickBot="1">
+    <row r="21" spans="1:9" ht="16" thickBot="1">
       <c r="A21" s="13">
         <v>8</v>
       </c>
@@ -8620,7 +9966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" thickBot="1">
+    <row r="22" spans="1:9" ht="16" thickBot="1">
       <c r="A22" s="13">
         <v>27</v>
       </c>
@@ -8649,7 +9995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" thickBot="1">
+    <row r="23" spans="1:9" ht="16" thickBot="1">
       <c r="A23" s="13">
         <v>3</v>
       </c>
@@ -8678,7 +10024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" thickBot="1">
+    <row r="24" spans="1:9" ht="16" thickBot="1">
       <c r="A24" s="13">
         <v>1</v>
       </c>
@@ -8707,7 +10053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" thickBot="1">
+    <row r="25" spans="1:9" ht="16" thickBot="1">
       <c r="A25" s="13">
         <v>17</v>
       </c>
@@ -8736,7 +10082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" thickBot="1">
+    <row r="26" spans="1:9" ht="16" thickBot="1">
       <c r="A26" s="13">
         <v>32</v>
       </c>
@@ -8765,7 +10111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" thickBot="1">
+    <row r="27" spans="1:9" ht="16" thickBot="1">
       <c r="A27" s="13">
         <v>19</v>
       </c>
@@ -8794,7 +10140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" thickBot="1">
+    <row r="28" spans="1:9" ht="16" thickBot="1">
       <c r="A28" s="13">
         <v>7</v>
       </c>
@@ -8823,7 +10169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" thickBot="1">
+    <row r="29" spans="1:9" ht="16" thickBot="1">
       <c r="A29" s="13">
         <v>5</v>
       </c>
@@ -8852,7 +10198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" thickBot="1">
+    <row r="30" spans="1:9" ht="16" thickBot="1">
       <c r="A30" s="13">
         <v>15</v>
       </c>
@@ -8900,7 +10246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" thickBot="1">
+    <row r="32" spans="1:9" ht="16" thickBot="1">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -8929,7 +10275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18" thickBot="1">
+    <row r="33" spans="1:11" ht="16" thickBot="1">
       <c r="A33" s="13">
         <v>25</v>
       </c>
@@ -8958,7 +10304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18" thickBot="1">
+    <row r="34" spans="1:11" ht="16" thickBot="1">
       <c r="A34" s="13">
         <v>9</v>
       </c>
@@ -8989,7 +10335,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" ht="18" thickBot="1">
+    <row r="35" spans="1:11" ht="16" thickBot="1">
       <c r="A35" s="13">
         <v>29</v>
       </c>
@@ -9020,7 +10366,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" ht="18" thickBot="1">
+    <row r="36" spans="1:11" ht="16" thickBot="1">
       <c r="A36" s="13">
         <v>24</v>
       </c>
@@ -9051,7 +10397,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" ht="18" thickBot="1">
+    <row r="37" spans="1:11" ht="16" thickBot="1">
       <c r="A37" s="13">
         <v>13</v>
       </c>
@@ -9082,7 +10428,7 @@
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" ht="18" thickBot="1">
+    <row r="38" spans="1:11" ht="16" thickBot="1">
       <c r="A38" s="13">
         <v>22</v>
       </c>
@@ -9113,7 +10459,7 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" ht="18" thickBot="1">
+    <row r="39" spans="1:11" ht="16" thickBot="1">
       <c r="A39" s="13">
         <v>21</v>
       </c>
@@ -9165,7 +10511,7 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" ht="18" thickBot="1">
+    <row r="41" spans="1:11" ht="16" thickBot="1">
       <c r="A41" s="13">
         <v>10</v>
       </c>
@@ -9525,13 +10871,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="22">
+    <row r="2" spans="1:15" ht="19">
       <c r="A2" s="32">
         <v>23</v>
       </c>
@@ -9565,7 +10911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22">
+    <row r="3" spans="1:15" ht="19">
       <c r="A3" s="32">
         <v>32</v>
       </c>
@@ -9599,7 +10945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22">
+    <row r="4" spans="1:15" ht="19">
       <c r="A4" s="32">
         <v>8</v>
       </c>
@@ -9633,7 +10979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22">
+    <row r="5" spans="1:15" ht="19">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -9667,7 +11013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="22">
+    <row r="6" spans="1:15" ht="19">
       <c r="A6" s="32">
         <v>6</v>
       </c>
@@ -9701,7 +11047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="22">
+    <row r="7" spans="1:15" ht="19">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -9735,7 +11081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="22">
+    <row r="8" spans="1:15" ht="19">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -9769,7 +11115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="22">
+    <row r="9" spans="1:15" ht="19">
       <c r="A9" s="32">
         <v>24</v>
       </c>
@@ -9803,7 +11149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="22">
+    <row r="10" spans="1:15" ht="19">
       <c r="A10" s="32">
         <v>7</v>
       </c>
@@ -9837,7 +11183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="22">
+    <row r="11" spans="1:15" ht="19">
       <c r="A11" s="32">
         <v>27</v>
       </c>
@@ -9871,7 +11217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="22">
+    <row r="12" spans="1:15" ht="19">
       <c r="A12" s="32">
         <v>30</v>
       </c>
@@ -9905,7 +11251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="22">
+    <row r="13" spans="1:15" ht="19">
       <c r="A13" s="32">
         <v>17</v>
       </c>
@@ -9939,7 +11285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="22">
+    <row r="14" spans="1:15" ht="19">
       <c r="A14" s="32">
         <v>20</v>
       </c>
@@ -9973,7 +11319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="22">
+    <row r="15" spans="1:15" ht="19">
       <c r="A15" s="32">
         <v>19</v>
       </c>
@@ -10007,7 +11353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="22">
+    <row r="16" spans="1:15" ht="19">
       <c r="A16" s="32">
         <v>28</v>
       </c>
@@ -10041,7 +11387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="22">
+    <row r="17" spans="1:15" ht="19">
       <c r="A17" s="32">
         <v>9</v>
       </c>
@@ -10075,7 +11421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="22">
+    <row r="18" spans="1:15" ht="19">
       <c r="A18" s="32">
         <v>18</v>
       </c>
@@ -10109,7 +11455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="22">
+    <row r="19" spans="1:15" ht="19">
       <c r="A19" s="32">
         <v>1</v>
       </c>
@@ -10143,7 +11489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="22">
+    <row r="20" spans="1:15" ht="19">
       <c r="A20" s="32">
         <v>31</v>
       </c>
@@ -10177,7 +11523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="22">
+    <row r="21" spans="1:15" ht="19">
       <c r="A21" s="32">
         <v>29</v>
       </c>
@@ -10211,7 +11557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="22">
+    <row r="22" spans="1:15" ht="19">
       <c r="A22" s="32">
         <v>10</v>
       </c>
@@ -10245,7 +11591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="22">
+    <row r="23" spans="1:15" ht="19">
       <c r="A23" s="32">
         <v>12</v>
       </c>
@@ -10279,7 +11625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="22">
+    <row r="24" spans="1:15" ht="19">
       <c r="A24" s="32">
         <v>15</v>
       </c>
@@ -10313,7 +11659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="22">
+    <row r="25" spans="1:15" ht="19">
       <c r="A25" s="32">
         <v>16</v>
       </c>
@@ -10347,7 +11693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="22">
+    <row r="26" spans="1:15" ht="19">
       <c r="A26" s="32">
         <v>26</v>
       </c>
@@ -10381,7 +11727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="22">
+    <row r="27" spans="1:15" ht="19">
       <c r="A27" s="32">
         <v>11</v>
       </c>
@@ -10415,7 +11761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="22">
+    <row r="28" spans="1:15" ht="19">
       <c r="A28" s="32">
         <v>22</v>
       </c>
@@ -10449,7 +11795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="22">
+    <row r="29" spans="1:15" ht="19">
       <c r="A29" s="32">
         <v>25</v>
       </c>
@@ -10483,7 +11829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="22">
+    <row r="30" spans="1:15" ht="19">
       <c r="A30" s="32">
         <v>21</v>
       </c>
@@ -10517,7 +11863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="22">
+    <row r="31" spans="1:15" ht="19">
       <c r="A31" s="32">
         <v>14</v>
       </c>
@@ -10551,7 +11897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="22">
+    <row r="32" spans="1:15" ht="19">
       <c r="A32" s="32">
         <v>13</v>
       </c>
@@ -10585,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22">
+    <row r="33" spans="1:7" ht="19">
       <c r="A33" s="32">
         <v>2</v>
       </c>
@@ -10602,7 +11948,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
     </row>
-    <row r="34" spans="1:7" ht="22">
+    <row r="34" spans="1:7" ht="19">
       <c r="A34" s="32">
         <v>33</v>
       </c>
@@ -10649,7 +11995,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="6" spans="1:8" ht="22">
+    <row r="6" spans="1:8" ht="19">
       <c r="A6" s="32">
         <v>1</v>
       </c>
@@ -10675,7 +12021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="22">
+    <row r="7" spans="1:8" ht="19">
       <c r="A7" s="32">
         <v>2</v>
       </c>
@@ -10701,7 +12047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="22">
+    <row r="8" spans="1:8" ht="19">
       <c r="A8" s="32">
         <v>3</v>
       </c>
@@ -10727,7 +12073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="22">
+    <row r="9" spans="1:8" ht="19">
       <c r="A9" s="32">
         <v>4</v>
       </c>
@@ -10753,7 +12099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="22">
+    <row r="10" spans="1:8" ht="19">
       <c r="A10" s="32">
         <v>5</v>
       </c>
@@ -10779,7 +12125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="22">
+    <row r="11" spans="1:8" ht="19">
       <c r="A11" s="32">
         <v>6</v>
       </c>
@@ -10805,7 +12151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22">
+    <row r="12" spans="1:8" ht="19">
       <c r="A12" s="32">
         <v>7</v>
       </c>
@@ -10831,7 +12177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22">
+    <row r="13" spans="1:8" ht="19">
       <c r="A13" s="32">
         <v>8</v>
       </c>
@@ -10857,7 +12203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22">
+    <row r="14" spans="1:8" ht="19">
       <c r="A14" s="32">
         <v>9</v>
       </c>
@@ -10883,7 +12229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="22">
+    <row r="15" spans="1:8" ht="19">
       <c r="A15" s="32">
         <v>10</v>
       </c>
@@ -10909,7 +12255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="22">
+    <row r="16" spans="1:8" ht="19">
       <c r="A16" s="32">
         <v>11</v>
       </c>
@@ -10935,7 +12281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="22">
+    <row r="17" spans="1:8" ht="19">
       <c r="A17" s="32">
         <v>12</v>
       </c>
@@ -10961,7 +12307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="22">
+    <row r="18" spans="1:8" ht="19">
       <c r="A18" s="32">
         <v>13</v>
       </c>
@@ -10987,7 +12333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22">
+    <row r="19" spans="1:8" ht="19">
       <c r="A19" s="32">
         <v>14</v>
       </c>
@@ -11013,7 +12359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="22">
+    <row r="20" spans="1:8" ht="19">
       <c r="A20" s="32">
         <v>15</v>
       </c>
@@ -11039,7 +12385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22">
+    <row r="21" spans="1:8" ht="19">
       <c r="A21" s="32">
         <v>16</v>
       </c>
@@ -11065,7 +12411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="22">
+    <row r="22" spans="1:8" ht="19">
       <c r="A22" s="32">
         <v>17</v>
       </c>
@@ -11091,7 +12437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="22">
+    <row r="23" spans="1:8" ht="19">
       <c r="A23" s="32">
         <v>18</v>
       </c>
@@ -11117,7 +12463,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="22">
+    <row r="24" spans="1:8" ht="19">
       <c r="A24" s="32">
         <v>19</v>
       </c>
@@ -11143,7 +12489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="22">
+    <row r="25" spans="1:8" ht="19">
       <c r="A25" s="32">
         <v>20</v>
       </c>
@@ -11169,7 +12515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="22">
+    <row r="26" spans="1:8" ht="19">
       <c r="A26" s="32">
         <v>21</v>
       </c>
@@ -11195,7 +12541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="22">
+    <row r="27" spans="1:8" ht="19">
       <c r="A27" s="32">
         <v>22</v>
       </c>
@@ -11221,7 +12567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="22">
+    <row r="28" spans="1:8" ht="19">
       <c r="A28" s="32">
         <v>23</v>
       </c>
@@ -11247,7 +12593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="22">
+    <row r="29" spans="1:8" ht="19">
       <c r="A29" s="32">
         <v>24</v>
       </c>
@@ -11273,7 +12619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22">
+    <row r="30" spans="1:8" ht="19">
       <c r="A30" s="32">
         <v>25</v>
       </c>
@@ -11299,7 +12645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="22">
+    <row r="31" spans="1:8" ht="19">
       <c r="A31" s="32">
         <v>26</v>
       </c>
@@ -11325,7 +12671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="22">
+    <row r="32" spans="1:8" ht="19">
       <c r="A32" s="32">
         <v>27</v>
       </c>
@@ -11351,7 +12697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="22">
+    <row r="33" spans="1:8" ht="19">
       <c r="A33" s="32">
         <v>28</v>
       </c>
@@ -11377,7 +12723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="22">
+    <row r="34" spans="1:8" ht="19">
       <c r="A34" s="32">
         <v>29</v>
       </c>
@@ -11403,7 +12749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="22">
+    <row r="35" spans="1:8" ht="19">
       <c r="A35" s="32">
         <v>30</v>
       </c>
@@ -11429,7 +12775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="22">
+    <row r="36" spans="1:8" ht="19">
       <c r="A36" s="32">
         <v>31</v>
       </c>
@@ -11455,7 +12801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="22">
+    <row r="37" spans="1:8" ht="19">
       <c r="A37" s="32">
         <v>32</v>
       </c>
@@ -11481,7 +12827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="22">
+    <row r="38" spans="1:8" ht="18">
       <c r="A38" s="32">
         <v>33</v>
       </c>
@@ -11579,7 +12925,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="22">
+    <row r="3" spans="1:13" ht="19">
       <c r="A3" s="32">
         <v>32</v>
       </c>
@@ -11611,7 +12957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22">
+    <row r="4" spans="1:13" ht="19">
       <c r="A4" s="32">
         <v>31</v>
       </c>
@@ -11643,7 +12989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="22">
+    <row r="5" spans="1:13" ht="19">
       <c r="A5" s="32">
         <v>33</v>
       </c>
@@ -11675,7 +13021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="22">
+    <row r="6" spans="1:13" ht="19">
       <c r="A6" s="32">
         <v>23</v>
       </c>
@@ -11707,7 +13053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="22">
+    <row r="7" spans="1:13" ht="19">
       <c r="A7" s="32">
         <v>19</v>
       </c>
@@ -11739,7 +13085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="22">
+    <row r="8" spans="1:13" ht="19">
       <c r="A8" s="32">
         <v>3</v>
       </c>
@@ -11771,7 +13117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="22">
+    <row r="9" spans="1:13" ht="19">
       <c r="A9" s="32">
         <v>5</v>
       </c>
@@ -11803,7 +13149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="22">
+    <row r="10" spans="1:13" ht="19">
       <c r="A10" s="32">
         <v>20</v>
       </c>
@@ -11835,7 +13181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="22">
+    <row r="11" spans="1:13" ht="19">
       <c r="A11" s="32">
         <v>7</v>
       </c>
@@ -11867,7 +13213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="22">
+    <row r="12" spans="1:13" ht="19">
       <c r="A12" s="32">
         <v>16</v>
       </c>
@@ -11899,7 +13245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="22">
+    <row r="13" spans="1:13" ht="19">
       <c r="A13" s="32">
         <v>21</v>
       </c>
@@ -11931,7 +13277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="22">
+    <row r="14" spans="1:13" ht="19">
       <c r="A14" s="32">
         <v>14</v>
       </c>
@@ -11963,7 +13309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="22">
+    <row r="15" spans="1:13" ht="19">
       <c r="A15" s="32">
         <v>26</v>
       </c>
@@ -11995,7 +13341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="22">
+    <row r="16" spans="1:13" ht="19">
       <c r="A16" s="32">
         <v>27</v>
       </c>
@@ -12027,7 +13373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="22">
+    <row r="17" spans="1:13" ht="19">
       <c r="A17" s="32">
         <v>29</v>
       </c>
@@ -12059,7 +13405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="22">
+    <row r="18" spans="1:13" ht="19">
       <c r="A18" s="32">
         <v>11</v>
       </c>
@@ -12091,7 +13437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="22">
+    <row r="19" spans="1:13" ht="19">
       <c r="A19" s="32">
         <v>18</v>
       </c>
@@ -12123,7 +13469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="22">
+    <row r="20" spans="1:13" ht="19">
       <c r="A20" s="32">
         <v>10</v>
       </c>
@@ -12155,7 +13501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="22">
+    <row r="21" spans="1:13" ht="19">
       <c r="A21" s="32">
         <v>12</v>
       </c>
@@ -12187,7 +13533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="22">
+    <row r="22" spans="1:13" ht="19">
       <c r="A22" s="32">
         <v>13</v>
       </c>
@@ -12219,7 +13565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="22">
+    <row r="23" spans="1:13" ht="19">
       <c r="A23" s="32">
         <v>2</v>
       </c>
@@ -12251,7 +13597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="22">
+    <row r="24" spans="1:13" ht="19">
       <c r="A24" s="32">
         <v>4</v>
       </c>
@@ -12283,7 +13629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="22">
+    <row r="25" spans="1:13" ht="19">
       <c r="A25" s="32">
         <v>17</v>
       </c>
@@ -12315,7 +13661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="22">
+    <row r="26" spans="1:13" ht="19">
       <c r="A26" s="32">
         <v>30</v>
       </c>
@@ -12347,7 +13693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="22">
+    <row r="27" spans="1:13" ht="19">
       <c r="A27" s="32">
         <v>8</v>
       </c>
@@ -12379,7 +13725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="22">
+    <row r="28" spans="1:13" ht="19">
       <c r="A28" s="32">
         <v>6</v>
       </c>
@@ -12411,7 +13757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="22">
+    <row r="29" spans="1:13" ht="19">
       <c r="A29" s="32">
         <v>15</v>
       </c>
@@ -12443,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="22">
+    <row r="30" spans="1:13" ht="19">
       <c r="A30" s="32">
         <v>28</v>
       </c>
@@ -12475,7 +13821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="22">
+    <row r="31" spans="1:13" ht="19">
       <c r="A31" s="32">
         <v>22</v>
       </c>
@@ -12507,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="22">
+    <row r="32" spans="1:13" ht="19">
       <c r="A32" s="32">
         <v>25</v>
       </c>
@@ -12539,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="22">
+    <row r="33" spans="1:13" ht="19">
       <c r="A33" s="32">
         <v>24</v>
       </c>
@@ -12571,7 +13917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="22">
+    <row r="34" spans="1:13" ht="19">
       <c r="A34" s="32">
         <v>9</v>
       </c>
@@ -12683,7 +14029,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="22">
+    <row r="4" spans="1:7" ht="19">
       <c r="A4" s="32">
         <v>32</v>
       </c>
@@ -12700,7 +14046,7 @@
       </c>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" ht="22">
+    <row r="5" spans="1:7" ht="19">
       <c r="A5" s="32">
         <v>30</v>
       </c>
@@ -12717,7 +14063,7 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" ht="22">
+    <row r="6" spans="1:7" ht="19">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -12734,7 +14080,7 @@
       </c>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" ht="22">
+    <row r="7" spans="1:7" ht="19">
       <c r="A7" s="32">
         <v>22</v>
       </c>
@@ -12751,7 +14097,7 @@
       </c>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" ht="22">
+    <row r="8" spans="1:7" ht="19">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -12768,7 +14114,7 @@
       </c>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" ht="22">
+    <row r="9" spans="1:7" ht="19">
       <c r="A9" s="32">
         <v>21</v>
       </c>
@@ -12785,7 +14131,7 @@
       </c>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="22">
+    <row r="10" spans="1:7" ht="19">
       <c r="A10" s="32">
         <v>6</v>
       </c>
@@ -12802,7 +14148,7 @@
       </c>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="22">
+    <row r="11" spans="1:7" ht="19">
       <c r="A11" s="32">
         <v>20</v>
       </c>
@@ -12819,7 +14165,7 @@
       </c>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" ht="22">
+    <row r="12" spans="1:7" ht="19">
       <c r="A12" s="32">
         <v>14</v>
       </c>
@@ -12836,7 +14182,7 @@
       </c>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="22">
+    <row r="13" spans="1:7" ht="19">
       <c r="A13" s="32">
         <v>25</v>
       </c>
@@ -12853,7 +14199,7 @@
       </c>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" ht="22">
+    <row r="14" spans="1:7" ht="19">
       <c r="A14" s="32">
         <v>19</v>
       </c>
@@ -12870,7 +14216,7 @@
       </c>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" ht="22">
+    <row r="15" spans="1:7" ht="19">
       <c r="A15" s="32">
         <v>16</v>
       </c>
@@ -12887,7 +14233,7 @@
       </c>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" ht="22">
+    <row r="16" spans="1:7" ht="19">
       <c r="A16" s="32">
         <v>26</v>
       </c>
@@ -12904,7 +14250,7 @@
       </c>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="22">
+    <row r="17" spans="1:7" ht="19">
       <c r="A17" s="32">
         <v>18</v>
       </c>
@@ -12921,7 +14267,7 @@
       </c>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" ht="22">
+    <row r="18" spans="1:7" ht="19">
       <c r="A18" s="32">
         <v>8</v>
       </c>
@@ -12938,7 +14284,7 @@
       </c>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" ht="22">
+    <row r="19" spans="1:7" ht="19">
       <c r="A19" s="32">
         <v>11</v>
       </c>
@@ -12955,7 +14301,7 @@
       </c>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" ht="22">
+    <row r="20" spans="1:7" ht="19">
       <c r="A20" s="32">
         <v>1</v>
       </c>
@@ -12972,7 +14318,7 @@
       </c>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" ht="22">
+    <row r="21" spans="1:7" ht="19">
       <c r="A21" s="32">
         <v>10</v>
       </c>
@@ -12989,7 +14335,7 @@
       </c>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="22">
+    <row r="22" spans="1:7" ht="19">
       <c r="A22" s="32">
         <v>3</v>
       </c>
@@ -13006,7 +14352,7 @@
       </c>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" ht="22">
+    <row r="23" spans="1:7" ht="19">
       <c r="A23" s="32">
         <v>17</v>
       </c>
@@ -13023,7 +14369,7 @@
       </c>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7" ht="22">
+    <row r="24" spans="1:7" ht="19">
       <c r="A24" s="32">
         <v>31</v>
       </c>
@@ -13040,7 +14386,7 @@
       </c>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="22">
+    <row r="25" spans="1:7" ht="19">
       <c r="A25" s="32">
         <v>7</v>
       </c>
@@ -13057,7 +14403,7 @@
       </c>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="22">
+    <row r="26" spans="1:7" ht="19">
       <c r="A26" s="32">
         <v>5</v>
       </c>
@@ -13074,7 +14420,7 @@
       </c>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="22">
+    <row r="27" spans="1:7" ht="19">
       <c r="A27" s="32">
         <v>27</v>
       </c>
@@ -13091,7 +14437,7 @@
       </c>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="22">
+    <row r="28" spans="1:7" ht="19">
       <c r="A28" s="32">
         <v>29</v>
       </c>
@@ -13108,7 +14454,7 @@
       </c>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="22">
+    <row r="29" spans="1:7" ht="19">
       <c r="A29" s="32">
         <v>13</v>
       </c>
@@ -13125,7 +14471,7 @@
       </c>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="22">
+    <row r="30" spans="1:7" ht="19">
       <c r="A30" s="32">
         <v>15</v>
       </c>
@@ -13142,7 +14488,7 @@
       </c>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:7" ht="22">
+    <row r="31" spans="1:7" ht="19">
       <c r="A31" s="32">
         <v>24</v>
       </c>
@@ -13159,7 +14505,7 @@
       </c>
       <c r="G31" s="32"/>
     </row>
-    <row r="32" spans="1:7" ht="22">
+    <row r="32" spans="1:7" ht="19">
       <c r="A32" s="32">
         <v>9</v>
       </c>
@@ -13176,7 +14522,7 @@
       </c>
       <c r="G32" s="32"/>
     </row>
-    <row r="33" spans="1:7" ht="22">
+    <row r="33" spans="1:7" ht="19">
       <c r="A33" s="32">
         <v>28</v>
       </c>
@@ -13193,7 +14539,7 @@
       </c>
       <c r="G33" s="32"/>
     </row>
-    <row r="34" spans="1:7" ht="22">
+    <row r="34" spans="1:7" ht="19">
       <c r="A34" s="32">
         <v>12</v>
       </c>
@@ -13210,7 +14556,7 @@
       </c>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" ht="22">
+    <row r="35" spans="1:7" ht="19">
       <c r="A35" s="32">
         <v>23</v>
       </c>
@@ -13227,7 +14573,7 @@
       </c>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="1:7" ht="22">
+    <row r="36" spans="1:7" ht="18">
       <c r="A36" s="32">
         <v>33</v>
       </c>
@@ -13262,4 +14608,911 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35" t="s">
+        <v>273</v>
+      </c>
+      <c r="C35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" t="s">
+        <v>276</v>
+      </c>
+      <c r="C44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" t="s">
+        <v>280</v>
+      </c>
+      <c r="C54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>231</v>
+      </c>
+      <c r="B59" t="s">
+        <v>286</v>
+      </c>
+      <c r="C59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>291</v>
+      </c>
+      <c r="C62" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G77">
+        <f>SUM(G10:G73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A10:B74">
+    <sortCondition descending="1" ref="B10:B74"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="60" windowWidth="25080" windowHeight="15480" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="-80" yWindow="220" windowWidth="27540" windowHeight="18920" tabRatio="500" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="330">
   <si>
     <t>小学</t>
   </si>
@@ -2316,369 +2316,428 @@
     <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,扇贝,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书</t>
   </si>
   <si>
+    <t>每日,</t>
+  </si>
+  <si>
+    <t>雅思,</t>
+  </si>
+  <si>
+    <t>托福,</t>
+  </si>
+  <si>
+    <t>考研,</t>
+  </si>
+  <si>
+    <t>商务,</t>
+  </si>
+  <si>
+    <t>高考,</t>
+  </si>
+  <si>
+    <t>牛津,</t>
+  </si>
+  <si>
+    <t>英孚,</t>
+  </si>
+  <si>
+    <t>儿童,</t>
+  </si>
+  <si>
+    <t>幼儿,</t>
+  </si>
+  <si>
+    <t>懒人,</t>
+  </si>
+  <si>
+    <t>沪江,</t>
+  </si>
+  <si>
+    <t>有道,</t>
+  </si>
+  <si>
+    <t>中英文,</t>
+  </si>
+  <si>
+    <t>英汉,</t>
+  </si>
+  <si>
+    <t>小学,</t>
+  </si>
+  <si>
+    <t>初中,</t>
+  </si>
+  <si>
+    <t>高中,</t>
+  </si>
+  <si>
+    <t>大学,</t>
+  </si>
+  <si>
+    <t>四六级,</t>
+  </si>
+  <si>
+    <t>双语,</t>
+  </si>
+  <si>
+    <t>词典,</t>
+  </si>
+  <si>
+    <t>发音,</t>
+  </si>
+  <si>
+    <t>音标,</t>
+  </si>
+  <si>
+    <t>作业,</t>
+  </si>
+  <si>
+    <t>美剧,</t>
+  </si>
+  <si>
+    <t>大全,</t>
+  </si>
+  <si>
+    <t>留学,</t>
+  </si>
+  <si>
+    <t>达人,</t>
+  </si>
+  <si>
+    <t>题库,</t>
+  </si>
+  <si>
+    <t>词汇,</t>
+  </si>
+  <si>
+    <t>旅行,</t>
+  </si>
+  <si>
+    <t>听书,</t>
+  </si>
+  <si>
+    <t>新东方,</t>
+  </si>
+  <si>
+    <t>扇贝,</t>
+  </si>
+  <si>
+    <t>星火,</t>
+  </si>
+  <si>
+    <t>百度,</t>
+  </si>
+  <si>
+    <t>51,</t>
+  </si>
+  <si>
+    <t>流利说,</t>
+  </si>
+  <si>
+    <t>多说,</t>
+  </si>
+  <si>
+    <t>百词,</t>
+  </si>
+  <si>
+    <t>趣配音,</t>
+  </si>
+  <si>
+    <t>爽哥,</t>
+  </si>
+  <si>
+    <t>学霸,</t>
+  </si>
+  <si>
+    <t>人人,</t>
+  </si>
+  <si>
+    <t>少儿,</t>
+  </si>
+  <si>
+    <t>开心,</t>
+  </si>
+  <si>
+    <t>voa,</t>
+  </si>
+  <si>
+    <t>bbc,</t>
+  </si>
+  <si>
+    <t>ted,</t>
+  </si>
+  <si>
+    <t>出国,</t>
+  </si>
+  <si>
+    <t>在线,</t>
+  </si>
+  <si>
+    <t>日常,</t>
+  </si>
+  <si>
+    <t>基础,</t>
+  </si>
+  <si>
+    <t>语言,</t>
+  </si>
+  <si>
+    <t>教育,</t>
+  </si>
+  <si>
+    <t>阅读,</t>
+  </si>
+  <si>
+    <t>练习,</t>
+  </si>
+  <si>
+    <t>宝典,</t>
+  </si>
+  <si>
+    <t>软件,</t>
+  </si>
+  <si>
+    <t>课堂,</t>
+  </si>
+  <si>
+    <t>词场,</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>59,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>52,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>32,</t>
+  </si>
+  <si>
+    <t>23,</t>
+  </si>
+  <si>
+    <t>31,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>48,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>30,</t>
+  </si>
+  <si>
+    <t>50,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>72,</t>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>33,</t>
+  </si>
+  <si>
+    <t>65,</t>
+  </si>
+  <si>
+    <t>89,</t>
+  </si>
+  <si>
+    <t>76,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>94,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>36,</t>
+  </si>
+  <si>
+    <t>41,</t>
+  </si>
+  <si>
+    <t>120,</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>学堂,</t>
+  </si>
+  <si>
+    <t>75,</t>
+  </si>
+  <si>
+    <t>69,</t>
+  </si>
+  <si>
+    <t>62,</t>
+  </si>
+  <si>
+    <t>44,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>天天,</t>
+  </si>
+  <si>
+    <t>金山,</t>
+  </si>
+  <si>
+    <t>辞典,</t>
+  </si>
+  <si>
+    <t>简单,</t>
+  </si>
+  <si>
+    <t>能飞,</t>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>辞典</t>
+  </si>
+  <si>
+    <t>中学</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>辅导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>听歌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流利说,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,英孚,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,双语,词典,发音,音标,作业,美剧,大全,留学,达人,题库,词汇,旅行,听书
+新东方,扇贝,星火,百度,51,流利说,多说,百词,叽哩呱啦,趣配音,爽哥,学霸,人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,阅读,练习,宝典,软件,课堂,词场,学堂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用</t>
+  </si>
+  <si>
+    <t>攻略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,达人,题库,旅行,听书,攻略</t>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>详解</t>
+  </si>
+  <si>
     <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书
 新东方,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,辞典,学堂</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书
-新东方,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,辞典,学堂</t>
+    <t>新东方,星火,百度,51,欧洲,能飞,扇贝,趣配音,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,视频,学堂</t>
+  </si>
+  <si>
+    <t>词场,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每日,</t>
-  </si>
-  <si>
-    <t>雅思,</t>
-  </si>
-  <si>
-    <t>托福,</t>
-  </si>
-  <si>
-    <t>考研,</t>
-  </si>
-  <si>
-    <t>商务,</t>
-  </si>
-  <si>
-    <t>高考,</t>
-  </si>
-  <si>
-    <t>牛津,</t>
-  </si>
-  <si>
-    <t>英孚,</t>
-  </si>
-  <si>
-    <t>儿童,</t>
-  </si>
-  <si>
-    <t>幼儿,</t>
-  </si>
-  <si>
-    <t>懒人,</t>
-  </si>
-  <si>
-    <t>沪江,</t>
-  </si>
-  <si>
-    <t>有道,</t>
-  </si>
-  <si>
-    <t>中英文,</t>
-  </si>
-  <si>
-    <t>英汉,</t>
-  </si>
-  <si>
-    <t>小学,</t>
-  </si>
-  <si>
-    <t>初中,</t>
-  </si>
-  <si>
-    <t>高中,</t>
-  </si>
-  <si>
-    <t>大学,</t>
-  </si>
-  <si>
-    <t>四六级,</t>
-  </si>
-  <si>
-    <t>双语,</t>
-  </si>
-  <si>
-    <t>词典,</t>
-  </si>
-  <si>
-    <t>发音,</t>
-  </si>
-  <si>
-    <t>音标,</t>
-  </si>
-  <si>
-    <t>作业,</t>
-  </si>
-  <si>
-    <t>美剧,</t>
-  </si>
-  <si>
-    <t>大全,</t>
-  </si>
-  <si>
-    <t>留学,</t>
-  </si>
-  <si>
-    <t>达人,</t>
-  </si>
-  <si>
-    <t>题库,</t>
-  </si>
-  <si>
-    <t>词汇,</t>
-  </si>
-  <si>
-    <t>旅行,</t>
-  </si>
-  <si>
-    <t>听书,</t>
-  </si>
-  <si>
-    <t>新东方,</t>
-  </si>
-  <si>
-    <t>扇贝,</t>
-  </si>
-  <si>
-    <t>星火,</t>
-  </si>
-  <si>
-    <t>百度,</t>
-  </si>
-  <si>
-    <t>51,</t>
-  </si>
-  <si>
-    <t>流利说,</t>
-  </si>
-  <si>
-    <t>多说,</t>
-  </si>
-  <si>
-    <t>百词,</t>
-  </si>
-  <si>
-    <t>趣配音,</t>
-  </si>
-  <si>
-    <t>爽哥,</t>
-  </si>
-  <si>
-    <t>学霸,</t>
-  </si>
-  <si>
-    <t>人人,</t>
-  </si>
-  <si>
-    <t>少儿,</t>
-  </si>
-  <si>
-    <t>开心,</t>
-  </si>
-  <si>
-    <t>voa,</t>
-  </si>
-  <si>
-    <t>bbc,</t>
-  </si>
-  <si>
-    <t>ted,</t>
-  </si>
-  <si>
-    <t>出国,</t>
-  </si>
-  <si>
-    <t>在线,</t>
-  </si>
-  <si>
-    <t>日常,</t>
-  </si>
-  <si>
-    <t>基础,</t>
-  </si>
-  <si>
-    <t>语言,</t>
-  </si>
-  <si>
-    <t>教育,</t>
-  </si>
-  <si>
-    <t>阅读,</t>
-  </si>
-  <si>
-    <t>练习,</t>
-  </si>
-  <si>
-    <t>宝典,</t>
-  </si>
-  <si>
-    <t>软件,</t>
-  </si>
-  <si>
-    <t>课堂,</t>
-  </si>
-  <si>
-    <t>词场,</t>
-  </si>
-  <si>
-    <t>28,</t>
-  </si>
-  <si>
-    <t>59,</t>
-  </si>
-  <si>
-    <t>24,</t>
-  </si>
-  <si>
-    <t>52,</t>
-  </si>
-  <si>
-    <t>18,</t>
-  </si>
-  <si>
-    <t>19,</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>32,</t>
-  </si>
-  <si>
-    <t>23,</t>
-  </si>
-  <si>
-    <t>31,</t>
-  </si>
-  <si>
-    <t>22,</t>
-  </si>
-  <si>
-    <t>9,</t>
-  </si>
-  <si>
-    <t>17,</t>
-  </si>
-  <si>
-    <t>48,</t>
-  </si>
-  <si>
-    <t>26,</t>
-  </si>
-  <si>
-    <t>30,</t>
-  </si>
-  <si>
-    <t>50,</t>
-  </si>
-  <si>
-    <t>21,</t>
-  </si>
-  <si>
-    <t>7,</t>
-  </si>
-  <si>
-    <t>72,</t>
-  </si>
-  <si>
-    <t>14,</t>
-  </si>
-  <si>
-    <t>15,</t>
-  </si>
-  <si>
-    <t>40,</t>
-  </si>
-  <si>
-    <t>33,</t>
-  </si>
-  <si>
-    <t>65,</t>
-  </si>
-  <si>
-    <t>89,</t>
-  </si>
-  <si>
-    <t>76,</t>
-  </si>
-  <si>
-    <t>13,</t>
-  </si>
-  <si>
-    <t>94,</t>
-  </si>
-  <si>
-    <t>25,</t>
-  </si>
-  <si>
-    <t>3,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>20,</t>
-  </si>
-  <si>
-    <t>36,</t>
-  </si>
-  <si>
-    <t>41,</t>
-  </si>
-  <si>
-    <t>120,</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>27,</t>
-  </si>
-  <si>
-    <t>学堂,</t>
-  </si>
-  <si>
-    <t>75,</t>
-  </si>
-  <si>
-    <t>69,</t>
-  </si>
-  <si>
-    <t>62,</t>
-  </si>
-  <si>
-    <t>44,</t>
-  </si>
-  <si>
-    <t>12,</t>
-  </si>
-  <si>
-    <t>6,</t>
-  </si>
-  <si>
-    <t>天天,</t>
-  </si>
-  <si>
-    <t>金山,</t>
-  </si>
-  <si>
-    <t>辞典,</t>
-  </si>
-  <si>
-    <t>简单,</t>
-  </si>
-  <si>
-    <t>能飞,</t>
-  </si>
-  <si>
-    <t>0,</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>辞典</t>
+    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语言,教育,阅读,练习,宝典,软件,课堂,词场,视频,学霸</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,达人,题库,旅行,听书,攻略</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2832,6 +2891,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2885,7 +2951,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="492">
+  <cellStyleXfs count="522">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3378,8 +3444,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3447,22 +3543,24 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="492">
+  <cellStyles count="522">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3954,6 +4052,36 @@
     <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5187,910 +5315,924 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
+      <c r="A1" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E32" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E46" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E47" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E54" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E59" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E62" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E64" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E65" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="B67" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B66" t="s">
-        <v>277</v>
-      </c>
-      <c r="E66" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="35" t="s">
+      <c r="B70" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" s="36"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="36"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="B67" t="s">
-        <v>304</v>
-      </c>
-      <c r="E67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>217</v>
-      </c>
-      <c r="B68" t="s">
-        <v>304</v>
-      </c>
-      <c r="E68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="B69" t="s">
-        <v>304</v>
-      </c>
-      <c r="E69" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>237</v>
-      </c>
-      <c r="B70" t="s">
-        <v>265</v>
-      </c>
-      <c r="E70" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>236</v>
-      </c>
-      <c r="B71" t="s">
-        <v>289</v>
-      </c>
-      <c r="E71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>239</v>
-      </c>
-      <c r="B72" t="s">
-        <v>289</v>
-      </c>
-      <c r="E72" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="35" t="s">
-        <v>309</v>
-      </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E73" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -6101,29 +6243,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="C77" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="C80" s="35" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="C78" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="C79" s="35" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="C80" s="35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="1:8">
       <c r="C81" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="G81" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="H81" s="43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="F83" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6199,19 +6368,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="38" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="38">
         <v>4613</v>
       </c>
-      <c r="Q2" s="37">
+      <c r="Q2" s="38">
         <v>1490</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6237,13 +6406,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="37"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -6267,19 +6436,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="38" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="38">
         <v>4605</v>
       </c>
-      <c r="Q4" s="37">
+      <c r="Q4" s="38">
         <v>1750</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6305,13 +6474,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="37"/>
+      <c r="N5" s="38"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -6335,19 +6504,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="38" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="38">
         <v>0</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="38">
         <v>1489</v>
       </c>
-      <c r="R6" s="38" t="s">
+      <c r="R6" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6373,13 +6542,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="37"/>
+      <c r="N7" s="38"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -6403,19 +6572,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="38" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="38">
         <v>4606</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="38">
         <v>2175</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6441,13 +6610,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="37"/>
+      <c r="N9" s="38"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -6471,19 +6640,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="38" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="38">
         <v>4607</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="38">
         <v>2176</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6509,13 +6678,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -6539,19 +6708,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="38" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="38">
         <v>0</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="38">
         <v>46</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6577,13 +6746,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="37"/>
+      <c r="N13" s="38"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -6607,19 +6776,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="38" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="38">
         <v>4605</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="38">
         <v>2177</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6645,13 +6814,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="37"/>
+      <c r="N15" s="38"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -6675,19 +6844,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="38" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="38">
         <v>53</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="38">
         <v>14</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6713,13 +6882,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="37"/>
+      <c r="N17" s="38"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="39"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -6743,19 +6912,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="N18" s="38" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="38">
         <v>0</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="38">
         <v>816</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6781,13 +6950,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="37"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="39"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -6811,19 +6980,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="37" t="s">
+      <c r="N20" s="38" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="38">
         <v>4605</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="38">
         <v>2174</v>
       </c>
-      <c r="R20" s="38" t="s">
+      <c r="R20" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6840,13 +7009,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="37"/>
+      <c r="N21" s="38"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="39"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -6870,19 +7039,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="38" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="38">
         <v>4605</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="38">
         <v>2135</v>
       </c>
-      <c r="R22" s="38" t="s">
+      <c r="R22" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6908,13 +7077,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="37"/>
+      <c r="N23" s="38"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="39"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -6938,19 +7107,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="N24" s="38" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="38">
         <v>4607</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="38">
         <v>1174</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="R24" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6976,13 +7145,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="37"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="39"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -7006,19 +7175,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="N26" s="38" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="38">
         <v>4607</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="38">
         <v>45</v>
       </c>
-      <c r="R26" s="38" t="s">
+      <c r="R26" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7044,13 +7213,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="37"/>
+      <c r="N27" s="38"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="39"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -7074,19 +7243,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="37" t="s">
+      <c r="N28" s="38" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="38">
         <v>4606</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="38">
         <v>21</v>
       </c>
-      <c r="R28" s="38" t="s">
+      <c r="R28" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7112,13 +7281,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="37"/>
+      <c r="N29" s="38"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="39"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -7142,19 +7311,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="37" t="s">
+      <c r="N30" s="38" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="38">
         <v>4605</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="38">
         <v>14</v>
       </c>
-      <c r="R30" s="38" t="s">
+      <c r="R30" s="39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7180,13 +7349,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="37"/>
+      <c r="N31" s="38"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="39"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -7227,523 +7396,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="38" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="38">
         <v>4613</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="38">
         <v>1490</v>
       </c>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="37"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="38">
         <v>4605</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="38">
         <v>1750</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="37"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="38" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="38">
         <v>0</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="38">
         <v>1489</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="37"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="39"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="38">
         <v>4606</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="38">
         <v>2175</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="37"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="38">
         <v>4607</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="38">
         <v>2176</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="37"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="38">
         <v>0</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="38">
         <v>46</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="37"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="38" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="38">
         <v>4605</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="38">
         <v>2177</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="E51" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="37"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="39"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="38" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="38">
         <v>53</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="38">
         <v>14</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E53" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="37"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="38" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="38">
         <v>0</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="38">
         <v>816</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="37"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="38" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="38">
         <v>4605</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="38">
         <v>2174</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="37"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="39"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="38" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="38">
         <v>4605</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D59" s="38">
         <v>2135</v>
       </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="37"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="39"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="38">
         <v>4607</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="38">
         <v>1174</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="37"/>
+      <c r="A62" s="38"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="39"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="38">
         <v>4607</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="38">
         <v>45</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="37"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="38" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="38">
         <v>4606</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D65" s="38">
         <v>21</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="37"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="39"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="38" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="38">
         <v>4605</v>
       </c>
-      <c r="D67" s="37">
+      <c r="D67" s="38">
         <v>14</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="37"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="39"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="38" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="38">
         <v>4605</v>
       </c>
-      <c r="D69" s="37">
+      <c r="D69" s="38">
         <v>2172</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="37"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="38" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="38">
         <v>4629</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="38">
         <v>2173</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="37"/>
+      <c r="A72" s="38"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="39"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="38">
         <v>270</v>
       </c>
-      <c r="D73" s="37">
+      <c r="D73" s="38">
         <v>2176</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="37"/>
+      <c r="A74" s="38"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="38" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="38">
         <v>0</v>
       </c>
-      <c r="D75" s="37">
+      <c r="D75" s="38">
         <v>11</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="39" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="37"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="39"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -7755,6 +7924,119 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -7779,119 +8061,6 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -14612,851 +14781,863 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection sqref="A1:P8"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="A1" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C48" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C50" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C54" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B58" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B62" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="s">
-        <v>258</v>
-      </c>
-      <c r="B66" t="s">
-        <v>270</v>
-      </c>
-      <c r="C66" t="s">
-        <v>310</v>
+      <c r="A66" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" t="s">
-        <v>277</v>
-      </c>
-      <c r="C67" t="s">
-        <v>310</v>
-      </c>
+      <c r="A67" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="s">
+      <c r="A68" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="B68" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
-        <v>237</v>
-      </c>
-      <c r="B69" t="s">
-        <v>265</v>
-      </c>
-      <c r="C69" t="s">
-        <v>310</v>
-      </c>
+      <c r="B69" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" t="s">
-        <v>236</v>
-      </c>
-      <c r="B71" t="s">
-        <v>289</v>
-      </c>
-      <c r="C71" t="s">
-        <v>310</v>
+      <c r="A71" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>239</v>
-      </c>
-      <c r="B72" t="s">
-        <v>289</v>
-      </c>
-      <c r="C72" t="s">
-        <v>310</v>
+      <c r="A72" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -15469,15 +15650,29 @@
       <c r="C73">
         <v>1</v>
       </c>
+      <c r="E73" t="s">
+        <v>317</v>
+      </c>
+      <c r="F73" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G77">
         <f>SUM(G10:G73)</f>
@@ -15486,17 +15681,33 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="35" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="35" t="s">
         <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="220" windowWidth="27540" windowHeight="18920" tabRatio="500" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="580" yWindow="1040" windowWidth="25100" windowHeight="15600" tabRatio="500" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -2706,9 +2706,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,达人,题库,旅行,听书,攻略</t>
-  </si>
-  <si>
     <t>视频</t>
   </si>
   <si>
@@ -2720,9 +2717,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新东方,星火,百度,51,欧洲,能飞,扇贝,趣配音,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,视频,学堂</t>
-  </si>
-  <si>
     <t>词场,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2731,6 +2725,14 @@
   </si>
   <si>
     <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,达人,题库,旅行,听书,攻略</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3543,11 +3545,13 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3557,8 +3561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="522">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -5317,213 +5319,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:O87"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="A1" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
@@ -6098,24 +6100,28 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" t="s">
+      <c r="A63" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="E63" t="s">
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" t="s">
+      <c r="A64" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="E64" t="s">
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6168,7 +6174,7 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B69" s="36" t="s">
@@ -6181,15 +6187,15 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44" t="s">
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6273,11 +6279,11 @@
       <c r="C81" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="G81" s="43" t="s">
+      <c r="G81" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="H81" s="37" t="s">
         <v>323</v>
-      </c>
-      <c r="H81" s="43" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6287,12 +6293,12 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6368,19 +6374,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="39">
         <v>4613</v>
       </c>
-      <c r="Q2" s="38">
+      <c r="Q2" s="39">
         <v>1490</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6406,13 +6412,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="38"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -6436,19 +6442,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="39" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="39">
         <v>4605</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="39">
         <v>1750</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6474,13 +6480,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="38"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -6504,19 +6510,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="39" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="39">
         <v>0</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="39">
         <v>1489</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6542,13 +6548,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="38"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -6572,19 +6578,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="39" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="38">
+      <c r="P8" s="39">
         <v>4606</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="39">
         <v>2175</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6610,13 +6616,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="38"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -6640,19 +6646,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="39" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="39">
         <v>4607</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="39">
         <v>2176</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6678,13 +6684,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="38"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -6708,19 +6714,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="39" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="38">
+      <c r="P12" s="39">
         <v>0</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="39">
         <v>46</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6746,13 +6752,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="38"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -6776,19 +6782,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="39" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="39">
         <v>4605</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="39">
         <v>2177</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6814,13 +6820,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -6844,19 +6850,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="39" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="39">
         <v>53</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="39">
         <v>14</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6882,13 +6888,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="38"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -6912,19 +6918,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="39" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="38">
+      <c r="P18" s="39">
         <v>0</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="39">
         <v>816</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="R18" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6950,13 +6956,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="38"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -6980,19 +6986,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="38" t="s">
+      <c r="N20" s="39" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20" s="39">
         <v>4605</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="39">
         <v>2174</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7009,13 +7015,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="38"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -7039,19 +7045,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="39" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22" s="39">
         <v>4605</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="39">
         <v>2135</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7077,13 +7083,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="38"/>
+      <c r="N23" s="39"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -7107,19 +7113,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="39" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P24" s="39">
         <v>4607</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="39">
         <v>1174</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7145,13 +7151,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="38"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -7175,19 +7181,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="38" t="s">
+      <c r="N26" s="39" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="38">
+      <c r="P26" s="39">
         <v>4607</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="39">
         <v>45</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7213,13 +7219,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="38"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -7243,19 +7249,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="38" t="s">
+      <c r="N28" s="39" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="38">
+      <c r="P28" s="39">
         <v>4606</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="39">
         <v>21</v>
       </c>
-      <c r="R28" s="39" t="s">
+      <c r="R28" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7281,13 +7287,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="38"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -7311,19 +7317,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="39" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30" s="39">
         <v>4605</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="39">
         <v>14</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7349,13 +7355,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="38"/>
+      <c r="N31" s="39"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -7396,523 +7402,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="39" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="39">
         <v>4613</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="39">
         <v>1490</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="38"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="39">
         <v>4605</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="39">
         <v>1750</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="38"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="39">
         <v>0</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="39">
         <v>1489</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="38"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="39">
         <v>4606</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="39">
         <v>2175</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="38"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="39" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="39">
         <v>4607</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="39">
         <v>2176</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="38"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="39">
         <v>0</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="39">
         <v>46</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="38"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="39">
         <v>4605</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="39">
         <v>2177</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="38"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="39">
         <v>53</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="39">
         <v>14</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="38"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="39">
         <v>0</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="39">
         <v>816</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="38"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="39">
         <v>4605</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="39">
         <v>2174</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="38"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="39">
         <v>4605</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="39">
         <v>2135</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="38"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="39">
         <v>4607</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="39">
         <v>1174</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="38"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="38">
+      <c r="C63" s="39">
         <v>4607</v>
       </c>
-      <c r="D63" s="38">
+      <c r="D63" s="39">
         <v>45</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="38"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65" s="39">
         <v>4606</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="39">
         <v>21</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="38"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="38">
+      <c r="C67" s="39">
         <v>4605</v>
       </c>
-      <c r="D67" s="38">
+      <c r="D67" s="39">
         <v>14</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="38"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="39" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C69" s="39">
         <v>4605</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69" s="39">
         <v>2172</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="38"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="38">
+      <c r="C71" s="39">
         <v>4629</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="39">
         <v>2173</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="38"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="39">
         <v>270</v>
       </c>
-      <c r="D73" s="38">
+      <c r="D73" s="39">
         <v>2176</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="38"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="39">
         <v>0</v>
       </c>
-      <c r="D75" s="38">
+      <c r="D75" s="39">
         <v>11</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="38"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -7924,119 +7930,6 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -8061,6 +7954,119 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -14136,21 +14142,21 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="200" customHeight="1">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
@@ -14783,157 +14789,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
@@ -15553,7 +15559,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="36" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B66" s="36" t="s">
         <v>268</v>
@@ -15702,12 +15708,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1040" windowWidth="25100" windowHeight="15600" tabRatio="500" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="1420" yWindow="100" windowWidth="25040" windowHeight="19100" tabRatio="500" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="1.5.1v" sheetId="8" r:id="rId8"/>
     <sheet name="1.5.2" sheetId="9" r:id="rId9"/>
     <sheet name="1.5.2v" sheetId="10" r:id="rId10"/>
+    <sheet name="1.2" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1.5.1'!$A$2:$F$34</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="362">
   <si>
     <t>小学</t>
   </si>
@@ -2721,17 +2722,116 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语言,教育,阅读,练习,宝典,软件,课堂,词场,视频,学霸</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,达人,题库,旅行,听书,攻略</t>
-  </si>
-  <si>
     <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语,</t>
+  </si>
+  <si>
+    <t>学英语,</t>
+  </si>
+  <si>
+    <t>四级,</t>
+  </si>
+  <si>
+    <t>六级,</t>
+  </si>
+  <si>
+    <t>中英,</t>
+  </si>
+  <si>
+    <t>英文,</t>
+  </si>
+  <si>
+    <t>同步,</t>
+  </si>
+  <si>
+    <t>背单词,</t>
+  </si>
+  <si>
+    <t>免费,</t>
+  </si>
+  <si>
+    <t>一起,</t>
+  </si>
+  <si>
+    <t>美国,</t>
+  </si>
+  <si>
+    <t>自学,</t>
+  </si>
+  <si>
+    <t>走遍,</t>
+  </si>
+  <si>
+    <t>小猿,</t>
+  </si>
+  <si>
+    <t>华尔街,</t>
+  </si>
+  <si>
+    <t>省心,</t>
+  </si>
+  <si>
+    <t>课文,</t>
+  </si>
+  <si>
+    <t>527,</t>
+  </si>
+  <si>
+    <t>61,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>49,</t>
+  </si>
+  <si>
+    <t>47,</t>
+  </si>
+  <si>
+    <t>39,</t>
+  </si>
+  <si>
+    <t>38,</t>
+  </si>
+  <si>
+    <t>35,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,达人,题库,旅行,听书,攻略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语言,教育,阅读,练习,宝典,软件,课堂,词场,视频,学霸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语音,语言,教育,阅读,练习,宝典,软件,课堂,词场,学霸</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,题库,旅行,听书,攻略,视频</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3547,11 +3647,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5319,7 +5419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
@@ -6293,12 +6393,12 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6308,6 +6408,766 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" t="s">
+        <v>355</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" t="s">
+        <v>355</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>338</v>
+      </c>
+      <c r="B46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" t="s">
+        <v>356</v>
+      </c>
+      <c r="C54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>341</v>
+      </c>
+      <c r="B55" t="s">
+        <v>356</v>
+      </c>
+      <c r="C55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>342</v>
+      </c>
+      <c r="B56" t="s">
+        <v>302</v>
+      </c>
+      <c r="C56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>357</v>
+      </c>
+      <c r="C58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>343</v>
+      </c>
+      <c r="B59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>307</v>
+      </c>
+      <c r="B62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="C71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="C73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="C75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6374,19 +7234,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="40">
         <v>4613</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="40">
         <v>1490</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6412,13 +7272,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -6442,19 +7302,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="40" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="40">
         <v>4605</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="40">
         <v>1750</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6480,13 +7340,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -6510,19 +7370,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="40" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="40">
         <v>0</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="40">
         <v>1489</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6548,13 +7408,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -6578,19 +7438,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="40" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="40">
         <v>4606</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="40">
         <v>2175</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6616,13 +7476,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -6646,19 +7506,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="40" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="40">
         <v>4607</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="40">
         <v>2176</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6684,13 +7544,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -6714,19 +7574,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="40" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="40">
         <v>0</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="40">
         <v>46</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6752,13 +7612,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="39"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -6782,19 +7642,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="40" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="40">
         <v>4605</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="40">
         <v>2177</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6820,13 +7680,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -6850,19 +7710,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="40" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="40">
         <v>53</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="40">
         <v>14</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6888,13 +7748,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="39"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -6918,19 +7778,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="40" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="40">
         <v>0</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="40">
         <v>816</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6956,13 +7816,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="39"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -6986,19 +7846,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="40" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="40">
         <v>4605</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="40">
         <v>2174</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7015,13 +7875,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -7045,19 +7905,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="40" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="40">
         <v>4605</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="40">
         <v>2135</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7083,13 +7943,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="39"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -7113,19 +7973,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="40" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="40">
         <v>4607</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="40">
         <v>1174</v>
       </c>
-      <c r="R24" s="40" t="s">
+      <c r="R24" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7151,13 +8011,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -7181,19 +8041,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="40" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26" s="40">
         <v>4607</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="40">
         <v>45</v>
       </c>
-      <c r="R26" s="40" t="s">
+      <c r="R26" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7219,13 +8079,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="39"/>
+      <c r="N27" s="40"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -7249,19 +8109,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="40" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="40">
         <v>4606</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="Q28" s="40">
         <v>21</v>
       </c>
-      <c r="R28" s="40" t="s">
+      <c r="R28" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7287,13 +8147,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -7317,19 +8177,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="40" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="39">
+      <c r="P30" s="40">
         <v>4605</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="40">
         <v>14</v>
       </c>
-      <c r="R30" s="40" t="s">
+      <c r="R30" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7355,13 +8215,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="39"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -7402,523 +8262,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="40">
         <v>4613</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="40">
         <v>1490</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="40" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="40">
         <v>4605</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="40">
         <v>1750</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="39"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="40">
         <v>0</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="40">
         <v>1489</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="40" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="40">
         <v>4606</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="40">
         <v>2175</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="40">
         <v>4607</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="40">
         <v>2176</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="40">
         <v>0</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="40">
         <v>46</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="39"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="40">
         <v>4605</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="40">
         <v>2177</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="39"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="40">
         <v>53</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="40">
         <v>14</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="39"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="40">
         <v>0</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="40">
         <v>816</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="39"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="40">
         <v>4605</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="40">
         <v>2174</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="39"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="40">
         <v>4605</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="40">
         <v>2135</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="39"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="40">
         <v>4607</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="40">
         <v>1174</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="39"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="40">
         <v>4607</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="40">
         <v>45</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="39"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="40" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="40">
         <v>4606</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="40">
         <v>21</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="39"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="40">
         <v>4605</v>
       </c>
-      <c r="D67" s="39">
+      <c r="D67" s="40">
         <v>14</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="39"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="40">
         <v>4605</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="40">
         <v>2172</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="39"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="40" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="40">
         <v>4629</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="40">
         <v>2173</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="39"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="40">
         <v>270</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="40">
         <v>2176</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="40" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C75" s="40">
         <v>0</v>
       </c>
-      <c r="D75" s="39">
+      <c r="D75" s="40">
         <v>11</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="39"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -7930,6 +8790,119 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -7954,119 +8927,6 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -14789,8 +15649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15708,12 +16568,12 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="100" windowWidth="25040" windowHeight="19100" tabRatio="500" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="25040" windowHeight="19100" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="383">
   <si>
     <t>小学</t>
   </si>
@@ -2695,143 +2695,221 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>常用</t>
+  </si>
+  <si>
+    <t>攻略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+  </si>
+  <si>
+    <t>详解</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书
+新东方,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,辞典,学堂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>词场,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语,</t>
+  </si>
+  <si>
+    <t>学英语,</t>
+  </si>
+  <si>
+    <t>四级,</t>
+  </si>
+  <si>
+    <t>六级,</t>
+  </si>
+  <si>
+    <t>中英,</t>
+  </si>
+  <si>
+    <t>英文,</t>
+  </si>
+  <si>
+    <t>同步,</t>
+  </si>
+  <si>
+    <t>背单词,</t>
+  </si>
+  <si>
+    <t>免费,</t>
+  </si>
+  <si>
+    <t>一起,</t>
+  </si>
+  <si>
+    <t>自学,</t>
+  </si>
+  <si>
+    <t>走遍,</t>
+  </si>
+  <si>
+    <t>小猿,</t>
+  </si>
+  <si>
+    <t>华尔街,</t>
+  </si>
+  <si>
+    <t>省心,</t>
+  </si>
+  <si>
+    <t>课文,</t>
+  </si>
+  <si>
+    <t>527,</t>
+  </si>
+  <si>
+    <t>61,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>49,</t>
+  </si>
+  <si>
+    <t>47,</t>
+  </si>
+  <si>
+    <t>39,</t>
+  </si>
+  <si>
+    <t>38,</t>
+  </si>
+  <si>
+    <t>35,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语音,语言,教育,阅读,练习,宝典,软件,课堂,词场,学霸</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,题库,旅行,听书,攻略,视频</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>,发音</t>
+  </si>
+  <si>
+    <t>英孚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>每日,雅思,托福,考研,商务,高考,牛津,英孚,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,双语,词典,发音,音标,作业,美剧,大全,留学,达人,题库,词汇,旅行,听书
 新东方,扇贝,星火,百度,51,流利说,多说,百词,叽哩呱啦,趣配音,爽哥,学霸,人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,阅读,练习,宝典,软件,课堂,词场,学堂</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>常用</t>
-  </si>
-  <si>
-    <t>攻略</t>
+    <t>美国,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>视频</t>
-  </si>
-  <si>
-    <t>详解</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书
-新东方,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,辞典,学堂</t>
+    <t>244,</t>
+  </si>
+  <si>
+    <t>77,</t>
+  </si>
+  <si>
+    <t>66,</t>
+  </si>
+  <si>
+    <t>45,</t>
+  </si>
+  <si>
+    <t>43,</t>
+  </si>
+  <si>
+    <t>ted,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>词场,</t>
+    <t>多说,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
+    <t>美国,</t>
+  </si>
+  <si>
+    <t>学英语,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
+    <t>自学,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>英语,</t>
-  </si>
-  <si>
-    <t>学英语,</t>
-  </si>
-  <si>
-    <t>四级,</t>
-  </si>
-  <si>
-    <t>六级,</t>
-  </si>
-  <si>
-    <t>中英,</t>
-  </si>
-  <si>
-    <t>英文,</t>
-  </si>
-  <si>
-    <t>同步,</t>
-  </si>
-  <si>
-    <t>背单词,</t>
-  </si>
-  <si>
-    <t>免费,</t>
-  </si>
-  <si>
-    <t>一起,</t>
-  </si>
-  <si>
-    <t>美国,</t>
-  </si>
-  <si>
-    <t>自学,</t>
-  </si>
-  <si>
-    <t>走遍,</t>
-  </si>
-  <si>
-    <t>小猿,</t>
-  </si>
-  <si>
-    <t>华尔街,</t>
-  </si>
-  <si>
-    <t>省心,</t>
-  </si>
-  <si>
-    <t>课文,</t>
-  </si>
-  <si>
-    <t>527,</t>
-  </si>
-  <si>
-    <t>61,</t>
-  </si>
-  <si>
-    <t>56,</t>
-  </si>
-  <si>
-    <t>49,</t>
-  </si>
-  <si>
-    <t>47,</t>
-  </si>
-  <si>
-    <t>39,</t>
-  </si>
-  <si>
-    <t>38,</t>
-  </si>
-  <si>
-    <t>35,</t>
-  </si>
-  <si>
-    <t>34,</t>
-  </si>
-  <si>
-    <t>29,</t>
-  </si>
-  <si>
-    <t>16,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,达人,题库,旅行,听书,攻略</t>
+    <t>新闻</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语言,教育,阅读,练习,宝典,软件,课堂,词场,视频,学霸</t>
+    <t>教育,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语音,语言,教育,阅读,练习,宝典,软件,课堂,词场,学霸</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,题库,旅行,听书,攻略,视频</t>
+    <t>0,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>达人,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出国,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,美剧,发音,音标,留学,题库,词典,旅行,听书.作业,攻略,视频,直播,大全,达人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,能飞,欧洲,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,软件大师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双语的标题不一致</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3053,7 +3131,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="522">
+  <cellStyleXfs count="529">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3272,6 +3350,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3647,11 +3732,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3662,7 +3747,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="522">
+  <cellStyles count="529">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4184,6 +4269,13 @@
     <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5417,17 +5509,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -5445,9 +5537,8 @@
       <c r="O1" s="44"/>
       <c r="P1" s="44"/>
       <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -5465,9 +5556,8 @@
       <c r="O2" s="44"/>
       <c r="P2" s="44"/>
       <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="44"/>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -5485,9 +5575,8 @@
       <c r="O3" s="44"/>
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -5505,9 +5594,8 @@
       <c r="O4" s="44"/>
       <c r="P4" s="44"/>
       <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -5525,9 +5613,8 @@
       <c r="O5" s="44"/>
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -5545,9 +5632,8 @@
       <c r="O6" s="44"/>
       <c r="P6" s="44"/>
       <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -5565,9 +5651,8 @@
       <c r="O7" s="44"/>
       <c r="P7" s="44"/>
       <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -5585,9 +5670,8 @@
       <c r="O8" s="44"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-    </row>
-    <row r="9" spans="1:18">
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -5605,9 +5689,8 @@
       <c r="O9" s="44"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-    </row>
-    <row r="10" spans="1:18">
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -5625,9 +5708,8 @@
       <c r="O10" s="44"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-    </row>
-    <row r="11" spans="1:18">
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -5637,8 +5719,17 @@
       <c r="E11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="N11" t="s">
+        <v>216</v>
+      </c>
+      <c r="O11" t="s">
+        <v>300</v>
+      </c>
+      <c r="P11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -5648,8 +5739,17 @@
       <c r="E12" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="N12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O12" t="s">
+        <v>350</v>
+      </c>
+      <c r="P12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -5659,8 +5759,17 @@
       <c r="E13" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="N13" t="s">
+        <v>231</v>
+      </c>
+      <c r="O13" t="s">
+        <v>257</v>
+      </c>
+      <c r="P13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -5670,8 +5779,17 @@
       <c r="E14" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+      <c r="O14" t="s">
+        <v>271</v>
+      </c>
+      <c r="P14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -5681,8 +5799,17 @@
       <c r="E15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="N15" t="s">
+        <v>254</v>
+      </c>
+      <c r="O15" t="s">
+        <v>259</v>
+      </c>
+      <c r="P15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -5692,8 +5819,17 @@
       <c r="E16" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="N16" t="s">
+        <v>219</v>
+      </c>
+      <c r="O16" t="s">
+        <v>267</v>
+      </c>
+      <c r="P16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -5703,8 +5839,17 @@
       <c r="E17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="N17" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" t="s">
+        <v>274</v>
+      </c>
+      <c r="P17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -5714,8 +5859,17 @@
       <c r="E18" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="N18" t="s">
+        <v>200</v>
+      </c>
+      <c r="O18" t="s">
+        <v>290</v>
+      </c>
+      <c r="P18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -5725,8 +5879,17 @@
       <c r="E19" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="N19" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" t="s">
+        <v>262</v>
+      </c>
+      <c r="P19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>222</v>
       </c>
@@ -5736,8 +5899,17 @@
       <c r="E20" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="N20" t="s">
+        <v>225</v>
+      </c>
+      <c r="O20" t="s">
+        <v>261</v>
+      </c>
+      <c r="P20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -5747,8 +5919,17 @@
       <c r="E21" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="N21" t="s">
+        <v>220</v>
+      </c>
+      <c r="O21" t="s">
+        <v>261</v>
+      </c>
+      <c r="P21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -5758,8 +5939,17 @@
       <c r="E22" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="N22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>269</v>
+      </c>
+      <c r="P22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -5769,8 +5959,17 @@
       <c r="E23" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>269</v>
+      </c>
+      <c r="P23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -5780,8 +5979,17 @@
       <c r="E24" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>353</v>
+      </c>
+      <c r="P24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>212</v>
       </c>
@@ -5791,8 +5999,17 @@
       <c r="E25" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="N25" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" t="s">
+        <v>278</v>
+      </c>
+      <c r="P25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>206</v>
       </c>
@@ -5802,8 +6019,17 @@
       <c r="E26" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>278</v>
+      </c>
+      <c r="P26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -5813,8 +6039,17 @@
       <c r="E27" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>277</v>
+      </c>
+      <c r="P27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>254</v>
       </c>
@@ -5824,8 +6059,17 @@
       <c r="E28" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>284</v>
+      </c>
+      <c r="P28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -5835,8 +6079,17 @@
       <c r="E29" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>301</v>
+      </c>
+      <c r="P29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -5846,8 +6099,17 @@
       <c r="E30" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>301</v>
+      </c>
+      <c r="P30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -5857,8 +6119,17 @@
       <c r="E31" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>289</v>
+      </c>
+      <c r="P31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>255</v>
       </c>
@@ -5868,8 +6139,17 @@
       <c r="E32" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="N32" t="s">
+        <v>195</v>
+      </c>
+      <c r="O32" t="s">
+        <v>289</v>
+      </c>
+      <c r="P32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>197</v>
       </c>
@@ -5879,8 +6159,17 @@
       <c r="E33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="N33" t="s">
+        <v>229</v>
+      </c>
+      <c r="O33" t="s">
+        <v>289</v>
+      </c>
+      <c r="P33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>232</v>
       </c>
@@ -5890,8 +6179,17 @@
       <c r="E34" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="N34" t="s">
+        <v>304</v>
+      </c>
+      <c r="O34" t="s">
+        <v>294</v>
+      </c>
+      <c r="P34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>203</v>
       </c>
@@ -5901,8 +6199,17 @@
       <c r="E35" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="N35" t="s">
+        <v>228</v>
+      </c>
+      <c r="O35" t="s">
+        <v>294</v>
+      </c>
+      <c r="P35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>249</v>
       </c>
@@ -5912,8 +6219,17 @@
       <c r="E36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="N36" t="s">
+        <v>201</v>
+      </c>
+      <c r="O36" t="s">
+        <v>294</v>
+      </c>
+      <c r="P36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>228</v>
       </c>
@@ -5923,8 +6239,17 @@
       <c r="E37" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="N37" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37" t="s">
+        <v>294</v>
+      </c>
+      <c r="P37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>214</v>
       </c>
@@ -5934,8 +6259,17 @@
       <c r="E38" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="N38" t="s">
+        <v>226</v>
+      </c>
+      <c r="O38" t="s">
+        <v>294</v>
+      </c>
+      <c r="P38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="35" t="s">
         <v>303</v>
       </c>
@@ -5945,8 +6279,17 @@
       <c r="E39" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="N39" t="s">
+        <v>255</v>
+      </c>
+      <c r="O39" t="s">
+        <v>294</v>
+      </c>
+      <c r="P39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -5956,8 +6299,17 @@
       <c r="E40" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="N40" t="s">
+        <v>203</v>
+      </c>
+      <c r="O40" t="s">
+        <v>294</v>
+      </c>
+      <c r="P40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>201</v>
       </c>
@@ -5967,8 +6319,17 @@
       <c r="E41" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="N41" t="s">
+        <v>222</v>
+      </c>
+      <c r="O41" t="s">
+        <v>268</v>
+      </c>
+      <c r="P41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>250</v>
       </c>
@@ -5978,8 +6339,17 @@
       <c r="E42" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="N42" t="s">
+        <v>303</v>
+      </c>
+      <c r="O42" t="s">
+        <v>268</v>
+      </c>
+      <c r="P42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>240</v>
       </c>
@@ -5989,8 +6359,17 @@
       <c r="E43" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="N43" t="s">
+        <v>249</v>
+      </c>
+      <c r="O43" t="s">
+        <v>268</v>
+      </c>
+      <c r="P43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -6000,8 +6379,17 @@
       <c r="E44" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="N44" t="s">
+        <v>224</v>
+      </c>
+      <c r="O44" t="s">
+        <v>268</v>
+      </c>
+      <c r="P44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>221</v>
       </c>
@@ -6011,8 +6399,17 @@
       <c r="E45" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="N45" t="s">
+        <v>243</v>
+      </c>
+      <c r="O45" t="s">
+        <v>354</v>
+      </c>
+      <c r="P45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>199</v>
       </c>
@@ -6022,8 +6419,17 @@
       <c r="E46" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="N46" t="s">
+        <v>204</v>
+      </c>
+      <c r="O46" t="s">
+        <v>354</v>
+      </c>
+      <c r="P46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -6033,8 +6439,17 @@
       <c r="E47" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="N47" t="s">
+        <v>248</v>
+      </c>
+      <c r="O47" t="s">
+        <v>354</v>
+      </c>
+      <c r="P47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>209</v>
       </c>
@@ -6044,8 +6459,17 @@
       <c r="E48" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="N48" t="s">
+        <v>221</v>
+      </c>
+      <c r="O48" t="s">
+        <v>354</v>
+      </c>
+      <c r="P48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>230</v>
       </c>
@@ -6055,8 +6479,17 @@
       <c r="E49" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="N49" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" t="s">
+        <v>354</v>
+      </c>
+      <c r="P49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -6066,8 +6499,17 @@
       <c r="E50" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="N50" t="s">
+        <v>236</v>
+      </c>
+      <c r="O50" t="s">
+        <v>275</v>
+      </c>
+      <c r="P50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -6077,8 +6519,17 @@
       <c r="E51" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="N51" t="s">
+        <v>240</v>
+      </c>
+      <c r="O51" t="s">
+        <v>275</v>
+      </c>
+      <c r="P51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>243</v>
       </c>
@@ -6088,8 +6539,17 @@
       <c r="E52" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="N52" t="s">
+        <v>238</v>
+      </c>
+      <c r="O52" t="s">
+        <v>275</v>
+      </c>
+      <c r="P52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="35" t="s">
         <v>304</v>
       </c>
@@ -6099,8 +6559,17 @@
       <c r="E53" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="N53" t="s">
+        <v>197</v>
+      </c>
+      <c r="O53" t="s">
+        <v>275</v>
+      </c>
+      <c r="P53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>244</v>
       </c>
@@ -6110,8 +6579,17 @@
       <c r="E54" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="N54" t="s">
+        <v>252</v>
+      </c>
+      <c r="O54" t="s">
+        <v>275</v>
+      </c>
+      <c r="P54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -6121,8 +6599,17 @@
       <c r="E55" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="N55" t="s">
+        <v>245</v>
+      </c>
+      <c r="O55" t="s">
+        <v>302</v>
+      </c>
+      <c r="P55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -6132,8 +6619,17 @@
       <c r="E56" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="N56" t="s">
+        <v>208</v>
+      </c>
+      <c r="O56" t="s">
+        <v>302</v>
+      </c>
+      <c r="P56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>248</v>
       </c>
@@ -6143,8 +6639,17 @@
       <c r="E57" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="N57" t="s">
+        <v>214</v>
+      </c>
+      <c r="O57" t="s">
+        <v>302</v>
+      </c>
+      <c r="P57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>245</v>
       </c>
@@ -6154,8 +6659,17 @@
       <c r="E58" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="N58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O58" t="s">
+        <v>302</v>
+      </c>
+      <c r="P58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -6165,8 +6679,17 @@
       <c r="E59" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="N59" t="s">
+        <v>199</v>
+      </c>
+      <c r="O59" t="s">
+        <v>302</v>
+      </c>
+      <c r="P59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -6176,8 +6699,17 @@
       <c r="E60" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="N60" t="s">
+        <v>242</v>
+      </c>
+      <c r="O60" t="s">
+        <v>263</v>
+      </c>
+      <c r="P60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>253</v>
       </c>
@@ -6187,8 +6719,17 @@
       <c r="E61" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="N61" t="s">
+        <v>233</v>
+      </c>
+      <c r="O61" t="s">
+        <v>263</v>
+      </c>
+      <c r="P61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>296</v>
       </c>
@@ -6198,8 +6739,17 @@
       <c r="E62" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="N62" t="s">
+        <v>253</v>
+      </c>
+      <c r="O62" t="s">
+        <v>263</v>
+      </c>
+      <c r="P62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="36" t="s">
         <v>252</v>
       </c>
@@ -6211,8 +6761,17 @@
       <c r="E63" s="36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="N63" t="s">
+        <v>296</v>
+      </c>
+      <c r="O63" t="s">
+        <v>355</v>
+      </c>
+      <c r="P63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="36" t="s">
         <v>256</v>
       </c>
@@ -6224,8 +6783,17 @@
       <c r="E64" s="36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="N64" t="s">
+        <v>235</v>
+      </c>
+      <c r="O64" t="s">
+        <v>355</v>
+      </c>
+      <c r="P64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -6235,8 +6803,17 @@
       <c r="E65" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="N65" t="s">
+        <v>306</v>
+      </c>
+      <c r="O65" t="s">
+        <v>355</v>
+      </c>
+      <c r="P65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="36" t="s">
         <v>233</v>
       </c>
@@ -6248,8 +6825,17 @@
       <c r="E66" s="36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="N66" t="s">
+        <v>373</v>
+      </c>
+      <c r="O66" t="s">
+        <v>287</v>
+      </c>
+      <c r="P66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="35" t="s">
         <v>305</v>
       </c>
@@ -6259,8 +6845,17 @@
       <c r="E67" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="N67" t="s">
+        <v>244</v>
+      </c>
+      <c r="O67" t="s">
+        <v>287</v>
+      </c>
+      <c r="P67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="36" t="s">
         <v>215</v>
       </c>
@@ -6272,8 +6867,17 @@
       <c r="E68" s="36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="N68" t="s">
+        <v>307</v>
+      </c>
+      <c r="O68" t="s">
+        <v>287</v>
+      </c>
+      <c r="P68" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="38" t="s">
         <v>306</v>
       </c>
@@ -6285,8 +6889,17 @@
       <c r="E69" s="36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="N69" t="s">
+        <v>215</v>
+      </c>
+      <c r="O69" t="s">
+        <v>287</v>
+      </c>
+      <c r="P69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="38" t="s">
         <v>235</v>
       </c>
@@ -6298,8 +6911,17 @@
       <c r="E70" s="38" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="N70" t="s">
+        <v>234</v>
+      </c>
+      <c r="O70" t="s">
+        <v>309</v>
+      </c>
+      <c r="P70" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="36" t="s">
         <v>234</v>
       </c>
@@ -6312,8 +6934,17 @@
         <v>308</v>
       </c>
       <c r="F71" s="36"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="N71" t="s">
+        <v>237</v>
+      </c>
+      <c r="O71" t="s">
+        <v>309</v>
+      </c>
+      <c r="P71" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="36" t="s">
         <v>237</v>
       </c>
@@ -6326,8 +6957,17 @@
         <v>308</v>
       </c>
       <c r="F72" s="36"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="N72" t="s">
+        <v>305</v>
+      </c>
+      <c r="O72" t="s">
+        <v>288</v>
+      </c>
+      <c r="P72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="35" t="s">
         <v>307</v>
       </c>
@@ -6337,8 +6977,17 @@
       <c r="E73" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="N73" t="s">
+        <v>223</v>
+      </c>
+      <c r="O73" t="s">
+        <v>288</v>
+      </c>
+      <c r="P73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
         <v>190</v>
       </c>
@@ -6348,13 +6997,22 @@
       <c r="E74">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="N74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="C77" s="35" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:16">
       <c r="A78" s="36" t="s">
         <v>311</v>
       </c>
@@ -6362,7 +7020,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:16">
       <c r="A79" s="36" t="s">
         <v>312</v>
       </c>
@@ -6370,7 +7028,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:16">
       <c r="C80" s="35" t="s">
         <v>306</v>
       </c>
@@ -6380,10 +7038,10 @@
         <v>310</v>
       </c>
       <c r="G81" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="H81" s="37" t="s">
         <v>322</v>
-      </c>
-      <c r="H81" s="37" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6393,17 +7051,22 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="F94" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R10"/>
+    <mergeCell ref="A1:Q10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6418,37 +7081,55 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="M1" t="s">
+        <v>327</v>
+      </c>
+      <c r="N1" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="M2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" t="s">
+        <v>352</v>
+      </c>
+      <c r="O2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -6458,19 +7139,37 @@
       <c r="C3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="M3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="M4" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -6480,10 +7179,19 @@
       <c r="C5" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="M5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N5" t="s">
+        <v>286</v>
+      </c>
+      <c r="O5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
         <v>232</v>
@@ -6491,32 +7199,59 @@
       <c r="C6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="M6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="M7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N7" t="s">
+        <v>265</v>
+      </c>
+      <c r="O7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+      <c r="M8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" t="s">
+        <v>274</v>
+      </c>
+      <c r="O8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
         <v>331</v>
-      </c>
-      <c r="B8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>332</v>
       </c>
       <c r="B9" t="s">
         <v>300</v>
@@ -6524,8 +7259,17 @@
       <c r="C9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="M9" t="s">
+        <v>219</v>
+      </c>
+      <c r="N9" t="s">
+        <v>290</v>
+      </c>
+      <c r="O9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -6535,52 +7279,97 @@
       <c r="C10" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="M10" t="s">
+        <v>370</v>
+      </c>
+      <c r="N10" t="s">
+        <v>290</v>
+      </c>
+      <c r="O10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="M11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N11" t="s">
+        <v>261</v>
+      </c>
+      <c r="O11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="M12" t="s">
+        <v>224</v>
+      </c>
+      <c r="N12" t="s">
+        <v>261</v>
+      </c>
+      <c r="O12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="M13" t="s">
+        <v>212</v>
+      </c>
+      <c r="N13" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="M14" t="s">
+        <v>220</v>
+      </c>
+      <c r="N14" t="s">
+        <v>278</v>
+      </c>
+      <c r="O14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -6590,8 +7379,17 @@
       <c r="C15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="M15" t="s">
+        <v>333</v>
+      </c>
+      <c r="N15" t="s">
+        <v>277</v>
+      </c>
+      <c r="O15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -6601,8 +7399,17 @@
       <c r="C16" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="M16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" t="s">
+        <v>277</v>
+      </c>
+      <c r="O16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -6612,19 +7419,37 @@
       <c r="C17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="M17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" t="s">
+        <v>277</v>
+      </c>
+      <c r="O17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="M18" t="s">
+        <v>329</v>
+      </c>
+      <c r="N18" t="s">
+        <v>284</v>
+      </c>
+      <c r="O18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>254</v>
       </c>
@@ -6634,8 +7459,17 @@
       <c r="C19" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="M19" t="s">
+        <v>211</v>
+      </c>
+      <c r="N19" t="s">
+        <v>284</v>
+      </c>
+      <c r="O19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>253</v>
       </c>
@@ -6645,8 +7479,17 @@
       <c r="C20" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="M20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" t="s">
+        <v>284</v>
+      </c>
+      <c r="O20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -6656,8 +7499,17 @@
       <c r="C21" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="M21" t="s">
+        <v>218</v>
+      </c>
+      <c r="N21" t="s">
+        <v>301</v>
+      </c>
+      <c r="O21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>207</v>
       </c>
@@ -6667,8 +7519,17 @@
       <c r="C22" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="M22" t="s">
+        <v>209</v>
+      </c>
+      <c r="N22" t="s">
+        <v>289</v>
+      </c>
+      <c r="O22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>197</v>
       </c>
@@ -6678,10 +7539,19 @@
       <c r="C23" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="M23" t="s">
+        <v>246</v>
+      </c>
+      <c r="N23" t="s">
+        <v>289</v>
+      </c>
+      <c r="O23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
         <v>265</v>
@@ -6689,8 +7559,17 @@
       <c r="C24" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="M24" t="s">
+        <v>229</v>
+      </c>
+      <c r="N24" t="s">
+        <v>289</v>
+      </c>
+      <c r="O24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>226</v>
       </c>
@@ -6700,8 +7579,17 @@
       <c r="C25" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="M25" t="s">
+        <v>243</v>
+      </c>
+      <c r="N25" t="s">
+        <v>294</v>
+      </c>
+      <c r="O25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -6711,8 +7599,17 @@
       <c r="C26" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="M26" t="s">
+        <v>210</v>
+      </c>
+      <c r="N26" t="s">
+        <v>294</v>
+      </c>
+      <c r="O26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -6722,8 +7619,17 @@
       <c r="C27" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="M27" t="s">
+        <v>195</v>
+      </c>
+      <c r="N27" t="s">
+        <v>294</v>
+      </c>
+      <c r="O27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -6733,8 +7639,17 @@
       <c r="C28" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="M28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N28" t="s">
+        <v>294</v>
+      </c>
+      <c r="O28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>246</v>
       </c>
@@ -6744,8 +7659,17 @@
       <c r="C29" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="M29" t="s">
+        <v>217</v>
+      </c>
+      <c r="N29" t="s">
+        <v>294</v>
+      </c>
+      <c r="O29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -6755,8 +7679,17 @@
       <c r="C30" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="M30" t="s">
+        <v>334</v>
+      </c>
+      <c r="N30" t="s">
+        <v>294</v>
+      </c>
+      <c r="O30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -6766,8 +7699,17 @@
       <c r="C31" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="M31" t="s">
+        <v>248</v>
+      </c>
+      <c r="N31" t="s">
+        <v>294</v>
+      </c>
+      <c r="O31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -6777,8 +7719,17 @@
       <c r="C32" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="M32" t="s">
+        <v>205</v>
+      </c>
+      <c r="N32" t="s">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>231</v>
       </c>
@@ -6788,10 +7739,19 @@
       <c r="C33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="M33" t="s">
+        <v>222</v>
+      </c>
+      <c r="N33" t="s">
+        <v>354</v>
+      </c>
+      <c r="O33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s">
         <v>261</v>
@@ -6799,8 +7759,17 @@
       <c r="C34" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="M34" t="s">
+        <v>330</v>
+      </c>
+      <c r="N34" t="s">
+        <v>354</v>
+      </c>
+      <c r="O34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>209</v>
       </c>
@@ -6810,10 +7779,19 @@
       <c r="C35" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="M35" t="s">
+        <v>247</v>
+      </c>
+      <c r="N35" t="s">
+        <v>354</v>
+      </c>
+      <c r="O35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s">
         <v>269</v>
@@ -6821,8 +7799,17 @@
       <c r="C36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="M36" t="s">
+        <v>228</v>
+      </c>
+      <c r="N36" t="s">
+        <v>354</v>
+      </c>
+      <c r="O36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -6832,30 +7819,57 @@
       <c r="C37" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="M37" t="s">
+        <v>226</v>
+      </c>
+      <c r="N37" t="s">
+        <v>354</v>
+      </c>
+      <c r="O37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="M38" t="s">
+        <v>221</v>
+      </c>
+      <c r="N38" t="s">
+        <v>354</v>
+      </c>
+      <c r="O38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C39" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="M39" t="s">
+        <v>236</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -6865,8 +7879,17 @@
       <c r="C40" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="M40" t="s">
+        <v>335</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>303</v>
       </c>
@@ -6876,8 +7899,17 @@
       <c r="C41" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="M41" t="s">
+        <v>238</v>
+      </c>
+      <c r="N41" t="s">
+        <v>275</v>
+      </c>
+      <c r="O41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>218</v>
       </c>
@@ -6887,8 +7919,17 @@
       <c r="C42" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="M42" t="s">
+        <v>197</v>
+      </c>
+      <c r="N42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>205</v>
       </c>
@@ -6898,10 +7939,19 @@
       <c r="C43" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="M43" t="s">
+        <v>245</v>
+      </c>
+      <c r="N43" t="s">
+        <v>302</v>
+      </c>
+      <c r="O43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s">
         <v>278</v>
@@ -6909,8 +7959,17 @@
       <c r="C44" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="M44" t="s">
+        <v>242</v>
+      </c>
+      <c r="N44" t="s">
+        <v>302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>247</v>
       </c>
@@ -6920,10 +7979,19 @@
       <c r="C45" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="M45" t="s">
+        <v>213</v>
+      </c>
+      <c r="N45" t="s">
+        <v>302</v>
+      </c>
+      <c r="O45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s">
         <v>284</v>
@@ -6931,8 +7999,17 @@
       <c r="C46" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="M46" t="s">
+        <v>199</v>
+      </c>
+      <c r="N46" t="s">
+        <v>302</v>
+      </c>
+      <c r="O46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>240</v>
       </c>
@@ -6942,8 +8019,17 @@
       <c r="C47" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="M47" t="s">
+        <v>253</v>
+      </c>
+      <c r="N47" t="s">
+        <v>302</v>
+      </c>
+      <c r="O47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>217</v>
       </c>
@@ -6953,8 +8039,17 @@
       <c r="C48" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="M48" t="s">
+        <v>371</v>
+      </c>
+      <c r="N48" t="s">
+        <v>263</v>
+      </c>
+      <c r="O48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -6964,8 +8059,17 @@
       <c r="C49" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="M49" t="s">
+        <v>340</v>
+      </c>
+      <c r="N49" t="s">
+        <v>263</v>
+      </c>
+      <c r="O49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>242</v>
       </c>
@@ -6975,10 +8079,19 @@
       <c r="C50" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="M50" t="s">
+        <v>303</v>
+      </c>
+      <c r="N50" t="s">
+        <v>263</v>
+      </c>
+      <c r="O50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s">
         <v>289</v>
@@ -6986,8 +8099,17 @@
       <c r="C51" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="M51" t="s">
+        <v>233</v>
+      </c>
+      <c r="N51" t="s">
+        <v>263</v>
+      </c>
+      <c r="O51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>236</v>
       </c>
@@ -6997,8 +8119,17 @@
       <c r="C52" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="M52" t="s">
+        <v>369</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>296</v>
       </c>
@@ -7008,32 +8139,59 @@
       <c r="C53" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="M53" t="s">
+        <v>240</v>
+      </c>
+      <c r="N53" t="s">
+        <v>355</v>
+      </c>
+      <c r="O53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
+        <v>338</v>
+      </c>
+      <c r="B54" t="s">
+        <v>354</v>
+      </c>
+      <c r="C54" t="s">
+        <v>308</v>
+      </c>
+      <c r="M54" t="s">
+        <v>336</v>
+      </c>
+      <c r="N54" t="s">
+        <v>355</v>
+      </c>
+      <c r="O54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" t="s">
+        <v>308</v>
+      </c>
+      <c r="M55" t="s">
+        <v>341</v>
+      </c>
+      <c r="N55" t="s">
+        <v>287</v>
+      </c>
+      <c r="O55" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
         <v>340</v>
-      </c>
-      <c r="B54" t="s">
-        <v>356</v>
-      </c>
-      <c r="C54" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" t="s">
-        <v>356</v>
-      </c>
-      <c r="C55" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>342</v>
       </c>
       <c r="B56" t="s">
         <v>302</v>
@@ -7041,8 +8199,17 @@
       <c r="C56" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="M56" t="s">
+        <v>296</v>
+      </c>
+      <c r="N56" t="s">
+        <v>287</v>
+      </c>
+      <c r="O56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>233</v>
       </c>
@@ -7052,21 +8219,39 @@
       <c r="C57" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="M57" t="s">
+        <v>202</v>
+      </c>
+      <c r="N57" t="s">
+        <v>287</v>
+      </c>
+      <c r="O57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C58" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="M58" t="s">
+        <v>338</v>
+      </c>
+      <c r="N58" t="s">
+        <v>287</v>
+      </c>
+      <c r="O58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B59" t="s">
         <v>287</v>
@@ -7074,8 +8259,17 @@
       <c r="C59" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="M59" t="s">
+        <v>339</v>
+      </c>
+      <c r="N59" t="s">
+        <v>287</v>
+      </c>
+      <c r="O59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -7085,8 +8279,17 @@
       <c r="C60" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="M60" t="s">
+        <v>234</v>
+      </c>
+      <c r="N60" t="s">
+        <v>309</v>
+      </c>
+      <c r="O60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>237</v>
       </c>
@@ -7096,8 +8299,17 @@
       <c r="C61" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="M61" t="s">
+        <v>237</v>
+      </c>
+      <c r="N61" t="s">
+        <v>309</v>
+      </c>
+      <c r="O61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>307</v>
       </c>
@@ -7107,19 +8319,47 @@
       <c r="C62" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="M62" t="s">
+        <v>307</v>
+      </c>
+      <c r="N62" t="s">
         <v>309</v>
       </c>
-      <c r="C63" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="O62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="P63" s="36"/>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -7129,15 +8369,24 @@
       <c r="C64">
         <v>0</v>
       </c>
+      <c r="M64" t="s">
+        <v>179</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7234,19 +8483,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="39">
         <v>4613</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="39">
         <v>1490</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7272,13 +8521,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="40"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="41"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -7302,19 +8551,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="39">
         <v>4605</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="39">
         <v>1750</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7340,13 +8589,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="40"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -7370,19 +8619,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="39" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="39">
         <v>0</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="39">
         <v>1489</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7408,13 +8657,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -7438,19 +8687,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="39" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="39">
         <v>4606</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="39">
         <v>2175</v>
       </c>
-      <c r="R8" s="41" t="s">
+      <c r="R8" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7476,13 +8725,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -7506,19 +8755,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="39">
         <v>4607</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <v>2176</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7544,13 +8793,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -7574,19 +8823,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="39" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="39">
         <v>0</v>
       </c>
-      <c r="Q12" s="40">
+      <c r="Q12" s="39">
         <v>46</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7612,13 +8861,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -7642,19 +8891,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="39" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <v>4605</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="39">
         <v>2177</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7680,13 +8929,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="40"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -7710,19 +8959,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="39" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
         <v>53</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="39">
         <v>14</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7748,13 +8997,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="40"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -7778,19 +9027,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="40" t="s">
+      <c r="N18" s="39" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="39">
         <v>0</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="Q18" s="39">
         <v>816</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7816,13 +9065,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="40"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -7846,19 +9095,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="40" t="s">
+      <c r="N20" s="39" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>4605</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="39">
         <v>2174</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7875,13 +9124,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="40"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -7905,19 +9154,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="39" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="39">
         <v>4605</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q22" s="39">
         <v>2135</v>
       </c>
-      <c r="R22" s="41" t="s">
+      <c r="R22" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7943,13 +9192,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="40"/>
+      <c r="N23" s="39"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -7973,19 +9222,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="39" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="39">
         <v>4607</v>
       </c>
-      <c r="Q24" s="40">
+      <c r="Q24" s="39">
         <v>1174</v>
       </c>
-      <c r="R24" s="41" t="s">
+      <c r="R24" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8011,13 +9260,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="40"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -8041,19 +9290,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="39" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="40">
+      <c r="P26" s="39">
         <v>4607</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="39">
         <v>45</v>
       </c>
-      <c r="R26" s="41" t="s">
+      <c r="R26" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8079,13 +9328,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="40"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -8109,19 +9358,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="39" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P28" s="39">
         <v>4606</v>
       </c>
-      <c r="Q28" s="40">
+      <c r="Q28" s="39">
         <v>21</v>
       </c>
-      <c r="R28" s="41" t="s">
+      <c r="R28" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8147,13 +9396,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="40"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -8177,19 +9426,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="39" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P30" s="39">
         <v>4605</v>
       </c>
-      <c r="Q30" s="40">
+      <c r="Q30" s="39">
         <v>14</v>
       </c>
-      <c r="R30" s="41" t="s">
+      <c r="R30" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8215,13 +9464,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="40"/>
+      <c r="N31" s="39"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -8262,523 +9511,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="39">
         <v>4613</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <v>1490</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="39">
         <v>4605</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <v>1750</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="39">
         <v>0</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="39">
         <v>1489</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="40"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="39">
         <v>4606</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="39">
         <v>2175</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="39" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="39">
         <v>4607</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="39">
         <v>2176</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="40"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="39">
         <v>0</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="39">
         <v>46</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="40"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>4605</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="39">
         <v>2177</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>53</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="39">
         <v>14</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="40"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="39">
         <v>0</v>
       </c>
-      <c r="D55" s="40">
+      <c r="D55" s="39">
         <v>816</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="40"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>4605</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D57" s="39">
         <v>2174</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="40"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="39">
         <v>4605</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="39">
         <v>2135</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="40"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="39">
         <v>4607</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="39">
         <v>1174</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="39">
         <v>4607</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="39">
         <v>45</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="40"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="39">
         <v>4606</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="39">
         <v>21</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="39">
         <v>4605</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="39">
         <v>14</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="40"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="41"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="39">
         <v>4605</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="39">
         <v>2172</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="40"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="39">
         <v>4629</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="39">
         <v>2173</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="40"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="39">
         <v>270</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="39">
         <v>2176</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="40"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="40">
+      <c r="C75" s="39">
         <v>0</v>
       </c>
-      <c r="D75" s="40">
+      <c r="D75" s="39">
         <v>11</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="40"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -8790,119 +10039,6 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -8927,6 +10063,119 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -13024,8 +14273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15647,17 +16896,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="43" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -15811,6 +17060,15 @@
       <c r="C10" t="s">
         <v>308</v>
       </c>
+      <c r="K10" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" t="s">
+        <v>363</v>
+      </c>
+      <c r="M10" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
@@ -15822,6 +17080,15 @@
       <c r="C11" t="s">
         <v>308</v>
       </c>
+      <c r="K11" t="s">
+        <v>231</v>
+      </c>
+      <c r="L11" t="s">
+        <v>364</v>
+      </c>
+      <c r="M11" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
@@ -15833,6 +17100,15 @@
       <c r="C12" t="s">
         <v>308</v>
       </c>
+      <c r="K12" t="s">
+        <v>226</v>
+      </c>
+      <c r="L12" t="s">
+        <v>365</v>
+      </c>
+      <c r="M12" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -15844,6 +17120,15 @@
       <c r="C13" t="s">
         <v>308</v>
       </c>
+      <c r="K13" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" t="s">
+        <v>366</v>
+      </c>
+      <c r="M13" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
@@ -15855,6 +17140,15 @@
       <c r="C14" t="s">
         <v>308</v>
       </c>
+      <c r="K14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" t="s">
+        <v>291</v>
+      </c>
+      <c r="M14" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
@@ -15866,6 +17160,15 @@
       <c r="C15" t="s">
         <v>308</v>
       </c>
+      <c r="K15" t="s">
+        <v>254</v>
+      </c>
+      <c r="L15" t="s">
+        <v>266</v>
+      </c>
+      <c r="M15" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
@@ -15877,8 +17180,17 @@
       <c r="C16" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="K16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L16" t="s">
+        <v>271</v>
+      </c>
+      <c r="M16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>198</v>
       </c>
@@ -15888,8 +17200,17 @@
       <c r="C17" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="K17" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" t="s">
+        <v>267</v>
+      </c>
+      <c r="M17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -15899,8 +17220,17 @@
       <c r="C18" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="K18" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" t="s">
+        <v>274</v>
+      </c>
+      <c r="M18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>213</v>
       </c>
@@ -15910,8 +17240,17 @@
       <c r="C19" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="K19" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" t="s">
+        <v>290</v>
+      </c>
+      <c r="M19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>210</v>
       </c>
@@ -15921,8 +17260,17 @@
       <c r="C20" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>262</v>
+      </c>
+      <c r="M20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>250</v>
       </c>
@@ -15932,8 +17280,17 @@
       <c r="C21" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="K21" t="s">
+        <v>225</v>
+      </c>
+      <c r="L21" t="s">
+        <v>261</v>
+      </c>
+      <c r="M21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>254</v>
       </c>
@@ -15943,8 +17300,17 @@
       <c r="C22" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>261</v>
+      </c>
+      <c r="M22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>219</v>
       </c>
@@ -15954,8 +17320,17 @@
       <c r="C23" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>261</v>
+      </c>
+      <c r="M23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>246</v>
       </c>
@@ -15965,8 +17340,17 @@
       <c r="C24" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="K24" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" t="s">
+        <v>269</v>
+      </c>
+      <c r="M24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>222</v>
       </c>
@@ -15976,8 +17360,17 @@
       <c r="C25" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="K25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>278</v>
+      </c>
+      <c r="M25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -15987,8 +17380,17 @@
       <c r="C26" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -15998,8 +17400,17 @@
       <c r="C27" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>278</v>
+      </c>
+      <c r="M27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>220</v>
       </c>
@@ -16009,8 +17420,17 @@
       <c r="C28" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="K28" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -16020,8 +17440,17 @@
       <c r="C29" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>212</v>
       </c>
@@ -16031,8 +17460,17 @@
       <c r="C30" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -16042,8 +17480,17 @@
       <c r="C31" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="K31" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>255</v>
       </c>
@@ -16053,8 +17500,17 @@
       <c r="C32" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>284</v>
+      </c>
+      <c r="M32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>195</v>
       </c>
@@ -16064,8 +17520,17 @@
       <c r="C33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="K33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>253</v>
       </c>
@@ -16075,8 +17540,17 @@
       <c r="C34" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="K34" t="s">
+        <v>204</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -16086,8 +17560,17 @@
       <c r="C35" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="K35" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -16097,8 +17580,17 @@
       <c r="C36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="K36" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>197</v>
       </c>
@@ -16108,8 +17600,17 @@
       <c r="C37" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="K37" t="s">
+        <v>209</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>249</v>
       </c>
@@ -16119,8 +17620,17 @@
       <c r="C38" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="K38" t="s">
+        <v>195</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -16130,8 +17640,17 @@
       <c r="C39" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="K39" t="s">
+        <v>229</v>
+      </c>
+      <c r="L39" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -16141,8 +17660,17 @@
       <c r="C40" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="K40" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="35" t="s">
         <v>239</v>
       </c>
@@ -16152,8 +17680,17 @@
       <c r="C41" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="K41" t="s">
+        <v>228</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
+      </c>
+      <c r="M41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>228</v>
       </c>
@@ -16163,8 +17700,17 @@
       <c r="C42" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="K42" t="s">
+        <v>201</v>
+      </c>
+      <c r="L42" t="s">
+        <v>294</v>
+      </c>
+      <c r="M42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>214</v>
       </c>
@@ -16174,8 +17720,17 @@
       <c r="C43" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="K43" t="s">
+        <v>217</v>
+      </c>
+      <c r="L43" t="s">
+        <v>294</v>
+      </c>
+      <c r="M43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -16185,8 +17740,17 @@
       <c r="C44" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="K44" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" t="s">
+        <v>294</v>
+      </c>
+      <c r="M44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>221</v>
       </c>
@@ -16196,8 +17760,17 @@
       <c r="C45" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="K45" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" t="s">
+        <v>294</v>
+      </c>
+      <c r="M45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>238</v>
       </c>
@@ -16207,8 +17780,17 @@
       <c r="C46" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="K46" t="s">
+        <v>222</v>
+      </c>
+      <c r="L46" t="s">
+        <v>268</v>
+      </c>
+      <c r="M46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>240</v>
       </c>
@@ -16218,8 +17800,17 @@
       <c r="C47" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="K47" t="s">
+        <v>239</v>
+      </c>
+      <c r="L47" t="s">
+        <v>268</v>
+      </c>
+      <c r="M47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -16229,8 +17820,17 @@
       <c r="C48" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="K48" t="s">
+        <v>243</v>
+      </c>
+      <c r="L48" t="s">
+        <v>354</v>
+      </c>
+      <c r="M48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="35" t="s">
         <v>241</v>
       </c>
@@ -16240,8 +17840,17 @@
       <c r="C49" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="K49" t="s">
+        <v>247</v>
+      </c>
+      <c r="L49" t="s">
+        <v>354</v>
+      </c>
+      <c r="M49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>199</v>
       </c>
@@ -16251,8 +17860,17 @@
       <c r="C50" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="K50" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" t="s">
+        <v>354</v>
+      </c>
+      <c r="M50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>209</v>
       </c>
@@ -16262,8 +17880,17 @@
       <c r="C51" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="K51" t="s">
+        <v>221</v>
+      </c>
+      <c r="L51" t="s">
+        <v>354</v>
+      </c>
+      <c r="M51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>230</v>
       </c>
@@ -16273,8 +17900,17 @@
       <c r="C52" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="K52" t="s">
+        <v>256</v>
+      </c>
+      <c r="L52" t="s">
+        <v>354</v>
+      </c>
+      <c r="M52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>247</v>
       </c>
@@ -16284,8 +17920,17 @@
       <c r="C53" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="K53" t="s">
+        <v>236</v>
+      </c>
+      <c r="L53" t="s">
+        <v>275</v>
+      </c>
+      <c r="M53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -16295,8 +17940,17 @@
       <c r="C54" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="K54" t="s">
+        <v>240</v>
+      </c>
+      <c r="L54" t="s">
+        <v>275</v>
+      </c>
+      <c r="M54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -16306,8 +17960,17 @@
       <c r="C55" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="K55" t="s">
+        <v>238</v>
+      </c>
+      <c r="L55" t="s">
+        <v>275</v>
+      </c>
+      <c r="M55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -16317,8 +17980,17 @@
       <c r="C56" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="K56" t="s">
+        <v>197</v>
+      </c>
+      <c r="L56" t="s">
+        <v>275</v>
+      </c>
+      <c r="M56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>245</v>
       </c>
@@ -16328,8 +18000,17 @@
       <c r="C57" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="K57" t="s">
+        <v>252</v>
+      </c>
+      <c r="L57" t="s">
+        <v>275</v>
+      </c>
+      <c r="M57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>244</v>
       </c>
@@ -16339,8 +18020,17 @@
       <c r="C58" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="K58" t="s">
+        <v>378</v>
+      </c>
+      <c r="L58" t="s">
+        <v>302</v>
+      </c>
+      <c r="M58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -16350,8 +18040,17 @@
       <c r="C59" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="K59" t="s">
+        <v>208</v>
+      </c>
+      <c r="L59" t="s">
+        <v>302</v>
+      </c>
+      <c r="M59" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>248</v>
       </c>
@@ -16361,8 +18060,17 @@
       <c r="C60" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="K60" t="s">
+        <v>214</v>
+      </c>
+      <c r="L60" t="s">
+        <v>302</v>
+      </c>
+      <c r="M60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>236</v>
       </c>
@@ -16372,8 +18080,17 @@
       <c r="C61" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="K61" t="s">
+        <v>230</v>
+      </c>
+      <c r="L61" t="s">
+        <v>302</v>
+      </c>
+      <c r="M61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>242</v>
       </c>
@@ -16383,8 +18100,17 @@
       <c r="C62" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="K62" t="s">
+        <v>199</v>
+      </c>
+      <c r="L62" t="s">
+        <v>302</v>
+      </c>
+      <c r="M62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>252</v>
       </c>
@@ -16394,8 +18120,17 @@
       <c r="C63" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="K63" t="s">
+        <v>242</v>
+      </c>
+      <c r="L63" t="s">
+        <v>263</v>
+      </c>
+      <c r="M63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>296</v>
       </c>
@@ -16405,8 +18140,17 @@
       <c r="C64" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="K64" t="s">
+        <v>233</v>
+      </c>
+      <c r="L64" t="s">
+        <v>263</v>
+      </c>
+      <c r="M64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -16416,10 +18160,19 @@
       <c r="C65" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="K65" t="s">
+        <v>296</v>
+      </c>
+      <c r="L65" t="s">
+        <v>355</v>
+      </c>
+      <c r="M65" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B66" s="36" t="s">
         <v>268</v>
@@ -16427,8 +18180,17 @@
       <c r="C66" s="36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="K66" t="s">
+        <v>235</v>
+      </c>
+      <c r="L66" t="s">
+        <v>355</v>
+      </c>
+      <c r="M66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="35" t="s">
         <v>215</v>
       </c>
@@ -16440,8 +18202,17 @@
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="K67" t="s">
+        <v>375</v>
+      </c>
+      <c r="L67" t="s">
+        <v>355</v>
+      </c>
+      <c r="M67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="36" t="s">
         <v>318</v>
       </c>
@@ -16451,8 +18222,17 @@
       <c r="C68" s="36" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="K68" t="s">
+        <v>202</v>
+      </c>
+      <c r="L68" t="s">
+        <v>355</v>
+      </c>
+      <c r="M68" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="36" t="s">
         <v>235</v>
       </c>
@@ -16464,8 +18244,17 @@
       </c>
       <c r="D69" s="36"/>
       <c r="E69" s="36"/>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="K69" t="s">
+        <v>215</v>
+      </c>
+      <c r="L69" t="s">
+        <v>355</v>
+      </c>
+      <c r="M69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="35" t="s">
         <v>202</v>
       </c>
@@ -16475,8 +18264,17 @@
       <c r="C70" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="K70" t="s">
+        <v>367</v>
+      </c>
+      <c r="L70" t="s">
+        <v>287</v>
+      </c>
+      <c r="M70" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="36" t="s">
         <v>234</v>
       </c>
@@ -16490,8 +18288,17 @@
       <c r="E71" s="36" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="K71" t="s">
+        <v>368</v>
+      </c>
+      <c r="L71" t="s">
+        <v>309</v>
+      </c>
+      <c r="M71" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="36" t="s">
         <v>237</v>
       </c>
@@ -16505,8 +18312,17 @@
       <c r="E72" s="36" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="K72" t="s">
+        <v>237</v>
+      </c>
+      <c r="L72" t="s">
+        <v>309</v>
+      </c>
+      <c r="M72" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>190</v>
       </c>
@@ -16525,18 +18341,27 @@
       <c r="G73" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="K73" t="s">
+        <v>190</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:17">
       <c r="A76" s="35" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:17">
       <c r="A77" s="35" t="s">
         <v>239</v>
       </c>
@@ -16545,35 +18370,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:17">
       <c r="A78" s="35" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="Q78" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="35" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="Q79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="35" t="s">
         <v>43</v>
       </c>
       <c r="F80" t="s">
+        <v>319</v>
+      </c>
+      <c r="G80" t="s">
         <v>320</v>
       </c>
-      <c r="G80" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="C89" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="N90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="G93" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="H93" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="I93" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="F96" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="25040" windowHeight="19100" tabRatio="500" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="500" yWindow="560" windowWidth="25120" windowHeight="15880" tabRatio="500" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="1.5.2" sheetId="9" r:id="rId9"/>
     <sheet name="1.5.2v" sheetId="10" r:id="rId10"/>
     <sheet name="1.2" sheetId="11" r:id="rId11"/>
+    <sheet name="1.5.3" sheetId="12" r:id="rId12"/>
+    <sheet name="1.5.3v" sheetId="13" r:id="rId13"/>
+    <sheet name="1.2.1" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1.5.1'!$A$2:$F$34</definedName>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="411">
   <si>
     <t>小学</t>
   </si>
@@ -2812,13 +2815,6 @@
     <t>4,</t>
   </si>
   <si>
-    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语音,语言,教育,阅读,练习,宝典,软件,课堂,词场,学霸</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,题库,旅行,听书,攻略,视频</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>,发音</t>
   </si>
   <si>
@@ -2901,6 +2897,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>双语的标题不一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,美剧,发音,音标,留学,题库,词典,旅行,听书.作业,攻略,视频,直播,大全,达人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2909,8 +2909,101 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>双语的标题不一致</t>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,美剧,发音,音标,留学,题库,词典,旅行,听书.作业,攻略,视频,直播,大全,达人,</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,能飞,欧洲,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,软件,大师</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,题库,旅行,听书,攻略,视频</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语音,语言,教育,阅读,练习,宝典,软件,课堂,词场,学霸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81,</t>
+  </si>
+  <si>
+    <t>58,</t>
+  </si>
+  <si>
+    <t>直播,</t>
+  </si>
+  <si>
+    <t>新闻,</t>
+  </si>
+  <si>
+    <t>宝宝,</t>
+  </si>
+  <si>
+    <t>视频,</t>
+  </si>
+  <si>
+    <t>大师,</t>
+  </si>
+  <si>
+    <t>常用,</t>
+  </si>
+  <si>
+    <t>攻略,</t>
+  </si>
+  <si>
+    <t>欧洲,</t>
+  </si>
+  <si>
+    <t>语音,</t>
+  </si>
+  <si>
+    <t>中文,</t>
+  </si>
+  <si>
+    <t>考试,</t>
+  </si>
+  <si>
+    <t>叽哩呱啦,</t>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>词典,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻略</t>
+  </si>
+  <si>
+    <t>省心英语-天天简单的新概念英语中英文单词翻译听力口语语法四六级考试学习助手</t>
+  </si>
+  <si>
+    <t>省心英语-天天简单的新概念英语,中英文单词翻译软件,听力口语语法四六级考试学习助手</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,英汉,小学,初中,高中,大学,美剧,发音,音标,语音,词汇,同步,留学,题库,词典,旅行,听书,作业,视频,直播,大全,达人</t>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,能飞,流利说,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,大师</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,词典,发音,音标,语音,作业,考试,同步,美剧,大全,达人,题库,旅行,听书,视频</t>
+  </si>
+  <si>
+    <t>省心新概念英语全四册-人人单词翻译听力口语语法词汇日常助手,在线免费开心学英语软件</t>
+  </si>
+  <si>
+    <t>新东方,星火,金山,百度,51,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,开心,voa,bbc,ted,出国,学霸,儿童,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,课堂,教育,大师</t>
   </si>
 </sst>
 </file>
@@ -3131,7 +3224,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="529">
+  <cellStyleXfs count="531">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3350,6 +3443,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3732,11 +3827,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3747,7 +3842,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="529">
+  <cellStyles count="531">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4276,6 +4371,8 @@
     <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5511,8 +5608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6826,7 +6923,7 @@
         <v>308</v>
       </c>
       <c r="N66" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O66" t="s">
         <v>287</v>
@@ -7061,7 +7158,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="F94" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7083,8 +7180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7103,7 +7200,7 @@
         <v>327</v>
       </c>
       <c r="N1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O1" t="s">
         <v>308</v>
@@ -7280,7 +7377,7 @@
         <v>308</v>
       </c>
       <c r="M10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N10" t="s">
         <v>290</v>
@@ -7991,7 +8088,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B46" t="s">
         <v>284</v>
@@ -8040,7 +8137,7 @@
         <v>308</v>
       </c>
       <c r="M48" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N48" t="s">
         <v>263</v>
@@ -8120,7 +8217,7 @@
         <v>308</v>
       </c>
       <c r="M52" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N52" t="s">
         <v>355</v>
@@ -8381,12 +8478,12 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8412,6 +8509,2280 @@
     <row r="75" spans="1:3">
       <c r="C75" t="s">
         <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="67" customHeight="1">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="35">
+        <v>1</v>
+      </c>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="35">
+        <v>1</v>
+      </c>
+      <c r="D27" s="35"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="C35" s="35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="35"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="C39" s="35">
+        <v>2</v>
+      </c>
+      <c r="D39" s="35"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" t="s">
+        <v>302</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>302</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>394</v>
+      </c>
+      <c r="B58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" t="s">
+        <v>355</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" t="s">
+        <v>355</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>242</v>
+      </c>
+      <c r="B62" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="35">
+        <v>1</v>
+      </c>
+      <c r="D63" s="35"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>395</v>
+      </c>
+      <c r="B64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B65" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35">
+        <v>1</v>
+      </c>
+      <c r="D68" s="35"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="C69">
+        <f>SUM(C5:C68)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>330</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>394</v>
+      </c>
+      <c r="B55" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>399</v>
+      </c>
+      <c r="B58" t="s">
+        <v>355</v>
+      </c>
+      <c r="C58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>306</v>
+      </c>
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>396</v>
+      </c>
+      <c r="B61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>400</v>
+      </c>
+      <c r="B65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>395</v>
+      </c>
+      <c r="B66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>302</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" t="s">
+        <v>355</v>
+      </c>
+      <c r="C49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s">
+        <v>355</v>
+      </c>
+      <c r="C51" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>236</v>
+      </c>
+      <c r="B55" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>392</v>
+      </c>
+      <c r="B60" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B65" t="s">
+        <v>288</v>
+      </c>
+      <c r="C65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>400</v>
+      </c>
+      <c r="B66" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8483,19 +10854,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="40">
         <v>4613</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="40">
         <v>1490</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8521,13 +10892,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -8551,19 +10922,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="40" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="40">
         <v>4605</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="40">
         <v>1750</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8589,13 +10960,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -8619,19 +10990,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="40" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="39">
+      <c r="P6" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="40">
         <v>1489</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8657,13 +11028,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -8687,19 +11058,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="40" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="40">
         <v>4606</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="40">
         <v>2175</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8725,13 +11096,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -8755,19 +11126,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="40" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="40">
         <v>4607</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="40">
         <v>2176</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8793,13 +11164,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -8823,19 +11194,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="40" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="39">
+      <c r="P12" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40">
         <v>46</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8861,13 +11232,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="39"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -8891,19 +11262,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="40" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="40">
         <v>4605</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="40">
         <v>2177</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8929,13 +11300,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -8959,19 +11330,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="40" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="40">
         <v>53</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="40">
         <v>14</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8997,13 +11368,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="39"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -9027,19 +11398,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="40" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="39">
+      <c r="P18" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="40">
         <v>816</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9065,13 +11436,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="39"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -9095,19 +11466,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="40" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="40">
         <v>4605</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="40">
         <v>2174</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9124,13 +11495,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -9154,19 +11525,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="40" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="40">
         <v>4605</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="40">
         <v>2135</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9192,13 +11563,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="39"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -9222,19 +11593,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="40" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="40">
         <v>4607</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="40">
         <v>1174</v>
       </c>
-      <c r="R24" s="40" t="s">
+      <c r="R24" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9260,13 +11631,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -9290,19 +11661,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="40" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26" s="40">
         <v>4607</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="40">
         <v>45</v>
       </c>
-      <c r="R26" s="40" t="s">
+      <c r="R26" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9328,13 +11699,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="39"/>
+      <c r="N27" s="40"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -9358,19 +11729,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="40" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="40">
         <v>4606</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="Q28" s="40">
         <v>21</v>
       </c>
-      <c r="R28" s="40" t="s">
+      <c r="R28" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9396,13 +11767,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -9426,19 +11797,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="40" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="39">
+      <c r="P30" s="40">
         <v>4605</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="40">
         <v>14</v>
       </c>
-      <c r="R30" s="40" t="s">
+      <c r="R30" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9464,13 +11835,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="39"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -9511,523 +11882,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="40">
         <v>4613</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="40">
         <v>1490</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="40" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="40">
         <v>4605</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="40">
         <v>1750</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="39"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="39">
-        <v>0</v>
-      </c>
-      <c r="D43" s="39">
+      <c r="C43" s="40">
+        <v>0</v>
+      </c>
+      <c r="D43" s="40">
         <v>1489</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="40" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="40">
         <v>4606</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="40">
         <v>2175</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="40">
         <v>4607</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="40">
         <v>2176</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="39">
-        <v>0</v>
-      </c>
-      <c r="D49" s="39">
+      <c r="C49" s="40">
+        <v>0</v>
+      </c>
+      <c r="D49" s="40">
         <v>46</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="39"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="40">
         <v>4605</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="40">
         <v>2177</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="39"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="40">
         <v>53</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="40">
         <v>14</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="39"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="39">
-        <v>0</v>
-      </c>
-      <c r="D55" s="39">
+      <c r="C55" s="40">
+        <v>0</v>
+      </c>
+      <c r="D55" s="40">
         <v>816</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="39"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="40">
         <v>4605</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="40">
         <v>2174</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="39"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="40">
         <v>4605</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="40">
         <v>2135</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="39"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="40">
         <v>4607</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="40">
         <v>1174</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="39"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="40">
         <v>4607</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="40">
         <v>45</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="39"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="40" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="40">
         <v>4606</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="40">
         <v>21</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="39"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="40">
         <v>4605</v>
       </c>
-      <c r="D67" s="39">
+      <c r="D67" s="40">
         <v>14</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="39"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="40">
         <v>4605</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="40">
         <v>2172</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="39"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="40" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="40">
         <v>4629</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="40">
         <v>2173</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="39"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="40">
         <v>270</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="40">
         <v>2176</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="40" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="39">
-        <v>0</v>
-      </c>
-      <c r="D75" s="39">
+      <c r="C75" s="40">
+        <v>0</v>
+      </c>
+      <c r="D75" s="40">
         <v>11</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="39"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -10039,6 +12410,119 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -10063,119 +12547,6 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -16898,15 +19269,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -17064,7 +19435,7 @@
         <v>251</v>
       </c>
       <c r="L10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M10" t="s">
         <v>308</v>
@@ -17077,14 +19448,14 @@
       <c r="B11" t="s">
         <v>285</v>
       </c>
-      <c r="C11" t="s">
-        <v>308</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>231</v>
       </c>
       <c r="L11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M11" t="s">
         <v>308</v>
@@ -17097,14 +19468,14 @@
       <c r="B12" t="s">
         <v>282</v>
       </c>
-      <c r="C12" t="s">
-        <v>308</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>226</v>
       </c>
       <c r="L12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M12" t="s">
         <v>308</v>
@@ -17117,14 +19488,14 @@
       <c r="B13" t="s">
         <v>283</v>
       </c>
-      <c r="C13" t="s">
-        <v>308</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>216</v>
       </c>
       <c r="L13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M13" t="s">
         <v>308</v>
@@ -17137,8 +19508,8 @@
       <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="C14" t="s">
-        <v>308</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>227</v>
@@ -17157,8 +19528,8 @@
       <c r="B15" t="s">
         <v>281</v>
       </c>
-      <c r="C15" t="s">
-        <v>308</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>254</v>
@@ -17177,8 +19548,8 @@
       <c r="B16" t="s">
         <v>258</v>
       </c>
-      <c r="C16" t="s">
-        <v>308</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>196</v>
@@ -17197,8 +19568,8 @@
       <c r="B17" t="s">
         <v>260</v>
       </c>
-      <c r="C17" t="s">
-        <v>308</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>219</v>
@@ -17217,8 +19588,8 @@
       <c r="B18" t="s">
         <v>260</v>
       </c>
-      <c r="C18" t="s">
-        <v>308</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>200</v>
@@ -17237,8 +19608,8 @@
       <c r="B19" t="s">
         <v>273</v>
       </c>
-      <c r="C19" t="s">
-        <v>308</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>213</v>
@@ -17257,8 +19628,8 @@
       <c r="B20" t="s">
         <v>270</v>
       </c>
-      <c r="C20" t="s">
-        <v>308</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>207</v>
@@ -17271,14 +19642,14 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" t="s">
+      <c r="A21" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C21" t="s">
-        <v>288</v>
+      <c r="C21" s="35">
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>225</v>
@@ -17291,14 +19662,14 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" t="s">
+      <c r="A22" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C22" t="s">
-        <v>309</v>
+      <c r="C22" s="35">
+        <v>2</v>
       </c>
       <c r="K22" t="s">
         <v>205</v>
@@ -17317,8 +19688,8 @@
       <c r="B23" t="s">
         <v>279</v>
       </c>
-      <c r="C23" t="s">
-        <v>308</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>220</v>
@@ -17337,8 +19708,8 @@
       <c r="B24" t="s">
         <v>291</v>
       </c>
-      <c r="C24" t="s">
-        <v>288</v>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>250</v>
@@ -17357,8 +19728,8 @@
       <c r="B25" t="s">
         <v>280</v>
       </c>
-      <c r="C25" t="s">
-        <v>308</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>210</v>
@@ -17377,8 +19748,8 @@
       <c r="B26" t="s">
         <v>264</v>
       </c>
-      <c r="C26" t="s">
-        <v>308</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="K26" t="s">
         <v>246</v>
@@ -17397,8 +19768,8 @@
       <c r="B27" t="s">
         <v>264</v>
       </c>
-      <c r="C27" t="s">
-        <v>308</v>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>212</v>
@@ -17417,8 +19788,8 @@
       <c r="B28" t="s">
         <v>264</v>
       </c>
-      <c r="C28" t="s">
-        <v>308</v>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>198</v>
@@ -17437,8 +19808,8 @@
       <c r="B29" t="s">
         <v>266</v>
       </c>
-      <c r="C29" t="s">
-        <v>308</v>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>206</v>
@@ -17457,8 +19828,8 @@
       <c r="B30" t="s">
         <v>272</v>
       </c>
-      <c r="C30" t="s">
-        <v>308</v>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>203</v>
@@ -17477,8 +19848,8 @@
       <c r="B31" t="s">
         <v>272</v>
       </c>
-      <c r="C31" t="s">
-        <v>308</v>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>211</v>
@@ -17497,8 +19868,8 @@
       <c r="B32" t="s">
         <v>272</v>
       </c>
-      <c r="C32" t="s">
-        <v>288</v>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="K32" t="s">
         <v>241</v>
@@ -17517,8 +19888,8 @@
       <c r="B33" t="s">
         <v>257</v>
       </c>
-      <c r="C33" t="s">
-        <v>308</v>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>232</v>
@@ -17537,8 +19908,8 @@
       <c r="B34" t="s">
         <v>295</v>
       </c>
-      <c r="C34" t="s">
-        <v>308</v>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>204</v>
@@ -17557,8 +19928,8 @@
       <c r="B35" t="s">
         <v>271</v>
       </c>
-      <c r="C35" t="s">
-        <v>308</v>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="K35" t="s">
         <v>218</v>
@@ -17577,8 +19948,8 @@
       <c r="B36" t="s">
         <v>286</v>
       </c>
-      <c r="C36" t="s">
-        <v>308</v>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>255</v>
@@ -17597,8 +19968,8 @@
       <c r="B37" t="s">
         <v>259</v>
       </c>
-      <c r="C37" t="s">
-        <v>308</v>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>209</v>
@@ -17617,8 +19988,8 @@
       <c r="B38" t="s">
         <v>259</v>
       </c>
-      <c r="C38" t="s">
-        <v>308</v>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="K38" t="s">
         <v>195</v>
@@ -17637,8 +20008,8 @@
       <c r="B39" t="s">
         <v>265</v>
       </c>
-      <c r="C39" t="s">
-        <v>308</v>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>229</v>
@@ -17657,8 +20028,8 @@
       <c r="B40" t="s">
         <v>267</v>
       </c>
-      <c r="C40" t="s">
-        <v>308</v>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="K40" t="s">
         <v>249</v>
@@ -17677,8 +20048,8 @@
       <c r="B41" t="s">
         <v>267</v>
       </c>
-      <c r="C41" t="s">
-        <v>308</v>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>228</v>
@@ -17697,8 +20068,8 @@
       <c r="B42" t="s">
         <v>274</v>
       </c>
-      <c r="C42" t="s">
-        <v>308</v>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="K42" t="s">
         <v>201</v>
@@ -17717,8 +20088,8 @@
       <c r="B43" t="s">
         <v>274</v>
       </c>
-      <c r="C43" t="s">
-        <v>308</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="K43" t="s">
         <v>217</v>
@@ -17737,8 +20108,8 @@
       <c r="B44" t="s">
         <v>274</v>
       </c>
-      <c r="C44" t="s">
-        <v>308</v>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>224</v>
@@ -17757,8 +20128,8 @@
       <c r="B45" t="s">
         <v>274</v>
       </c>
-      <c r="C45" t="s">
-        <v>308</v>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="K45" t="s">
         <v>253</v>
@@ -17777,8 +20148,8 @@
       <c r="B46" t="s">
         <v>290</v>
       </c>
-      <c r="C46" t="s">
-        <v>308</v>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="K46" t="s">
         <v>222</v>
@@ -17797,8 +20168,8 @@
       <c r="B47" t="s">
         <v>262</v>
       </c>
-      <c r="C47" t="s">
-        <v>308</v>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="K47" t="s">
         <v>239</v>
@@ -17817,8 +20188,8 @@
       <c r="B48" t="s">
         <v>262</v>
       </c>
-      <c r="C48" t="s">
-        <v>308</v>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>243</v>
@@ -17837,8 +20208,8 @@
       <c r="B49" t="s">
         <v>261</v>
       </c>
-      <c r="C49" t="s">
-        <v>308</v>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="K49" t="s">
         <v>247</v>
@@ -17857,8 +20228,8 @@
       <c r="B50" t="s">
         <v>261</v>
       </c>
-      <c r="C50" t="s">
-        <v>308</v>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="K50" t="s">
         <v>248</v>
@@ -17877,8 +20248,8 @@
       <c r="B51" t="s">
         <v>269</v>
       </c>
-      <c r="C51" t="s">
-        <v>308</v>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>221</v>
@@ -17897,8 +20268,8 @@
       <c r="B52" t="s">
         <v>269</v>
       </c>
-      <c r="C52" t="s">
-        <v>308</v>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="K52" t="s">
         <v>256</v>
@@ -17917,8 +20288,8 @@
       <c r="B53" t="s">
         <v>278</v>
       </c>
-      <c r="C53" t="s">
-        <v>308</v>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>236</v>
@@ -17937,8 +20308,8 @@
       <c r="B54" t="s">
         <v>278</v>
       </c>
-      <c r="C54" t="s">
-        <v>309</v>
+      <c r="C54">
+        <v>2</v>
       </c>
       <c r="K54" t="s">
         <v>240</v>
@@ -17957,8 +20328,8 @@
       <c r="B55" t="s">
         <v>277</v>
       </c>
-      <c r="C55" t="s">
-        <v>308</v>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="K55" t="s">
         <v>238</v>
@@ -17977,8 +20348,8 @@
       <c r="B56" t="s">
         <v>277</v>
       </c>
-      <c r="C56" t="s">
-        <v>308</v>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="K56" t="s">
         <v>197</v>
@@ -17997,8 +20368,8 @@
       <c r="B57" t="s">
         <v>284</v>
       </c>
-      <c r="C57" t="s">
-        <v>308</v>
+      <c r="C57">
+        <v>0</v>
       </c>
       <c r="K57" t="s">
         <v>252</v>
@@ -18017,11 +20388,11 @@
       <c r="B58" t="s">
         <v>284</v>
       </c>
-      <c r="C58" t="s">
-        <v>308</v>
+      <c r="C58">
+        <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L58" t="s">
         <v>302</v>
@@ -18037,8 +20408,8 @@
       <c r="B59" t="s">
         <v>284</v>
       </c>
-      <c r="C59" t="s">
-        <v>308</v>
+      <c r="C59">
+        <v>0</v>
       </c>
       <c r="K59" t="s">
         <v>208</v>
@@ -18057,8 +20428,8 @@
       <c r="B60" t="s">
         <v>284</v>
       </c>
-      <c r="C60" t="s">
-        <v>308</v>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="K60" t="s">
         <v>214</v>
@@ -18077,8 +20448,8 @@
       <c r="B61" t="s">
         <v>289</v>
       </c>
-      <c r="C61" t="s">
-        <v>308</v>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="K61" t="s">
         <v>230</v>
@@ -18097,8 +20468,8 @@
       <c r="B62" t="s">
         <v>289</v>
       </c>
-      <c r="C62" t="s">
-        <v>308</v>
+      <c r="C62">
+        <v>0</v>
       </c>
       <c r="K62" t="s">
         <v>199</v>
@@ -18117,8 +20488,8 @@
       <c r="B63" t="s">
         <v>294</v>
       </c>
-      <c r="C63" t="s">
-        <v>308</v>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="K63" t="s">
         <v>242</v>
@@ -18137,8 +20508,8 @@
       <c r="B64" t="s">
         <v>268</v>
       </c>
-      <c r="C64" t="s">
-        <v>308</v>
+      <c r="C64">
+        <v>0</v>
       </c>
       <c r="K64" t="s">
         <v>233</v>
@@ -18157,8 +20528,8 @@
       <c r="B65" t="s">
         <v>268</v>
       </c>
-      <c r="C65" t="s">
-        <v>287</v>
+      <c r="C65">
+        <v>3</v>
       </c>
       <c r="K65" t="s">
         <v>296</v>
@@ -18167,7 +20538,7 @@
         <v>355</v>
       </c>
       <c r="M65" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -18177,8 +20548,8 @@
       <c r="B66" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="C66" s="36" t="s">
-        <v>308</v>
+      <c r="C66" s="36">
+        <v>0</v>
       </c>
       <c r="K66" t="s">
         <v>235</v>
@@ -18197,13 +20568,13 @@
       <c r="B67" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C67" s="35" t="s">
-        <v>308</v>
+      <c r="C67" s="35">
+        <v>0</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="K67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L67" t="s">
         <v>355</v>
@@ -18219,8 +20590,8 @@
       <c r="B68" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="C68" s="36" t="s">
-        <v>308</v>
+      <c r="C68" s="36">
+        <v>0</v>
       </c>
       <c r="K68" t="s">
         <v>202</v>
@@ -18239,8 +20610,8 @@
       <c r="B69" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="C69" s="36" t="s">
-        <v>308</v>
+      <c r="C69" s="36">
+        <v>0</v>
       </c>
       <c r="D69" s="36"/>
       <c r="E69" s="36"/>
@@ -18261,11 +20632,11 @@
       <c r="B70" t="s">
         <v>263</v>
       </c>
-      <c r="C70" t="s">
-        <v>288</v>
+      <c r="C70">
+        <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L70" t="s">
         <v>287</v>
@@ -18281,15 +20652,15 @@
       <c r="B71" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="36" t="s">
-        <v>308</v>
+      <c r="C71" s="36">
+        <v>0</v>
       </c>
       <c r="D71" s="36"/>
       <c r="E71" s="36" t="s">
         <v>314</v>
       </c>
       <c r="K71" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L71" t="s">
         <v>309</v>
@@ -18305,8 +20676,8 @@
       <c r="B72" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="C72" s="36" t="s">
-        <v>308</v>
+      <c r="C72" s="36">
+        <v>0</v>
       </c>
       <c r="D72" s="36"/>
       <c r="E72" s="36" t="s">
@@ -18355,6 +20726,10 @@
       <c r="A75" t="s">
         <v>24</v>
       </c>
+      <c r="C75">
+        <f>SUM(C10:C73)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="35" t="s">
@@ -18375,7 +20750,7 @@
         <v>241</v>
       </c>
       <c r="Q78" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -18399,22 +20774,22 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="C89" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -18424,18 +20799,18 @@
     </row>
     <row r="93" spans="1:14">
       <c r="G93" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="H93" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="H93" s="36" t="s">
-        <v>379</v>
-      </c>
       <c r="I93" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="F96" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="560" windowWidth="25120" windowHeight="15880" tabRatio="500" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="-420" yWindow="60" windowWidth="25100" windowHeight="15600" tabRatio="500" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="417">
   <si>
     <t>小学</t>
   </si>
@@ -2711,299 +2711,320 @@
     <t>详解</t>
   </si>
   <si>
+    <t>词场,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语,</t>
+  </si>
+  <si>
+    <t>学英语,</t>
+  </si>
+  <si>
+    <t>四级,</t>
+  </si>
+  <si>
+    <t>六级,</t>
+  </si>
+  <si>
+    <t>中英,</t>
+  </si>
+  <si>
+    <t>英文,</t>
+  </si>
+  <si>
+    <t>同步,</t>
+  </si>
+  <si>
+    <t>背单词,</t>
+  </si>
+  <si>
+    <t>免费,</t>
+  </si>
+  <si>
+    <t>一起,</t>
+  </si>
+  <si>
+    <t>自学,</t>
+  </si>
+  <si>
+    <t>走遍,</t>
+  </si>
+  <si>
+    <t>小猿,</t>
+  </si>
+  <si>
+    <t>华尔街,</t>
+  </si>
+  <si>
+    <t>省心,</t>
+  </si>
+  <si>
+    <t>课文,</t>
+  </si>
+  <si>
+    <t>527,</t>
+  </si>
+  <si>
+    <t>61,</t>
+  </si>
+  <si>
+    <t>56,</t>
+  </si>
+  <si>
+    <t>49,</t>
+  </si>
+  <si>
+    <t>47,</t>
+  </si>
+  <si>
+    <t>39,</t>
+  </si>
+  <si>
+    <t>38,</t>
+  </si>
+  <si>
+    <t>35,</t>
+  </si>
+  <si>
+    <t>34,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>16,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>,发音</t>
+  </si>
+  <si>
+    <t>英孚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>244,</t>
+  </si>
+  <si>
+    <t>77,</t>
+  </si>
+  <si>
+    <t>66,</t>
+  </si>
+  <si>
+    <t>45,</t>
+  </si>
+  <si>
+    <t>43,</t>
+  </si>
+  <si>
+    <t>ted,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多说,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国,</t>
+  </si>
+  <si>
+    <t>学英语,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自学,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>达人,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出国,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>双语的标题不一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,美剧,发音,音标,留学,题库,词典,旅行,听书.作业,攻略,视频,直播,大全,达人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,能飞,欧洲,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,软件大师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,美剧,发音,音标,留学,题库,词典,旅行,听书.作业,攻略,视频,直播,大全,达人,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,能飞,欧洲,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,软件,大师</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,题库,旅行,听书,攻略,视频</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语音,语言,教育,阅读,练习,宝典,软件,课堂,词场,学霸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>81,</t>
+  </si>
+  <si>
+    <t>58,</t>
+  </si>
+  <si>
+    <t>直播,</t>
+  </si>
+  <si>
+    <t>新闻,</t>
+  </si>
+  <si>
+    <t>宝宝,</t>
+  </si>
+  <si>
+    <t>视频,</t>
+  </si>
+  <si>
+    <t>大师,</t>
+  </si>
+  <si>
+    <t>常用,</t>
+  </si>
+  <si>
+    <t>攻略,</t>
+  </si>
+  <si>
+    <t>欧洲,</t>
+  </si>
+  <si>
+    <t>语音,</t>
+  </si>
+  <si>
+    <t>中文,</t>
+  </si>
+  <si>
+    <t>考试,</t>
+  </si>
+  <si>
+    <t>叽哩呱啦,</t>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>词典,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻略</t>
+  </si>
+  <si>
+    <t>省心英语-天天简单的新概念英语中英文单词翻译听力口语语法四六级考试学习助手</t>
+  </si>
+  <si>
+    <t>新东方,扇贝,星火,百度,51,能飞,流利说,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,大师</t>
+  </si>
+  <si>
+    <t>省心新概念英语全四册-人人单词翻译听力口语语法词汇日常助手,在线免费开心学英语软件</t>
+  </si>
+  <si>
+    <t>新东方,星火,金山,百度,51,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,开心,voa,bbc,ted,出国,学霸,儿童,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,课堂,教育,大师</t>
+  </si>
+  <si>
+    <t>省心英语-天天简单的新概念英语,中英文单词翻译软件,听力口语语法四六级考试学习助手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,英汉,小学,初中,高中,大学,美剧,发音,音标,语音,词汇,同步,留学,题库,词典,旅行,听书,作业,视频,直播,大全,达人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,词典,发音,音标,语音,作业,考试,同步,美剧,大全,达人,题库,旅行,听书,视频</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>每日,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书
 新东方,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场,辞典,学堂</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>词场,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语,</t>
-  </si>
-  <si>
-    <t>学英语,</t>
-  </si>
-  <si>
-    <t>四级,</t>
-  </si>
-  <si>
-    <t>六级,</t>
-  </si>
-  <si>
-    <t>中英,</t>
-  </si>
-  <si>
-    <t>英文,</t>
-  </si>
-  <si>
-    <t>同步,</t>
-  </si>
-  <si>
-    <t>背单词,</t>
-  </si>
-  <si>
-    <t>免费,</t>
-  </si>
-  <si>
-    <t>一起,</t>
-  </si>
-  <si>
-    <t>自学,</t>
-  </si>
-  <si>
-    <t>走遍,</t>
-  </si>
-  <si>
-    <t>小猿,</t>
-  </si>
-  <si>
-    <t>华尔街,</t>
-  </si>
-  <si>
-    <t>省心,</t>
-  </si>
-  <si>
-    <t>课文,</t>
-  </si>
-  <si>
-    <t>527,</t>
-  </si>
-  <si>
-    <t>61,</t>
-  </si>
-  <si>
-    <t>56,</t>
-  </si>
-  <si>
-    <t>49,</t>
-  </si>
-  <si>
-    <t>47,</t>
-  </si>
-  <si>
-    <t>39,</t>
-  </si>
-  <si>
-    <t>38,</t>
-  </si>
-  <si>
-    <t>35,</t>
-  </si>
-  <si>
-    <t>34,</t>
-  </si>
-  <si>
-    <t>29,</t>
-  </si>
-  <si>
-    <t>16,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>,发音</t>
-  </si>
-  <si>
-    <t>英孚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>每日,雅思,托福,考研,商务,高考,牛津,英孚,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,双语,词典,发音,音标,作业,美剧,大全,留学,达人,题库,词汇,旅行,听书
 新东方,扇贝,星火,百度,51,流利说,多说,百词,叽哩呱啦,趣配音,爽哥,学霸,人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,阅读,练习,宝典,软件,课堂,词场,学堂</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>美国,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>244,</t>
-  </si>
-  <si>
-    <t>77,</t>
-  </si>
-  <si>
-    <t>66,</t>
-  </si>
-  <si>
-    <t>45,</t>
-  </si>
-  <si>
-    <t>43,</t>
-  </si>
-  <si>
-    <t>ted,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>多说,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国,</t>
-  </si>
-  <si>
-    <t>学英语,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自学,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>达人,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出国,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双语的标题不一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,美剧,发音,音标,留学,题库,词典,旅行,听书.作业,攻略,视频,直播,大全,达人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新东方,扇贝,星火,百度,51,能飞,欧洲,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,软件大师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,美剧,发音,音标,留学,题库,词典,旅行,听书.作业,攻略,视频,直播,大全,达人,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新东方,扇贝,星火,百度,51,能飞,欧洲,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,软件,大师</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中文英文,英汉,四级,六级,词典,发音,音标,作业,考试,美剧,大全,达人,题库,旅行,听书,视频,攻略</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新东方,星火,金山,百度,51,欧洲,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,voa,bbc,ted,出国,学霸,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,软件,课堂,教育,词场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,金山.商务,高考,牛津,有道,英孚,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四级,六级,词典,发音,音标,作业,美剧,大全,题库,旅行,听书,攻略,视频</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新东方,扇贝,星火,百度,51,沪江,欧洲,叽哩呱啦,趣配音,人人,日常,常用,少儿,开心,voa,bbc,ted,出国,在线,基础,双语,语音,语言,教育,阅读,练习,宝典,软件,课堂,词场,学霸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>81,</t>
-  </si>
-  <si>
-    <t>58,</t>
-  </si>
-  <si>
-    <t>直播,</t>
-  </si>
-  <si>
-    <t>新闻,</t>
-  </si>
-  <si>
-    <t>宝宝,</t>
-  </si>
-  <si>
-    <t>视频,</t>
-  </si>
-  <si>
-    <t>大师,</t>
-  </si>
-  <si>
-    <t>常用,</t>
-  </si>
-  <si>
-    <t>攻略,</t>
-  </si>
-  <si>
-    <t>欧洲,</t>
-  </si>
-  <si>
-    <t>语音,</t>
-  </si>
-  <si>
-    <t>中文,</t>
-  </si>
-  <si>
-    <t>考试,</t>
-  </si>
-  <si>
-    <t>叽哩呱啦,</t>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>词典,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻略</t>
-  </si>
-  <si>
-    <t>省心英语-天天简单的新概念英语中英文单词翻译听力口语语法四六级考试学习助手</t>
-  </si>
-  <si>
-    <t>省心英语-天天简单的新概念英语,中英文单词翻译软件,听力口语语法四六级考试学习助手</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,儿童,幼儿,懒人,沪江,有道,英汉,小学,初中,高中,大学,美剧,发音,音标,语音,词汇,同步,留学,题库,词典,旅行,听书,作业,视频,直播,大全,达人</t>
-  </si>
-  <si>
-    <t>新东方,扇贝,星火,百度,51,能飞,流利说,叽哩呱啦,宝宝,趣配音,英孚,少儿,人人,日常,常用,开心,在线,voa,bbc,出国,基础,语言,教育,新闻,阅读,练习,宝典,课堂,词场,学霸,大师</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,有道,懒人,留学,儿童,幼儿,小学,初中,高中,大学,中英文,英汉,四六级,词典,发音,音标,语音,作业,考试,同步,美剧,大全,达人,题库,旅行,听书,视频</t>
-  </si>
-  <si>
-    <t>省心新概念英语全四册-人人单词翻译听力口语语法词汇日常助手,在线免费开心学英语软件</t>
-  </si>
-  <si>
-    <t>新东方,星火,金山,百度,51,能飞,扇贝,趣配音,沪江,叽哩呱啦,天天,简单,开心,voa,bbc,ted,出国,学霸,儿童,少儿,常用,语音,同步,基础,语言,阅读,练习,宝典,课堂,教育,大师</t>
+    <t>新东方,扇贝,星火,百度,51,流利说,多说,百词,叽哩呱啦,趣配音,爽哥,学霸,人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,阅读,练习,宝典,助手,课堂,词场,学堂</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,英孚,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,双语,词典,发音,音标,作业,美剧,</t>
+  </si>
+  <si>
+    <t>省心英语-天天简单的新概念英语,语音同步,单词听力口语语法翻译考试学习软件</t>
+  </si>
+  <si>
+    <t>省心新概念英语全四册-人人听力口语单词语法翻译日常助手,在线免费开心学英语</t>
+  </si>
+  <si>
+    <t>每日,中英文,四六级,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,英汉,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书</t>
+  </si>
+  <si>
+    <t>新东方,软件,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,课堂,教育,词场,辞典,学堂</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3245,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="531">
+  <cellStyleXfs count="532">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3443,6 +3464,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3827,11 +3849,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3842,7 +3864,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="531">
+  <cellStyles count="532">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4373,6 +4395,7 @@
     <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5608,15 +5631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="43" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -5840,7 +5863,7 @@
         <v>227</v>
       </c>
       <c r="O12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P12" t="s">
         <v>308</v>
@@ -6080,7 +6103,7 @@
         <v>205</v>
       </c>
       <c r="O24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P24" t="s">
         <v>308</v>
@@ -6500,7 +6523,7 @@
         <v>243</v>
       </c>
       <c r="O45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P45" t="s">
         <v>308</v>
@@ -6520,7 +6543,7 @@
         <v>204</v>
       </c>
       <c r="O46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P46" t="s">
         <v>308</v>
@@ -6540,7 +6563,7 @@
         <v>248</v>
       </c>
       <c r="O47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P47" t="s">
         <v>308</v>
@@ -6560,7 +6583,7 @@
         <v>221</v>
       </c>
       <c r="O48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P48" t="s">
         <v>308</v>
@@ -6580,7 +6603,7 @@
         <v>256</v>
       </c>
       <c r="O49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P49" t="s">
         <v>308</v>
@@ -6862,7 +6885,7 @@
         <v>296</v>
       </c>
       <c r="O63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P63" t="s">
         <v>308</v>
@@ -6884,7 +6907,7 @@
         <v>235</v>
       </c>
       <c r="O64" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P64" t="s">
         <v>308</v>
@@ -6904,7 +6927,7 @@
         <v>306</v>
       </c>
       <c r="O65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P65" t="s">
         <v>308</v>
@@ -6923,7 +6946,7 @@
         <v>308</v>
       </c>
       <c r="N66" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O66" t="s">
         <v>287</v>
@@ -7148,17 +7171,17 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="F94" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -7188,19 +7211,19 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
         <v>308</v>
       </c>
       <c r="M1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O1" t="s">
         <v>308</v>
@@ -7211,7 +7234,7 @@
         <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
         <v>308</v>
@@ -7220,7 +7243,7 @@
         <v>216</v>
       </c>
       <c r="N2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O2" t="s">
         <v>308</v>
@@ -7237,7 +7260,7 @@
         <v>308</v>
       </c>
       <c r="M3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N3" t="s">
         <v>295</v>
@@ -7248,10 +7271,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
         <v>308</v>
@@ -7288,7 +7311,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
         <v>232</v>
@@ -7297,7 +7320,7 @@
         <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N6" t="s">
         <v>265</v>
@@ -7311,7 +7334,7 @@
         <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
         <v>308</v>
@@ -7328,10 +7351,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" t="s">
         <v>308</v>
@@ -7348,7 +7371,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>300</v>
@@ -7377,7 +7400,7 @@
         <v>308</v>
       </c>
       <c r="M10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N10" t="s">
         <v>290</v>
@@ -7391,7 +7414,7 @@
         <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
         <v>308</v>
@@ -7411,7 +7434,7 @@
         <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
         <v>308</v>
@@ -7431,7 +7454,7 @@
         <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
         <v>308</v>
@@ -7448,10 +7471,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
         <v>308</v>
@@ -7477,7 +7500,7 @@
         <v>308</v>
       </c>
       <c r="M15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N15" t="s">
         <v>277</v>
@@ -7531,13 +7554,13 @@
         <v>220</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C18" t="s">
         <v>308</v>
       </c>
       <c r="M18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N18" t="s">
         <v>284</v>
@@ -7648,7 +7671,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B24" t="s">
         <v>265</v>
@@ -7777,7 +7800,7 @@
         <v>308</v>
       </c>
       <c r="M30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N30" t="s">
         <v>294</v>
@@ -7840,7 +7863,7 @@
         <v>222</v>
       </c>
       <c r="N33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O33" t="s">
         <v>308</v>
@@ -7848,7 +7871,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s">
         <v>261</v>
@@ -7857,10 +7880,10 @@
         <v>308</v>
       </c>
       <c r="M34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s">
         <v>308</v>
@@ -7880,7 +7903,7 @@
         <v>247</v>
       </c>
       <c r="N35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O35" t="s">
         <v>308</v>
@@ -7888,7 +7911,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s">
         <v>269</v>
@@ -7900,7 +7923,7 @@
         <v>228</v>
       </c>
       <c r="N36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O36" t="s">
         <v>308</v>
@@ -7920,7 +7943,7 @@
         <v>226</v>
       </c>
       <c r="N37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O37" t="s">
         <v>308</v>
@@ -7931,7 +7954,7 @@
         <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C38" t="s">
         <v>308</v>
@@ -7940,7 +7963,7 @@
         <v>221</v>
       </c>
       <c r="N38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s">
         <v>308</v>
@@ -7951,7 +7974,7 @@
         <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C39" t="s">
         <v>308</v>
@@ -7977,7 +8000,7 @@
         <v>308</v>
       </c>
       <c r="M40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N40" t="s">
         <v>275</v>
@@ -8048,7 +8071,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s">
         <v>278</v>
@@ -8088,7 +8111,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s">
         <v>284</v>
@@ -8137,7 +8160,7 @@
         <v>308</v>
       </c>
       <c r="M48" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N48" t="s">
         <v>263</v>
@@ -8157,7 +8180,7 @@
         <v>308</v>
       </c>
       <c r="M49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s">
         <v>263</v>
@@ -8188,7 +8211,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s">
         <v>289</v>
@@ -8217,10 +8240,10 @@
         <v>308</v>
       </c>
       <c r="M52" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O52" t="s">
         <v>308</v>
@@ -8240,7 +8263,7 @@
         <v>240</v>
       </c>
       <c r="N53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O53" t="s">
         <v>308</v>
@@ -8248,19 +8271,19 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54" t="s">
+        <v>308</v>
+      </c>
+      <c r="M54" t="s">
+        <v>335</v>
+      </c>
+      <c r="N54" t="s">
         <v>354</v>
-      </c>
-      <c r="C54" t="s">
-        <v>308</v>
-      </c>
-      <c r="M54" t="s">
-        <v>336</v>
-      </c>
-      <c r="N54" t="s">
-        <v>355</v>
       </c>
       <c r="O54" t="s">
         <v>308</v>
@@ -8268,16 +8291,16 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C55" t="s">
         <v>308</v>
       </c>
       <c r="M55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N55" t="s">
         <v>287</v>
@@ -8288,7 +8311,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B56" t="s">
         <v>302</v>
@@ -8331,13 +8354,13 @@
         <v>202</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C58" t="s">
         <v>308</v>
       </c>
       <c r="M58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N58" t="s">
         <v>287</v>
@@ -8348,7 +8371,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s">
         <v>287</v>
@@ -8357,7 +8380,7 @@
         <v>288</v>
       </c>
       <c r="M59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N59" t="s">
         <v>287</v>
@@ -8428,7 +8451,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B63" s="36" t="s">
         <v>309</v>
@@ -8446,7 +8469,7 @@
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N63" s="36" t="s">
         <v>288</v>
@@ -8478,12 +8501,12 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8525,35 +8548,35 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="67" customHeight="1">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C4" t="s">
         <v>308</v>
@@ -8561,7 +8584,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
         <v>298</v>
@@ -8586,7 +8609,7 @@
         <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8597,7 +8620,7 @@
         <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8608,7 +8631,7 @@
         <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8616,7 +8639,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>271</v>
@@ -8672,7 +8695,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B15" t="s">
         <v>277</v>
@@ -8886,7 +8909,7 @@
         <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -8897,7 +8920,7 @@
         <v>246</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C35" s="35">
         <v>1</v>
@@ -8909,7 +8932,7 @@
         <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -8920,7 +8943,7 @@
         <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -8931,7 +8954,7 @@
         <v>249</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -8942,7 +8965,7 @@
         <v>255</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C39" s="35">
         <v>2</v>
@@ -8951,7 +8974,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B40" t="s">
         <v>275</v>
@@ -9149,10 +9172,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -9163,7 +9186,7 @@
         <v>238</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -9174,7 +9197,7 @@
         <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -9185,7 +9208,7 @@
         <v>230</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -9216,7 +9239,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s">
         <v>287</v>
@@ -9227,7 +9250,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s">
         <v>309</v>
@@ -9276,17 +9299,37 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>407</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -9302,33 +9345,33 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9388,7 +9431,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>261</v>
@@ -9410,7 +9453,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
         <v>269</v>
@@ -9424,7 +9467,7 @@
         <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
         <v>308</v>
@@ -9454,7 +9497,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
         <v>284</v>
@@ -9531,7 +9574,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B23" t="s">
         <v>289</v>
@@ -9553,7 +9596,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B25" t="s">
         <v>294</v>
@@ -9564,7 +9607,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B26" t="s">
         <v>268</v>
@@ -9611,7 +9654,7 @@
         <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C30" t="s">
         <v>308</v>
@@ -9622,7 +9665,7 @@
         <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" t="s">
         <v>308</v>
@@ -9633,7 +9676,7 @@
         <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C32" t="s">
         <v>308</v>
@@ -9644,7 +9687,7 @@
         <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C33" t="s">
         <v>308</v>
@@ -9655,7 +9698,7 @@
         <v>221</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C34" t="s">
         <v>308</v>
@@ -9828,7 +9871,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
         <v>263</v>
@@ -9875,7 +9918,7 @@
         <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" t="s">
         <v>308</v>
@@ -9883,10 +9926,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C55" t="s">
         <v>308</v>
@@ -9897,7 +9940,7 @@
         <v>238</v>
       </c>
       <c r="B56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C56" t="s">
         <v>308</v>
@@ -9908,7 +9951,7 @@
         <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C57" t="s">
         <v>308</v>
@@ -9916,10 +9959,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B58" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C58" t="s">
         <v>308</v>
@@ -9949,7 +9992,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B61" t="s">
         <v>309</v>
@@ -9993,7 +10036,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s">
         <v>288</v>
@@ -10004,7 +10047,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B66" t="s">
         <v>288</v>
@@ -10037,7 +10080,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -10047,12 +10090,33 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>410</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10073,12 +10137,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10141,7 +10205,7 @@
         <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>308</v>
@@ -10149,7 +10213,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>277</v>
@@ -10259,7 +10323,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
         <v>294</v>
@@ -10306,7 +10370,7 @@
         <v>304</v>
       </c>
       <c r="B24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
         <v>308</v>
@@ -10317,7 +10381,7 @@
         <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C25" t="s">
         <v>308</v>
@@ -10328,7 +10392,7 @@
         <v>201</v>
       </c>
       <c r="B26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
         <v>308</v>
@@ -10339,7 +10403,7 @@
         <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
         <v>308</v>
@@ -10512,7 +10576,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s">
         <v>263</v>
@@ -10581,7 +10645,7 @@
         <v>245</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C49" t="s">
         <v>308</v>
@@ -10592,7 +10656,7 @@
         <v>244</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C50" t="s">
         <v>308</v>
@@ -10603,7 +10667,7 @@
         <v>238</v>
       </c>
       <c r="B51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" t="s">
         <v>308</v>
@@ -10614,7 +10678,7 @@
         <v>230</v>
       </c>
       <c r="B52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C52" t="s">
         <v>308</v>
@@ -10625,7 +10689,7 @@
         <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
         <v>308</v>
@@ -10636,7 +10700,7 @@
         <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" t="s">
         <v>308</v>
@@ -10699,7 +10763,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s">
         <v>309</v>
@@ -10721,7 +10785,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s">
         <v>309</v>
@@ -10754,7 +10818,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s">
         <v>288</v>
@@ -10765,7 +10829,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B66" t="s">
         <v>288</v>
@@ -10776,7 +10840,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -10854,19 +10918,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="39">
         <v>4613</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="39">
         <v>1490</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10892,13 +10956,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="40"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="41"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -10922,19 +10986,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="39">
         <v>4605</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="39">
         <v>1750</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10960,13 +11024,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="40"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -10990,19 +11054,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="39" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="40">
+      <c r="P6" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39">
         <v>1489</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11028,13 +11092,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -11058,19 +11122,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="39" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="39">
         <v>4606</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="39">
         <v>2175</v>
       </c>
-      <c r="R8" s="41" t="s">
+      <c r="R8" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11096,13 +11160,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -11126,19 +11190,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="39">
         <v>4607</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <v>2176</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11164,13 +11228,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -11194,19 +11258,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="39" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="40">
+      <c r="P12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="39">
         <v>46</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11232,13 +11296,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -11262,19 +11326,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="39" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <v>4605</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="39">
         <v>2177</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11300,13 +11364,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="40"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -11330,19 +11394,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="39" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
         <v>53</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="39">
         <v>14</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11368,13 +11432,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="40"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -11398,19 +11462,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="40" t="s">
+      <c r="N18" s="39" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="40">
+      <c r="P18" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="39">
         <v>816</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11436,13 +11500,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="40"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -11466,19 +11530,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="40" t="s">
+      <c r="N20" s="39" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>4605</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="39">
         <v>2174</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11495,13 +11559,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="40"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -11525,19 +11589,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="39" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="39">
         <v>4605</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q22" s="39">
         <v>2135</v>
       </c>
-      <c r="R22" s="41" t="s">
+      <c r="R22" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11563,13 +11627,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="40"/>
+      <c r="N23" s="39"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -11593,19 +11657,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="39" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="39">
         <v>4607</v>
       </c>
-      <c r="Q24" s="40">
+      <c r="Q24" s="39">
         <v>1174</v>
       </c>
-      <c r="R24" s="41" t="s">
+      <c r="R24" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11631,13 +11695,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="40"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -11661,19 +11725,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="39" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="40">
+      <c r="P26" s="39">
         <v>4607</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="39">
         <v>45</v>
       </c>
-      <c r="R26" s="41" t="s">
+      <c r="R26" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11699,13 +11763,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="40"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -11729,19 +11793,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="39" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P28" s="39">
         <v>4606</v>
       </c>
-      <c r="Q28" s="40">
+      <c r="Q28" s="39">
         <v>21</v>
       </c>
-      <c r="R28" s="41" t="s">
+      <c r="R28" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11767,13 +11831,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="40"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -11797,19 +11861,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="39" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P30" s="39">
         <v>4605</v>
       </c>
-      <c r="Q30" s="40">
+      <c r="Q30" s="39">
         <v>14</v>
       </c>
-      <c r="R30" s="41" t="s">
+      <c r="R30" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11835,13 +11899,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="40"/>
+      <c r="N31" s="39"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -11882,523 +11946,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="39">
         <v>4613</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <v>1490</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="39">
         <v>4605</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <v>1750</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="40">
-        <v>0</v>
-      </c>
-      <c r="D43" s="40">
+      <c r="C43" s="39">
+        <v>0</v>
+      </c>
+      <c r="D43" s="39">
         <v>1489</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="40"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="39">
         <v>4606</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="39">
         <v>2175</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="39" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="39">
         <v>4607</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="39">
         <v>2176</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="40"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="40">
-        <v>0</v>
-      </c>
-      <c r="D49" s="40">
+      <c r="C49" s="39">
+        <v>0</v>
+      </c>
+      <c r="D49" s="39">
         <v>46</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="40"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>4605</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="39">
         <v>2177</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>53</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="39">
         <v>14</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="40"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="40">
-        <v>0</v>
-      </c>
-      <c r="D55" s="40">
+      <c r="C55" s="39">
+        <v>0</v>
+      </c>
+      <c r="D55" s="39">
         <v>816</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="40"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>4605</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D57" s="39">
         <v>2174</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="40"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="39">
         <v>4605</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="39">
         <v>2135</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="40"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="39">
         <v>4607</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="39">
         <v>1174</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="39">
         <v>4607</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="39">
         <v>45</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="40"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="39">
         <v>4606</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="39">
         <v>21</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="39">
         <v>4605</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="39">
         <v>14</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="40"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="41"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="39">
         <v>4605</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="39">
         <v>2172</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="40"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="39">
         <v>4629</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="39">
         <v>2173</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="40"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="39">
         <v>270</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="39">
         <v>2176</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="40"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="40">
-        <v>0</v>
-      </c>
-      <c r="D75" s="40">
+      <c r="C75" s="39">
+        <v>0</v>
+      </c>
+      <c r="D75" s="39">
         <v>11</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="40"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -12410,119 +12474,6 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -12547,6 +12498,119 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -18673,7 +18737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -19269,15 +19333,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection sqref="A1:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="43" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -19435,7 +19499,7 @@
         <v>251</v>
       </c>
       <c r="L10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M10" t="s">
         <v>308</v>
@@ -19455,7 +19519,7 @@
         <v>231</v>
       </c>
       <c r="L11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M11" t="s">
         <v>308</v>
@@ -19475,7 +19539,7 @@
         <v>226</v>
       </c>
       <c r="L12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M12" t="s">
         <v>308</v>
@@ -19495,7 +19559,7 @@
         <v>216</v>
       </c>
       <c r="L13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M13" t="s">
         <v>308</v>
@@ -20195,7 +20259,7 @@
         <v>243</v>
       </c>
       <c r="L48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s">
         <v>308</v>
@@ -20215,7 +20279,7 @@
         <v>247</v>
       </c>
       <c r="L49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M49" t="s">
         <v>308</v>
@@ -20235,7 +20299,7 @@
         <v>248</v>
       </c>
       <c r="L50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M50" t="s">
         <v>308</v>
@@ -20255,7 +20319,7 @@
         <v>221</v>
       </c>
       <c r="L51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s">
         <v>308</v>
@@ -20275,7 +20339,7 @@
         <v>256</v>
       </c>
       <c r="L52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s">
         <v>308</v>
@@ -20392,7 +20456,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L58" t="s">
         <v>302</v>
@@ -20535,15 +20599,15 @@
         <v>296</v>
       </c>
       <c r="L65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M65" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B66" s="36" t="s">
         <v>268</v>
@@ -20555,7 +20619,7 @@
         <v>235</v>
       </c>
       <c r="L66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M66" t="s">
         <v>308</v>
@@ -20574,10 +20638,10 @@
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="K67" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M67" t="s">
         <v>308</v>
@@ -20597,7 +20661,7 @@
         <v>202</v>
       </c>
       <c r="L68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M68" t="s">
         <v>288</v>
@@ -20619,7 +20683,7 @@
         <v>215</v>
       </c>
       <c r="L69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M69" t="s">
         <v>308</v>
@@ -20636,7 +20700,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L70" t="s">
         <v>287</v>
@@ -20660,7 +20724,7 @@
         <v>314</v>
       </c>
       <c r="K71" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L71" t="s">
         <v>309</v>
@@ -20750,7 +20814,7 @@
         <v>241</v>
       </c>
       <c r="Q78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -20774,22 +20838,22 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="C89" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -20799,18 +20863,18 @@
     </row>
     <row r="93" spans="1:14">
       <c r="G93" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="H93" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="H93" s="36" t="s">
-        <v>377</v>
-      </c>
       <c r="I93" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="F96" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="60" windowWidth="25100" windowHeight="15600" tabRatio="500" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="-420" yWindow="60" windowWidth="25095" windowHeight="15600" tabRatio="500" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="1.5.3" sheetId="12" r:id="rId12"/>
     <sheet name="1.5.3v" sheetId="13" r:id="rId13"/>
     <sheet name="1.2.1" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1.5.1'!$A$2:$F$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">nce1.0!$A$2:$E$34</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="461">
   <si>
     <t>小学</t>
   </si>
@@ -2934,9 +2935,6 @@
     <t>新闻,</t>
   </si>
   <si>
-    <t>宝宝,</t>
-  </si>
-  <si>
     <t>视频,</t>
   </si>
   <si>
@@ -3025,13 +3023,187 @@
   </si>
   <si>
     <t>新东方,软件,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,课堂,教育,词场,辞典,学堂</t>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>省心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作室</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新概念</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标人群</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>app业务相关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪江</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学霸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇贝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流利说</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班族</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟读</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>听歌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查单词</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>音标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验交流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>词典,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高考,语法,音标,语音,同步,考研,听力,口语,词汇,题库,课堂,儿童,幼儿,小学,初中,大学,商务,懒人,英汉,双语,词典,发音,作业,美剧,留学,旅行,听书,软件,达人,大全,沪江,流利说</t>
+  </si>
+  <si>
+    <t>高考,语法,音标,语音,同步,考研,听力,口语,词汇,题库,课堂,儿童,幼儿,小学,初中,大学,商务,懒人,英汉,双语,词典,发音,作业帮,美剧,留学,每日,旅行,听书,软件,达人,大全,沪江,流利说</t>
+  </si>
+  <si>
+    <t>新东方,有道,托福,牛津,英孚,扇贝,星火,百度,51,多说,百词,叽哩呱啦,趣配音,爽哥,学霸,人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,阅读,练习,宝典,学堂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,新东方,叽哩呱啦,趣配音,爽哥,学霸君,阅读,练习,宝典,学堂,有道,托福,牛津,英孚,扇贝,星火,百度,51,多说,百词</t>
+  </si>
+  <si>
+    <t>省心英语 - 简单的学习新概念英语的助手,中英文单词翻译,轻松应对四六级和高中考试!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿童,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日,听力,四六级,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,英汉,双语,词典,发音,音标,作业,美剧,大全,达人,题库,旅行,听书,学霸君</t>
+  </si>
+  <si>
+    <t>新东方,软件,日常,天天,简单,voa,bbc,ted,出国,宝宝,少儿,基础,语言,开心,免费,阅读,练习,宝典,课堂,教育,词场,辞典,学堂,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥</t>
+  </si>
+  <si>
+    <t>省心新概念英语全四册 - 中英文单词在线翻译助手,轻松学习英语口语语法词汇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3177,11 +3349,13 @@
       <sz val="16"/>
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3191,6 +3365,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3779,7 +3959,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3849,11 +4029,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3863,8 +4043,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="532">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3974,429 +4156,428 @@
     <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="217" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="515" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="517" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="519" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="521" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="523" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="525" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="531" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4724,19 +4905,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="19">
+    <row r="2" spans="1:7" ht="21">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -4759,7 +4940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19">
+    <row r="3" spans="1:7" ht="21">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -4782,7 +4963,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19">
+    <row r="4" spans="1:7" ht="21">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -4805,7 +4986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19">
+    <row r="5" spans="1:7" ht="21">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -4828,7 +5009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19">
+    <row r="6" spans="1:7" ht="21">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -4851,7 +5032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19">
+    <row r="7" spans="1:7" ht="21">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4874,7 +5055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19">
+    <row r="8" spans="1:7" ht="21">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -4897,7 +5078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19">
+    <row r="9" spans="1:7" ht="21">
       <c r="A9" s="1">
         <v>23</v>
       </c>
@@ -4920,7 +5101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19">
+    <row r="10" spans="1:7" ht="21">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4943,7 +5124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19">
+    <row r="11" spans="1:7" ht="21">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -4966,7 +5147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19">
+    <row r="12" spans="1:7" ht="21">
       <c r="A12" s="1">
         <v>24</v>
       </c>
@@ -4989,7 +5170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19">
+    <row r="13" spans="1:7" ht="21">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -5012,7 +5193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19">
+    <row r="14" spans="1:7" ht="21">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -5035,7 +5216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19">
+    <row r="15" spans="1:7" ht="21">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -5058,7 +5239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19">
+    <row r="16" spans="1:7" ht="21">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -5081,7 +5262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19">
+    <row r="17" spans="1:8" ht="21">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -5104,7 +5285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19">
+    <row r="18" spans="1:8" ht="21">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -5127,7 +5308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19">
+    <row r="19" spans="1:8" ht="21">
       <c r="A19" s="1">
         <v>30</v>
       </c>
@@ -5150,7 +5331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19">
+    <row r="20" spans="1:8" ht="21">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -5173,7 +5354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19">
+    <row r="21" spans="1:8" ht="21">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -5196,7 +5377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19">
+    <row r="22" spans="1:8" ht="21">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -5219,7 +5400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19">
+    <row r="23" spans="1:8" ht="21">
       <c r="A23" s="1">
         <v>14</v>
       </c>
@@ -5242,7 +5423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19">
+    <row r="24" spans="1:8" ht="21">
       <c r="A24" s="1">
         <v>29</v>
       </c>
@@ -5265,7 +5446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19">
+    <row r="25" spans="1:8" ht="21">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -5288,7 +5469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19">
+    <row r="26" spans="1:8" ht="20.25">
       <c r="A26" s="1">
         <v>17</v>
       </c>
@@ -5311,7 +5492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19">
+    <row r="27" spans="1:8" ht="21">
       <c r="A27" s="1">
         <v>13</v>
       </c>
@@ -5334,7 +5515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19">
+    <row r="28" spans="1:8" ht="20.25">
       <c r="A28" s="1">
         <v>11</v>
       </c>
@@ -5357,7 +5538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19">
+    <row r="29" spans="1:8" ht="21">
       <c r="A29" s="1">
         <v>33</v>
       </c>
@@ -5380,7 +5561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19">
+    <row r="30" spans="1:8" ht="21">
       <c r="A30" s="1">
         <v>20</v>
       </c>
@@ -5403,7 +5584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19">
+    <row r="31" spans="1:8" ht="21">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -5426,7 +5607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19">
+    <row r="32" spans="1:8" ht="21">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -5452,7 +5633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19">
+    <row r="33" spans="1:8" ht="21">
       <c r="A33" s="1">
         <v>26</v>
       </c>
@@ -5478,7 +5659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19">
+    <row r="34" spans="1:8" ht="21">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5510,7 +5691,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19">
+    <row r="37" spans="1:8" ht="20.25">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -5518,7 +5699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19">
+    <row r="38" spans="1:8" ht="20.25">
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
@@ -5526,7 +5707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19">
+    <row r="39" spans="1:8" ht="20.25">
       <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
@@ -5534,7 +5715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19">
+    <row r="40" spans="1:8" ht="20.25">
       <c r="B40" s="6" t="s">
         <v>36</v>
       </c>
@@ -5542,7 +5723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19">
+    <row r="41" spans="1:8" ht="20.25">
       <c r="B41" s="3" t="s">
         <v>37</v>
       </c>
@@ -5550,7 +5731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19">
+    <row r="42" spans="1:8" ht="20.25">
       <c r="B42" s="3" t="s">
         <v>38</v>
       </c>
@@ -5558,7 +5739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19">
+    <row r="43" spans="1:8" ht="20.25">
       <c r="B43" t="s">
         <v>39</v>
       </c>
@@ -5566,7 +5747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19">
+    <row r="44" spans="1:8" ht="20.25">
       <c r="B44" t="s">
         <v>40</v>
       </c>
@@ -5574,7 +5755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19">
+    <row r="45" spans="1:8" ht="20.25">
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
@@ -5582,7 +5763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="19">
+    <row r="46" spans="1:8" ht="20.25">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -5590,7 +5771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="19">
+    <row r="47" spans="1:8" ht="20.25">
       <c r="B47" s="3" t="s">
         <v>44</v>
       </c>
@@ -5628,18 +5809,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -7200,14 +7381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A67" sqref="A67:P69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -8547,21 +8728,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="67" customHeight="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="66.95" customHeight="1">
       <c r="A2" t="s">
         <v>379</v>
       </c>
@@ -8628,7 +8809,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
         <v>350</v>
@@ -8639,7 +8820,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>271</v>
@@ -8650,7 +8831,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="35" t="s">
-        <v>254</v>
+        <v>456</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>259</v>
@@ -8695,7 +8876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>277</v>
@@ -8817,7 +8998,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>455</v>
       </c>
       <c r="B26" t="s">
         <v>294</v>
@@ -8974,7 +9155,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B40" t="s">
         <v>275</v>
@@ -9172,7 +9353,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s">
         <v>354</v>
@@ -9239,7 +9420,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s">
         <v>287</v>
@@ -9250,7 +9431,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s">
         <v>309</v>
@@ -9299,17 +9480,17 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -9319,17 +9500,32 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -9344,14 +9540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -9365,13 +9561,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9431,7 +9627,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
         <v>261</v>
@@ -9574,7 +9770,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B23" t="s">
         <v>289</v>
@@ -9607,7 +9803,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
         <v>268</v>
@@ -9926,7 +10122,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s">
         <v>354</v>
@@ -9959,7 +10155,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s">
         <v>354</v>
@@ -9992,7 +10188,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B61" t="s">
         <v>309</v>
@@ -10036,7 +10232,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s">
         <v>288</v>
@@ -10047,7 +10243,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B66" t="s">
         <v>288</v>
@@ -10080,17 +10276,17 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10100,17 +10296,32 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -10126,14 +10337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -10213,7 +10424,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
         <v>277</v>
@@ -10763,7 +10974,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B60" t="s">
         <v>309</v>
@@ -10785,7 +10996,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s">
         <v>309</v>
@@ -10818,7 +11029,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s">
         <v>288</v>
@@ -10829,7 +11040,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
         <v>288</v>
@@ -10840,7 +11051,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -10852,6 +11063,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10860,17 +11072,43 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="19">
+    <row r="1" spans="1:18" ht="21">
       <c r="A1" s="1">
         <v>26</v>
       </c>
@@ -10896,7 +11134,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="19">
+    <row r="2" spans="1:18" ht="21">
       <c r="A2" s="1">
         <v>22</v>
       </c>
@@ -10918,23 +11156,23 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="40">
         <v>4613</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="40">
         <v>1490</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="19">
+    <row r="3" spans="1:18" ht="21">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -10956,15 +11194,15 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
-    </row>
-    <row r="4" spans="1:18" ht="19">
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" ht="21">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -10986,23 +11224,23 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="40" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="40">
         <v>4605</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="40">
         <v>1750</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="19">
+    <row r="5" spans="1:18" ht="21">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -11024,15 +11262,15 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
-    </row>
-    <row r="6" spans="1:18" ht="19">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+    </row>
+    <row r="6" spans="1:18" ht="21">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -11054,23 +11292,23 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="40" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="39">
+      <c r="P6" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="40">
         <v>1489</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="19">
+    <row r="7" spans="1:18" ht="21">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -11092,15 +11330,15 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
-    </row>
-    <row r="8" spans="1:18" ht="19">
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="1:18" ht="21">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -11122,23 +11360,23 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="40" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="40">
         <v>4606</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="40">
         <v>2175</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="19">
+    <row r="9" spans="1:18" ht="21">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -11160,15 +11398,15 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" ht="19">
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18" ht="21">
       <c r="A10" s="1">
         <v>17</v>
       </c>
@@ -11190,23 +11428,23 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="40" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="40">
         <v>4607</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="40">
         <v>2176</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="19">
+    <row r="11" spans="1:18" ht="21">
       <c r="A11" s="1">
         <v>23</v>
       </c>
@@ -11228,15 +11466,15 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-    </row>
-    <row r="12" spans="1:18" ht="19">
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="1:18" ht="21">
       <c r="A12" s="1">
         <v>21</v>
       </c>
@@ -11258,23 +11496,23 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="40" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="39">
+      <c r="P12" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40">
         <v>46</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="19">
+    <row r="13" spans="1:18" ht="21">
       <c r="A13" s="1">
         <v>30</v>
       </c>
@@ -11296,15 +11534,15 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="39"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-    </row>
-    <row r="14" spans="1:18" ht="19">
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
+    </row>
+    <row r="14" spans="1:18" ht="21">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -11326,23 +11564,23 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="40" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="40">
         <v>4605</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="40">
         <v>2177</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="19">
+    <row r="15" spans="1:18" ht="21">
       <c r="A15" s="1">
         <v>31</v>
       </c>
@@ -11364,15 +11602,15 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-    </row>
-    <row r="16" spans="1:18" ht="19">
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+    </row>
+    <row r="16" spans="1:18" ht="21">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -11394,23 +11632,23 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="40" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="40">
         <v>53</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="40">
         <v>14</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="19">
+    <row r="17" spans="1:18" ht="21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -11432,15 +11670,15 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="39"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-    </row>
-    <row r="18" spans="1:18" ht="19">
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
+    </row>
+    <row r="18" spans="1:18" ht="21">
       <c r="A18" s="1">
         <v>27</v>
       </c>
@@ -11462,23 +11700,23 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="40" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="39">
+      <c r="P18" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="40">
         <v>816</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="19">
+    <row r="19" spans="1:18" ht="21">
       <c r="A19" s="1">
         <v>29</v>
       </c>
@@ -11500,15 +11738,15 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="39"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-    </row>
-    <row r="20" spans="1:18" ht="19">
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" ht="21">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -11530,23 +11768,23 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="40" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="40">
         <v>4605</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="40">
         <v>2174</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="19">
+    <row r="21" spans="1:18" ht="21">
       <c r="A21" s="1">
         <v>32</v>
       </c>
@@ -11559,15 +11797,15 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
-    </row>
-    <row r="22" spans="1:18" ht="19">
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
+    </row>
+    <row r="22" spans="1:18" ht="21">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -11589,23 +11827,23 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="40" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="40">
         <v>4605</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="40">
         <v>2135</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19">
+    <row r="23" spans="1:18" ht="21">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -11627,15 +11865,15 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="39"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" spans="1:18" ht="19">
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:18" ht="21">
       <c r="A24" s="1">
         <v>14</v>
       </c>
@@ -11657,23 +11895,23 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="40" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="40">
         <v>4607</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="40">
         <v>1174</v>
       </c>
-      <c r="R24" s="40" t="s">
+      <c r="R24" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="19">
+    <row r="25" spans="1:18" ht="21">
       <c r="A25" s="1">
         <v>28</v>
       </c>
@@ -11695,15 +11933,15 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40"/>
-    </row>
-    <row r="26" spans="1:18" ht="19">
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="1:18" ht="21">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -11725,23 +11963,23 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="40" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26" s="40">
         <v>4607</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="40">
         <v>45</v>
       </c>
-      <c r="R26" s="40" t="s">
+      <c r="R26" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="19">
+    <row r="27" spans="1:18" ht="21">
       <c r="A27" s="1">
         <v>16</v>
       </c>
@@ -11763,15 +12001,15 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="39"/>
+      <c r="N27" s="40"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-    </row>
-    <row r="28" spans="1:18" ht="19">
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
+    </row>
+    <row r="28" spans="1:18" ht="21">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -11793,23 +12031,23 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="40" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="40">
         <v>4606</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="Q28" s="40">
         <v>21</v>
       </c>
-      <c r="R28" s="40" t="s">
+      <c r="R28" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="19">
+    <row r="29" spans="1:18" ht="21">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -11831,15 +12069,15 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
-    </row>
-    <row r="30" spans="1:18" ht="19">
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
+    </row>
+    <row r="30" spans="1:18" ht="21">
       <c r="A30" s="1">
         <v>18</v>
       </c>
@@ -11861,23 +12099,23 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="40" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="39">
+      <c r="P30" s="40">
         <v>4605</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="40">
         <v>14</v>
       </c>
-      <c r="R30" s="40" t="s">
+      <c r="R30" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="19">
+    <row r="31" spans="1:18" ht="21">
       <c r="A31" s="1">
         <v>19</v>
       </c>
@@ -11899,15 +12137,15 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="39"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="1:18" ht="19">
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
+    </row>
+    <row r="32" spans="1:18" ht="21">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -11945,524 +12183,524 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="41" t="s">
+    <row r="35" spans="1:22" ht="20.25">
+      <c r="B35" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-    </row>
-    <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="39" t="s">
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+    </row>
+    <row r="39" spans="1:22" ht="18">
+      <c r="A39" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="40">
         <v>4613</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="40">
         <v>1490</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="39"/>
+    <row r="40" spans="1:22" ht="18">
+      <c r="A40" s="40"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
-    </row>
-    <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="39" t="s">
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" spans="1:22" ht="18">
+      <c r="A41" s="40" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="40">
         <v>4605</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="40">
         <v>1750</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="39"/>
+    <row r="42" spans="1:22" ht="18">
+      <c r="A42" s="40"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-    </row>
-    <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="39" t="s">
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="1:22" ht="18">
+      <c r="A43" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="39">
-        <v>0</v>
-      </c>
-      <c r="D43" s="39">
+      <c r="C43" s="40">
+        <v>0</v>
+      </c>
+      <c r="D43" s="40">
         <v>1489</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:22" ht="18">
+      <c r="A44" s="40"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="39" t="s">
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="1:22" ht="18">
+      <c r="A45" s="40" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="40">
         <v>4606</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="40">
         <v>2175</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="39"/>
+    <row r="46" spans="1:22" ht="18">
+      <c r="A46" s="40"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="39" t="s">
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:22" ht="18">
+      <c r="A47" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="40">
         <v>4607</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="40">
         <v>2176</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:22" ht="18">
+      <c r="A48" s="40"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
-    </row>
-    <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="39" t="s">
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5" ht="18">
+      <c r="A49" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="39">
-        <v>0</v>
-      </c>
-      <c r="D49" s="39">
+      <c r="C49" s="40">
+        <v>0</v>
+      </c>
+      <c r="D49" s="40">
         <v>46</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="39"/>
+    <row r="50" spans="1:5" ht="18">
+      <c r="A50" s="40"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-    </row>
-    <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="39" t="s">
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+    </row>
+    <row r="51" spans="1:5" ht="18">
+      <c r="A51" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="40">
         <v>4605</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="40">
         <v>2177</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="39"/>
+    <row r="52" spans="1:5" ht="18">
+      <c r="A52" s="40"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-    </row>
-    <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="39" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+    </row>
+    <row r="53" spans="1:5" ht="18">
+      <c r="A53" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="40">
         <v>53</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="40">
         <v>14</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="39"/>
+    <row r="54" spans="1:5" ht="18">
+      <c r="A54" s="40"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-    </row>
-    <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="39" t="s">
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="1:5" ht="18">
+      <c r="A55" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="39">
-        <v>0</v>
-      </c>
-      <c r="D55" s="39">
+      <c r="C55" s="40">
+        <v>0</v>
+      </c>
+      <c r="D55" s="40">
         <v>816</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="39"/>
+    <row r="56" spans="1:5" ht="18">
+      <c r="A56" s="40"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
-    </row>
-    <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="39" t="s">
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
+    </row>
+    <row r="57" spans="1:5" ht="18">
+      <c r="A57" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="40">
         <v>4605</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="40">
         <v>2174</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="39"/>
+    <row r="58" spans="1:5" ht="18">
+      <c r="A58" s="40"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
-    </row>
-    <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="39" t="s">
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
+    </row>
+    <row r="59" spans="1:5" ht="18">
+      <c r="A59" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="40">
         <v>4605</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="40">
         <v>2135</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="39"/>
+    <row r="60" spans="1:5" ht="18">
+      <c r="A60" s="40"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
-    </row>
-    <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="39" t="s">
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
+    </row>
+    <row r="61" spans="1:5" ht="18">
+      <c r="A61" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="40">
         <v>4607</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="40">
         <v>1174</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="39"/>
+    <row r="62" spans="1:5" ht="18">
+      <c r="A62" s="40"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
-    </row>
-    <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="39" t="s">
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
+    </row>
+    <row r="63" spans="1:5" ht="18">
+      <c r="A63" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="40">
         <v>4607</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="40">
         <v>45</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="39"/>
+    <row r="64" spans="1:5" ht="18">
+      <c r="A64" s="40"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="39" t="s">
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
+    </row>
+    <row r="65" spans="1:5" ht="18">
+      <c r="A65" s="40" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="40">
         <v>4606</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="40">
         <v>21</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="39"/>
+    <row r="66" spans="1:5" ht="18">
+      <c r="A66" s="40"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-    </row>
-    <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="39" t="s">
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
+    </row>
+    <row r="67" spans="1:5" ht="18">
+      <c r="A67" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="40">
         <v>4605</v>
       </c>
-      <c r="D67" s="39">
+      <c r="D67" s="40">
         <v>14</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="39"/>
+    <row r="68" spans="1:5" ht="18">
+      <c r="A68" s="40"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
-    </row>
-    <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="39" t="s">
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
+    </row>
+    <row r="69" spans="1:5" ht="18">
+      <c r="A69" s="40" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="40">
         <v>4605</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="40">
         <v>2172</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="39"/>
+    <row r="70" spans="1:5" ht="18">
+      <c r="A70" s="40"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="39" t="s">
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
+    </row>
+    <row r="71" spans="1:5" ht="18">
+      <c r="A71" s="40" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="40">
         <v>4629</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="40">
         <v>2173</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="39"/>
+    <row r="72" spans="1:5" ht="18">
+      <c r="A72" s="40"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
-    </row>
-    <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="39" t="s">
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
+    </row>
+    <row r="73" spans="1:5" ht="18">
+      <c r="A73" s="40" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="40">
         <v>270</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="40">
         <v>2176</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="39"/>
+    <row r="74" spans="1:5" ht="18">
+      <c r="A74" s="40"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="39" t="s">
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
+    </row>
+    <row r="75" spans="1:5" ht="18">
+      <c r="A75" s="40" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="39">
-        <v>0</v>
-      </c>
-      <c r="D75" s="39">
+      <c r="C75" s="40">
+        <v>0</v>
+      </c>
+      <c r="D75" s="40">
         <v>11</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="39"/>
+    <row r="76" spans="1:5" ht="18">
+      <c r="A76" s="40"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -12474,6 +12712,119 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -12498,119 +12849,6 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -12732,20 +12970,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="8" max="8" width="8.83203125" style="17"/>
-    <col min="9" max="9" width="8.83203125" style="19"/>
+    <col min="8" max="8" width="8.875" style="17"/>
+    <col min="9" max="9" width="8.875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="15"/>
       <c r="B1" s="15" t="s">
         <v>110</v>
@@ -12766,7 +13004,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
         <v>65</v>
@@ -12783,7 +13021,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>115</v>
@@ -12800,7 +13038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>119</v>
@@ -12817,7 +13055,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>47</v>
@@ -12834,7 +13072,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="15">
         <v>31</v>
       </c>
@@ -12863,7 +13101,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>61</v>
@@ -12880,7 +13118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="15">
         <v>32</v>
       </c>
@@ -12909,7 +13147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="15"/>
       <c r="B9" s="15" t="s">
         <v>118</v>
@@ -12926,7 +13164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="15">
         <v>30</v>
       </c>
@@ -12955,7 +13193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="15">
         <v>22</v>
       </c>
@@ -12984,7 +13222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>111</v>
@@ -13001,7 +13239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -13030,7 +13268,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="15">
         <v>18</v>
       </c>
@@ -13059,7 +13297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -13088,7 +13326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="15">
         <v>4</v>
       </c>
@@ -13117,7 +13355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" thickBot="1">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -13146,7 +13384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1">
+    <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="15">
         <v>19</v>
       </c>
@@ -13175,7 +13413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1">
+    <row r="19" spans="1:9" ht="15" thickBot="1">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
         <v>15</v>
@@ -13192,7 +13430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
+    <row r="20" spans="1:9" ht="15" thickBot="1">
       <c r="A20" s="15">
         <v>13</v>
       </c>
@@ -13221,7 +13459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1">
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="15">
         <v>25</v>
       </c>
@@ -13250,7 +13488,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" thickBot="1">
+    <row r="22" spans="1:9" ht="15" thickBot="1">
       <c r="A22" s="15">
         <v>29</v>
       </c>
@@ -13279,7 +13517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1">
+    <row r="23" spans="1:9" ht="15" thickBot="1">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
         <v>108</v>
@@ -13296,7 +13534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" thickBot="1">
+    <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>117</v>
@@ -13313,7 +13551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="15">
         <v>10</v>
       </c>
@@ -13342,7 +13580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1">
+    <row r="26" spans="1:9" ht="15" thickBot="1">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -13371,7 +13609,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" thickBot="1">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="15">
         <v>28</v>
       </c>
@@ -13400,7 +13638,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" thickBot="1">
+    <row r="28" spans="1:9" ht="15" thickBot="1">
       <c r="A28" s="15">
         <v>11</v>
       </c>
@@ -13429,7 +13667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" thickBot="1">
+    <row r="29" spans="1:9" ht="15" thickBot="1">
       <c r="A29" s="15"/>
       <c r="B29" s="15" t="s">
         <v>112</v>
@@ -13446,7 +13684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" thickBot="1">
+    <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="15">
         <v>26</v>
       </c>
@@ -13475,7 +13713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" thickBot="1">
+    <row r="31" spans="1:9" ht="15" thickBot="1">
       <c r="A31" s="15">
         <v>1</v>
       </c>
@@ -13504,7 +13742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16" thickBot="1">
+    <row r="32" spans="1:9" ht="15" thickBot="1">
       <c r="A32" s="15">
         <v>3</v>
       </c>
@@ -13533,7 +13771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16" thickBot="1">
+    <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="15">
         <v>16</v>
       </c>
@@ -13562,7 +13800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1">
       <c r="A34" s="15">
         <v>7</v>
       </c>
@@ -13591,7 +13829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1">
       <c r="A35" s="15">
         <v>5</v>
       </c>
@@ -13620,7 +13858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16" thickBot="1">
+    <row r="36" spans="1:9" ht="15" thickBot="1">
       <c r="A36" s="15">
         <v>14</v>
       </c>
@@ -13649,7 +13887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" thickBot="1">
+    <row r="37" spans="1:9" ht="15" thickBot="1">
       <c r="A37" s="15">
         <v>23</v>
       </c>
@@ -13678,7 +13916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16" thickBot="1">
+    <row r="38" spans="1:9" ht="15" thickBot="1">
       <c r="A38" s="15">
         <v>24</v>
       </c>
@@ -13707,7 +13945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16" thickBot="1">
+    <row r="39" spans="1:9" ht="15" thickBot="1">
       <c r="A39" s="15">
         <v>12</v>
       </c>
@@ -13736,7 +13974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" thickBot="1">
+    <row r="40" spans="1:9" ht="15" thickBot="1">
       <c r="A40" s="15">
         <v>27</v>
       </c>
@@ -13765,7 +14003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" thickBot="1">
+    <row r="41" spans="1:9" ht="15" thickBot="1">
       <c r="A41" s="15">
         <v>21</v>
       </c>
@@ -13794,7 +14032,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" thickBot="1">
+    <row r="42" spans="1:9" ht="15" thickBot="1">
       <c r="A42" s="15">
         <v>20</v>
       </c>
@@ -13823,7 +14061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" thickBot="1">
+    <row r="43" spans="1:9" ht="15" thickBot="1">
       <c r="A43" s="15">
         <v>9</v>
       </c>
@@ -13852,7 +14090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" thickBot="1">
+    <row r="44" spans="1:9" ht="15" thickBot="1">
       <c r="A44" s="15"/>
       <c r="B44" s="25" t="s">
         <v>106</v>
@@ -13869,7 +14107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" thickBot="1">
+    <row r="45" spans="1:9" ht="15" thickBot="1">
       <c r="A45" s="15">
         <v>8</v>
       </c>
@@ -13898,7 +14136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16" thickBot="1">
+    <row r="46" spans="1:9" ht="15" thickBot="1">
       <c r="A46" s="15">
         <v>33</v>
       </c>
@@ -13927,7 +14165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" thickBot="1">
+    <row r="47" spans="1:9" ht="15" thickBot="1">
       <c r="A47" s="15"/>
       <c r="B47" s="22" t="s">
         <v>107</v>
@@ -14025,7 +14263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="21">
+    <row r="58" spans="2:5" ht="23.25">
       <c r="B58" s="21" t="s">
         <v>33</v>
       </c>
@@ -14049,7 +14287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="21">
+    <row r="61" spans="2:5" ht="23.25">
       <c r="B61" s="21" t="s">
         <v>139</v>
       </c>
@@ -14124,19 +14362,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="20"/>
       <c r="B1" s="20" t="s">
         <v>129</v>
@@ -14155,7 +14393,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" thickBot="1">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>124</v>
@@ -14174,7 +14412,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>126</v>
@@ -14193,7 +14431,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1">
+    <row r="4" spans="1:9" ht="15" thickBot="1">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>122</v>
@@ -14212,7 +14450,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1">
+    <row r="5" spans="1:9" ht="15" thickBot="1">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>123</v>
@@ -14231,7 +14469,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" thickBot="1">
+    <row r="6" spans="1:9" ht="18" thickBot="1">
       <c r="A6" s="13">
         <v>33</v>
       </c>
@@ -14260,7 +14498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" thickBot="1">
+    <row r="7" spans="1:9" ht="18" thickBot="1">
       <c r="A7" s="13">
         <v>2</v>
       </c>
@@ -14289,7 +14527,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1">
+    <row r="8" spans="1:9" ht="18" thickBot="1">
       <c r="A8" s="13">
         <v>31</v>
       </c>
@@ -14318,7 +14556,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1">
+    <row r="9" spans="1:9" ht="18" thickBot="1">
       <c r="A9" s="13">
         <v>23</v>
       </c>
@@ -14347,7 +14585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1">
+    <row r="10" spans="1:9" ht="18" thickBot="1">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -14376,7 +14614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16" thickBot="1">
+    <row r="11" spans="1:9" ht="18" thickBot="1">
       <c r="A11" s="13">
         <v>4</v>
       </c>
@@ -14405,7 +14643,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1">
+    <row r="12" spans="1:9" ht="18" thickBot="1">
       <c r="A12" s="13">
         <v>14</v>
       </c>
@@ -14434,7 +14672,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16" thickBot="1">
+    <row r="13" spans="1:9" ht="18" thickBot="1">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -14463,7 +14701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1">
+    <row r="14" spans="1:9" ht="18" thickBot="1">
       <c r="A14" s="13">
         <v>26</v>
       </c>
@@ -14492,7 +14730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1">
+    <row r="15" spans="1:9" ht="18" thickBot="1">
       <c r="A15" s="13">
         <v>16</v>
       </c>
@@ -14521,7 +14759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16" thickBot="1">
+    <row r="16" spans="1:9" ht="18" thickBot="1">
       <c r="A16" s="13">
         <v>30</v>
       </c>
@@ -14550,7 +14788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16" thickBot="1">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>125</v>
@@ -14569,7 +14807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1">
+    <row r="18" spans="1:9" ht="18" thickBot="1">
       <c r="A18" s="13">
         <v>11</v>
       </c>
@@ -14598,7 +14836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1">
+    <row r="19" spans="1:9" ht="18" thickBot="1">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -14627,7 +14865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
+    <row r="20" spans="1:9" ht="18" thickBot="1">
       <c r="A20" s="13">
         <v>12</v>
       </c>
@@ -14656,7 +14894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1">
+    <row r="21" spans="1:9" ht="18" thickBot="1">
       <c r="A21" s="13">
         <v>8</v>
       </c>
@@ -14685,7 +14923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" thickBot="1">
+    <row r="22" spans="1:9" ht="18" thickBot="1">
       <c r="A22" s="13">
         <v>27</v>
       </c>
@@ -14714,7 +14952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1">
+    <row r="23" spans="1:9" ht="18" thickBot="1">
       <c r="A23" s="13">
         <v>3</v>
       </c>
@@ -14743,7 +14981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" thickBot="1">
+    <row r="24" spans="1:9" ht="18" thickBot="1">
       <c r="A24" s="13">
         <v>1</v>
       </c>
@@ -14772,7 +15010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1">
+    <row r="25" spans="1:9" ht="18" thickBot="1">
       <c r="A25" s="13">
         <v>17</v>
       </c>
@@ -14801,7 +15039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1">
+    <row r="26" spans="1:9" ht="18" thickBot="1">
       <c r="A26" s="13">
         <v>32</v>
       </c>
@@ -14830,7 +15068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" thickBot="1">
+    <row r="27" spans="1:9" ht="18" thickBot="1">
       <c r="A27" s="13">
         <v>19</v>
       </c>
@@ -14859,7 +15097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" thickBot="1">
+    <row r="28" spans="1:9" ht="18" thickBot="1">
       <c r="A28" s="13">
         <v>7</v>
       </c>
@@ -14888,7 +15126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16" thickBot="1">
+    <row r="29" spans="1:9" ht="18" thickBot="1">
       <c r="A29" s="13">
         <v>5</v>
       </c>
@@ -14917,7 +15155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" thickBot="1">
+    <row r="30" spans="1:9" ht="18" thickBot="1">
       <c r="A30" s="13">
         <v>15</v>
       </c>
@@ -14946,7 +15184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16" thickBot="1">
+    <row r="31" spans="1:9" ht="15" thickBot="1">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>127</v>
@@ -14965,7 +15203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16" thickBot="1">
+    <row r="32" spans="1:9" ht="18" thickBot="1">
       <c r="A32" s="13">
         <v>28</v>
       </c>
@@ -14994,7 +15232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16" thickBot="1">
+    <row r="33" spans="1:11" ht="18" thickBot="1">
       <c r="A33" s="13">
         <v>25</v>
       </c>
@@ -15023,7 +15261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" thickBot="1">
+    <row r="34" spans="1:11" ht="18" thickBot="1">
       <c r="A34" s="13">
         <v>9</v>
       </c>
@@ -15054,7 +15292,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" ht="16" thickBot="1">
+    <row r="35" spans="1:11" ht="18" thickBot="1">
       <c r="A35" s="13">
         <v>29</v>
       </c>
@@ -15085,7 +15323,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" ht="16" thickBot="1">
+    <row r="36" spans="1:11" ht="18" thickBot="1">
       <c r="A36" s="13">
         <v>24</v>
       </c>
@@ -15116,7 +15354,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" ht="16" thickBot="1">
+    <row r="37" spans="1:11" ht="18" thickBot="1">
       <c r="A37" s="13">
         <v>13</v>
       </c>
@@ -15147,7 +15385,7 @@
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" ht="16" thickBot="1">
+    <row r="38" spans="1:11" ht="18" thickBot="1">
       <c r="A38" s="13">
         <v>22</v>
       </c>
@@ -15178,7 +15416,7 @@
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" ht="16" thickBot="1">
+    <row r="39" spans="1:11" ht="18" thickBot="1">
       <c r="A39" s="13">
         <v>21</v>
       </c>
@@ -15209,7 +15447,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" ht="16" thickBot="1">
+    <row r="40" spans="1:11" ht="15" thickBot="1">
       <c r="A40" s="20"/>
       <c r="B40" s="29" t="s">
         <v>128</v>
@@ -15230,7 +15468,7 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" ht="16" thickBot="1">
+    <row r="41" spans="1:11" ht="18" thickBot="1">
       <c r="A41" s="13">
         <v>10</v>
       </c>
@@ -15261,7 +15499,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="16" thickBot="1">
+    <row r="42" spans="1:11" ht="15" thickBot="1">
       <c r="A42" s="20"/>
       <c r="B42" t="s">
         <v>121</v>
@@ -15280,7 +15518,7 @@
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" ht="16" thickBot="1">
+    <row r="43" spans="1:11" ht="15" thickBot="1">
       <c r="A43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -15292,7 +15530,7 @@
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" ht="16" thickBot="1">
+    <row r="44" spans="1:11" ht="15" thickBot="1">
       <c r="A44" s="20"/>
       <c r="B44" t="s">
         <v>40</v>
@@ -15309,7 +15547,7 @@
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" ht="16" thickBot="1">
+    <row r="45" spans="1:11" ht="15" thickBot="1">
       <c r="A45" s="20"/>
       <c r="B45" t="s">
         <v>43</v>
@@ -15326,7 +15564,7 @@
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" ht="16" thickBot="1">
+    <row r="46" spans="1:11" ht="15" thickBot="1">
       <c r="A46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" t="s">
@@ -15340,7 +15578,7 @@
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" ht="16" thickBot="1">
+    <row r="47" spans="1:11" ht="15" thickBot="1">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -15355,7 +15593,7 @@
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" ht="16" thickBot="1">
+    <row r="48" spans="1:11" ht="15" thickBot="1">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -15370,7 +15608,7 @@
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" ht="16" thickBot="1">
+    <row r="49" spans="1:11" ht="15" thickBot="1">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -15385,7 +15623,7 @@
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" ht="16" thickBot="1">
+    <row r="50" spans="1:11" ht="15" thickBot="1">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -15400,7 +15638,7 @@
       <c r="J50" s="20"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" ht="16" thickBot="1">
+    <row r="51" spans="1:11" ht="15" thickBot="1">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -15415,7 +15653,7 @@
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" ht="22" thickBot="1">
+    <row r="52" spans="1:11" ht="23.25" thickBot="1">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -15430,7 +15668,7 @@
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" ht="16" thickBot="1">
+    <row r="53" spans="1:11" ht="15" thickBot="1">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -15445,7 +15683,7 @@
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" ht="16" thickBot="1">
+    <row r="54" spans="1:11" ht="15" thickBot="1">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -15460,7 +15698,7 @@
       <c r="J54" s="20"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" ht="22" thickBot="1">
+    <row r="55" spans="1:11" ht="24" thickBot="1">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -15477,7 +15715,7 @@
       <c r="J55" s="20"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" ht="16" thickBot="1">
+    <row r="56" spans="1:11" ht="15" thickBot="1">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -15492,7 +15730,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" ht="16" thickBot="1">
+    <row r="57" spans="1:11" ht="15" thickBot="1">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -15507,7 +15745,7 @@
       <c r="J57" s="20"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" ht="16" thickBot="1">
+    <row r="58" spans="1:11" ht="15" thickBot="1">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -15522,7 +15760,7 @@
       <c r="J58" s="20"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" ht="16" thickBot="1">
+    <row r="59" spans="1:11" ht="15" thickBot="1">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -15537,7 +15775,7 @@
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" ht="16" thickBot="1">
+    <row r="60" spans="1:11" ht="15" thickBot="1">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -15587,16 +15825,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:15" ht="19">
+    <row r="2" spans="1:15" ht="25.5">
       <c r="A2" s="32">
         <v>23</v>
       </c>
@@ -15630,7 +15868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19">
+    <row r="3" spans="1:15" ht="25.5">
       <c r="A3" s="32">
         <v>32</v>
       </c>
@@ -15664,7 +15902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="19">
+    <row r="4" spans="1:15" ht="25.5">
       <c r="A4" s="32">
         <v>8</v>
       </c>
@@ -15698,7 +15936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19">
+    <row r="5" spans="1:15" ht="25.5">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -15732,7 +15970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="19">
+    <row r="6" spans="1:15" ht="25.5">
       <c r="A6" s="32">
         <v>6</v>
       </c>
@@ -15766,7 +16004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="19">
+    <row r="7" spans="1:15" ht="25.5">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -15800,7 +16038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="19">
+    <row r="8" spans="1:15" ht="25.5">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -15834,7 +16072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="19">
+    <row r="9" spans="1:15" ht="25.5">
       <c r="A9" s="32">
         <v>24</v>
       </c>
@@ -15868,7 +16106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="19">
+    <row r="10" spans="1:15" ht="25.5">
       <c r="A10" s="32">
         <v>7</v>
       </c>
@@ -15902,7 +16140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="19">
+    <row r="11" spans="1:15" ht="25.5">
       <c r="A11" s="32">
         <v>27</v>
       </c>
@@ -15936,7 +16174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19">
+    <row r="12" spans="1:15" ht="25.5">
       <c r="A12" s="32">
         <v>30</v>
       </c>
@@ -15970,7 +16208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19">
+    <row r="13" spans="1:15" ht="25.5">
       <c r="A13" s="32">
         <v>17</v>
       </c>
@@ -16004,7 +16242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="19">
+    <row r="14" spans="1:15" ht="25.5">
       <c r="A14" s="32">
         <v>20</v>
       </c>
@@ -16038,7 +16276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="19">
+    <row r="15" spans="1:15" ht="25.5">
       <c r="A15" s="32">
         <v>19</v>
       </c>
@@ -16072,7 +16310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="19">
+    <row r="16" spans="1:15" ht="25.5">
       <c r="A16" s="32">
         <v>28</v>
       </c>
@@ -16106,7 +16344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19">
+    <row r="17" spans="1:15" ht="25.5">
       <c r="A17" s="32">
         <v>9</v>
       </c>
@@ -16140,7 +16378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19">
+    <row r="18" spans="1:15" ht="25.5">
       <c r="A18" s="32">
         <v>18</v>
       </c>
@@ -16174,7 +16412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19">
+    <row r="19" spans="1:15" ht="25.5">
       <c r="A19" s="32">
         <v>1</v>
       </c>
@@ -16208,7 +16446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="19">
+    <row r="20" spans="1:15" ht="25.5">
       <c r="A20" s="32">
         <v>31</v>
       </c>
@@ -16242,7 +16480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19">
+    <row r="21" spans="1:15" ht="25.5">
       <c r="A21" s="32">
         <v>29</v>
       </c>
@@ -16276,7 +16514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19">
+    <row r="22" spans="1:15" ht="25.5">
       <c r="A22" s="32">
         <v>10</v>
       </c>
@@ -16310,7 +16548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19">
+    <row r="23" spans="1:15" ht="25.5">
       <c r="A23" s="32">
         <v>12</v>
       </c>
@@ -16344,7 +16582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19">
+    <row r="24" spans="1:15" ht="25.5">
       <c r="A24" s="32">
         <v>15</v>
       </c>
@@ -16378,7 +16616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19">
+    <row r="25" spans="1:15" ht="25.5">
       <c r="A25" s="32">
         <v>16</v>
       </c>
@@ -16412,7 +16650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19">
+    <row r="26" spans="1:15" ht="25.5">
       <c r="A26" s="32">
         <v>26</v>
       </c>
@@ -16446,7 +16684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19">
+    <row r="27" spans="1:15" ht="25.5">
       <c r="A27" s="32">
         <v>11</v>
       </c>
@@ -16480,7 +16718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="19">
+    <row r="28" spans="1:15" ht="25.5">
       <c r="A28" s="32">
         <v>22</v>
       </c>
@@ -16514,7 +16752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="19">
+    <row r="29" spans="1:15" ht="25.5">
       <c r="A29" s="32">
         <v>25</v>
       </c>
@@ -16548,7 +16786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19">
+    <row r="30" spans="1:15" ht="25.5">
       <c r="A30" s="32">
         <v>21</v>
       </c>
@@ -16582,7 +16820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19">
+    <row r="31" spans="1:15" ht="25.5">
       <c r="A31" s="32">
         <v>14</v>
       </c>
@@ -16616,7 +16854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19">
+    <row r="32" spans="1:15" ht="25.5">
       <c r="A32" s="32">
         <v>13</v>
       </c>
@@ -16650,7 +16888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19">
+    <row r="33" spans="1:7" ht="25.5">
       <c r="A33" s="32">
         <v>2</v>
       </c>
@@ -16667,7 +16905,7 @@
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
     </row>
-    <row r="34" spans="1:7" ht="19">
+    <row r="34" spans="1:7" ht="25.5">
       <c r="A34" s="32">
         <v>33</v>
       </c>
@@ -16684,7 +16922,7 @@
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="46" spans="1:7" ht="18">
+    <row r="46" spans="1:7" ht="19.5">
       <c r="B46" s="31" t="s">
         <v>154</v>
       </c>
@@ -16705,16 +16943,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A6:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="6" spans="1:8" ht="19">
+    <row r="6" spans="1:8" ht="25.5">
       <c r="A6" s="32">
         <v>1</v>
       </c>
@@ -16740,7 +16978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19">
+    <row r="7" spans="1:8" ht="25.5">
       <c r="A7" s="32">
         <v>2</v>
       </c>
@@ -16766,7 +17004,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19">
+    <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="32">
         <v>3</v>
       </c>
@@ -16792,7 +17030,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19">
+    <row r="9" spans="1:8" ht="25.5">
       <c r="A9" s="32">
         <v>4</v>
       </c>
@@ -16818,7 +17056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19">
+    <row r="10" spans="1:8" ht="25.5">
       <c r="A10" s="32">
         <v>5</v>
       </c>
@@ -16844,7 +17082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19">
+    <row r="11" spans="1:8" ht="25.5">
       <c r="A11" s="32">
         <v>6</v>
       </c>
@@ -16870,7 +17108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
+    <row r="12" spans="1:8" ht="25.5">
       <c r="A12" s="32">
         <v>7</v>
       </c>
@@ -16896,7 +17134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19">
+    <row r="13" spans="1:8" ht="25.5">
       <c r="A13" s="32">
         <v>8</v>
       </c>
@@ -16922,7 +17160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19">
+    <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="32">
         <v>9</v>
       </c>
@@ -16948,7 +17186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19">
+    <row r="15" spans="1:8" ht="25.5">
       <c r="A15" s="32">
         <v>10</v>
       </c>
@@ -16974,7 +17212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19">
+    <row r="16" spans="1:8" ht="25.5">
       <c r="A16" s="32">
         <v>11</v>
       </c>
@@ -17000,7 +17238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19">
+    <row r="17" spans="1:8" ht="25.5">
       <c r="A17" s="32">
         <v>12</v>
       </c>
@@ -17026,7 +17264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19">
+    <row r="18" spans="1:8" ht="25.5">
       <c r="A18" s="32">
         <v>13</v>
       </c>
@@ -17052,7 +17290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19">
+    <row r="19" spans="1:8" ht="25.5">
       <c r="A19" s="32">
         <v>14</v>
       </c>
@@ -17078,7 +17316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19">
+    <row r="20" spans="1:8" ht="25.5">
       <c r="A20" s="32">
         <v>15</v>
       </c>
@@ -17104,7 +17342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19">
+    <row r="21" spans="1:8" ht="25.5">
       <c r="A21" s="32">
         <v>16</v>
       </c>
@@ -17130,7 +17368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19">
+    <row r="22" spans="1:8" ht="25.5">
       <c r="A22" s="32">
         <v>17</v>
       </c>
@@ -17156,7 +17394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19">
+    <row r="23" spans="1:8" ht="25.5">
       <c r="A23" s="32">
         <v>18</v>
       </c>
@@ -17182,7 +17420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19">
+    <row r="24" spans="1:8" ht="25.5">
       <c r="A24" s="32">
         <v>19</v>
       </c>
@@ -17208,7 +17446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19">
+    <row r="25" spans="1:8" ht="25.5">
       <c r="A25" s="32">
         <v>20</v>
       </c>
@@ -17234,7 +17472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19">
+    <row r="26" spans="1:8" ht="25.5">
       <c r="A26" s="32">
         <v>21</v>
       </c>
@@ -17260,7 +17498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19">
+    <row r="27" spans="1:8" ht="25.5">
       <c r="A27" s="32">
         <v>22</v>
       </c>
@@ -17286,7 +17524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19">
+    <row r="28" spans="1:8" ht="25.5">
       <c r="A28" s="32">
         <v>23</v>
       </c>
@@ -17312,7 +17550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19">
+    <row r="29" spans="1:8" ht="25.5">
       <c r="A29" s="32">
         <v>24</v>
       </c>
@@ -17338,7 +17576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19">
+    <row r="30" spans="1:8" ht="25.5">
       <c r="A30" s="32">
         <v>25</v>
       </c>
@@ -17364,7 +17602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19">
+    <row r="31" spans="1:8" ht="25.5">
       <c r="A31" s="32">
         <v>26</v>
       </c>
@@ -17390,7 +17628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19">
+    <row r="32" spans="1:8" ht="25.5">
       <c r="A32" s="32">
         <v>27</v>
       </c>
@@ -17416,7 +17654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19">
+    <row r="33" spans="1:8" ht="25.5">
       <c r="A33" s="32">
         <v>28</v>
       </c>
@@ -17442,7 +17680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19">
+    <row r="34" spans="1:8" ht="25.5">
       <c r="A34" s="32">
         <v>29</v>
       </c>
@@ -17468,7 +17706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19">
+    <row r="35" spans="1:8" ht="25.5">
       <c r="A35" s="32">
         <v>30</v>
       </c>
@@ -17494,7 +17732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19">
+    <row r="36" spans="1:8" ht="25.5">
       <c r="A36" s="32">
         <v>31</v>
       </c>
@@ -17520,7 +17758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19">
+    <row r="37" spans="1:8" ht="25.5">
       <c r="A37" s="32">
         <v>32</v>
       </c>
@@ -17546,7 +17784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18">
+    <row r="38" spans="1:8" ht="25.5">
       <c r="A38" s="32">
         <v>33</v>
       </c>
@@ -17583,12 +17821,12 @@
       <c r="H50" s="17"/>
       <c r="I50" s="19"/>
     </row>
-    <row r="53" spans="2:9" ht="18">
+    <row r="53" spans="2:9" ht="19.5">
       <c r="B53" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="18">
+    <row r="54" spans="2:9" ht="19.5">
       <c r="B54" s="31" t="s">
         <v>162</v>
       </c>
@@ -17609,17 +17847,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:M46"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -17627,7 +17865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="59" customHeight="1">
+    <row r="2" spans="1:13" ht="59.1" customHeight="1">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -17644,7 +17882,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="19">
+    <row r="3" spans="1:13" ht="25.5">
       <c r="A3" s="32">
         <v>32</v>
       </c>
@@ -17676,7 +17914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19">
+    <row r="4" spans="1:13" ht="25.5">
       <c r="A4" s="32">
         <v>31</v>
       </c>
@@ -17708,7 +17946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19">
+    <row r="5" spans="1:13" ht="25.5">
       <c r="A5" s="32">
         <v>33</v>
       </c>
@@ -17740,7 +17978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19">
+    <row r="6" spans="1:13" ht="25.5">
       <c r="A6" s="32">
         <v>23</v>
       </c>
@@ -17772,7 +18010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19">
+    <row r="7" spans="1:13" ht="25.5">
       <c r="A7" s="32">
         <v>19</v>
       </c>
@@ -17804,7 +18042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19">
+    <row r="8" spans="1:13" ht="25.5">
       <c r="A8" s="32">
         <v>3</v>
       </c>
@@ -17836,7 +18074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19">
+    <row r="9" spans="1:13" ht="25.5">
       <c r="A9" s="32">
         <v>5</v>
       </c>
@@ -17868,7 +18106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="19">
+    <row r="10" spans="1:13" ht="25.5">
       <c r="A10" s="32">
         <v>20</v>
       </c>
@@ -17900,7 +18138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="19">
+    <row r="11" spans="1:13" ht="25.5">
       <c r="A11" s="32">
         <v>7</v>
       </c>
@@ -17932,7 +18170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19">
+    <row r="12" spans="1:13" ht="25.5">
       <c r="A12" s="32">
         <v>16</v>
       </c>
@@ -17964,7 +18202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19">
+    <row r="13" spans="1:13" ht="25.5">
       <c r="A13" s="32">
         <v>21</v>
       </c>
@@ -17996,7 +18234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="19">
+    <row r="14" spans="1:13" ht="25.5">
       <c r="A14" s="32">
         <v>14</v>
       </c>
@@ -18028,7 +18266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="19">
+    <row r="15" spans="1:13" ht="25.5">
       <c r="A15" s="32">
         <v>26</v>
       </c>
@@ -18060,7 +18298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="19">
+    <row r="16" spans="1:13" ht="25.5">
       <c r="A16" s="32">
         <v>27</v>
       </c>
@@ -18092,7 +18330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="19">
+    <row r="17" spans="1:13" ht="25.5">
       <c r="A17" s="32">
         <v>29</v>
       </c>
@@ -18124,7 +18362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="19">
+    <row r="18" spans="1:13" ht="25.5">
       <c r="A18" s="32">
         <v>11</v>
       </c>
@@ -18156,7 +18394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="19">
+    <row r="19" spans="1:13" ht="25.5">
       <c r="A19" s="32">
         <v>18</v>
       </c>
@@ -18188,7 +18426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="19">
+    <row r="20" spans="1:13" ht="25.5">
       <c r="A20" s="32">
         <v>10</v>
       </c>
@@ -18220,7 +18458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="19">
+    <row r="21" spans="1:13" ht="25.5">
       <c r="A21" s="32">
         <v>12</v>
       </c>
@@ -18252,7 +18490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="19">
+    <row r="22" spans="1:13" ht="25.5">
       <c r="A22" s="32">
         <v>13</v>
       </c>
@@ -18284,7 +18522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="19">
+    <row r="23" spans="1:13" ht="25.5">
       <c r="A23" s="32">
         <v>2</v>
       </c>
@@ -18316,7 +18554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="19">
+    <row r="24" spans="1:13" ht="25.5">
       <c r="A24" s="32">
         <v>4</v>
       </c>
@@ -18348,7 +18586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="19">
+    <row r="25" spans="1:13" ht="25.5">
       <c r="A25" s="32">
         <v>17</v>
       </c>
@@ -18380,7 +18618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="19">
+    <row r="26" spans="1:13" ht="25.5">
       <c r="A26" s="32">
         <v>30</v>
       </c>
@@ -18412,7 +18650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19">
+    <row r="27" spans="1:13" ht="25.5">
       <c r="A27" s="32">
         <v>8</v>
       </c>
@@ -18444,7 +18682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="19">
+    <row r="28" spans="1:13" ht="25.5">
       <c r="A28" s="32">
         <v>6</v>
       </c>
@@ -18476,7 +18714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="19">
+    <row r="29" spans="1:13" ht="25.5">
       <c r="A29" s="32">
         <v>15</v>
       </c>
@@ -18508,7 +18746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19">
+    <row r="30" spans="1:13" ht="25.5">
       <c r="A30" s="32">
         <v>28</v>
       </c>
@@ -18540,7 +18778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="19">
+    <row r="31" spans="1:13" ht="25.5">
       <c r="A31" s="32">
         <v>22</v>
       </c>
@@ -18572,7 +18810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="19">
+    <row r="32" spans="1:13" ht="25.5">
       <c r="A32" s="32">
         <v>25</v>
       </c>
@@ -18604,7 +18842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19">
+    <row r="33" spans="1:13" ht="25.5">
       <c r="A33" s="32">
         <v>24</v>
       </c>
@@ -18636,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="19">
+    <row r="34" spans="1:13" ht="25.5">
       <c r="A34" s="32">
         <v>9</v>
       </c>
@@ -18685,7 +18923,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="200" customHeight="1">
+    <row r="46" spans="1:13" ht="200.1" customHeight="1">
       <c r="A46" s="42" t="s">
         <v>186</v>
       </c>
@@ -18705,6 +18943,142 @@
     <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>416</v>
+      </c>
+      <c r="B66" t="s">
+        <v>421</v>
+      </c>
+      <c r="C66" t="s">
+        <v>422</v>
+      </c>
+      <c r="D66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>417</v>
+      </c>
+      <c r="B67" t="s">
+        <v>424</v>
+      </c>
+      <c r="C67" t="s">
+        <v>428</v>
+      </c>
+      <c r="D67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>418</v>
+      </c>
+      <c r="B68" t="s">
+        <v>449</v>
+      </c>
+      <c r="C68" t="s">
+        <v>429</v>
+      </c>
+      <c r="D68" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B69" t="s">
+        <v>425</v>
+      </c>
+      <c r="C69" t="s">
+        <v>430</v>
+      </c>
+      <c r="D69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>420</v>
+      </c>
+      <c r="B70" t="s">
+        <v>427</v>
+      </c>
+      <c r="C70" t="s">
+        <v>431</v>
+      </c>
+      <c r="D70" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" t="s">
+        <v>426</v>
+      </c>
+      <c r="C71" t="s">
+        <v>432</v>
+      </c>
+      <c r="D71" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="C72" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="C73" t="s">
+        <v>433</v>
+      </c>
+      <c r="D73" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74" t="s">
+        <v>434</v>
+      </c>
+      <c r="D74" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="C75" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="C76" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="D77" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="D78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -18734,21 +19108,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="32">
         <v>32</v>
       </c>
@@ -18765,7 +19139,7 @@
       </c>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" ht="19">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="32">
         <v>30</v>
       </c>
@@ -18782,7 +19156,7 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" ht="19">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="32">
         <v>2</v>
       </c>
@@ -18799,7 +19173,7 @@
       </c>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" ht="19">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="32">
         <v>22</v>
       </c>
@@ -18816,7 +19190,7 @@
       </c>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" ht="19">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="32">
         <v>4</v>
       </c>
@@ -18833,7 +19207,7 @@
       </c>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" ht="19">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="32">
         <v>21</v>
       </c>
@@ -18850,7 +19224,7 @@
       </c>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="19">
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="32">
         <v>6</v>
       </c>
@@ -18867,7 +19241,7 @@
       </c>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="19">
+    <row r="11" spans="1:7" ht="25.5">
       <c r="A11" s="32">
         <v>20</v>
       </c>
@@ -18884,7 +19258,7 @@
       </c>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" ht="19">
+    <row r="12" spans="1:7" ht="25.5">
       <c r="A12" s="32">
         <v>14</v>
       </c>
@@ -18901,7 +19275,7 @@
       </c>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="19">
+    <row r="13" spans="1:7" ht="25.5">
       <c r="A13" s="32">
         <v>25</v>
       </c>
@@ -18918,7 +19292,7 @@
       </c>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" ht="19">
+    <row r="14" spans="1:7" ht="25.5">
       <c r="A14" s="32">
         <v>19</v>
       </c>
@@ -18935,7 +19309,7 @@
       </c>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" ht="19">
+    <row r="15" spans="1:7" ht="25.5">
       <c r="A15" s="32">
         <v>16</v>
       </c>
@@ -18952,7 +19326,7 @@
       </c>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" ht="19">
+    <row r="16" spans="1:7" ht="25.5">
       <c r="A16" s="32">
         <v>26</v>
       </c>
@@ -18969,7 +19343,7 @@
       </c>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="19">
+    <row r="17" spans="1:7" ht="25.5">
       <c r="A17" s="32">
         <v>18</v>
       </c>
@@ -18986,7 +19360,7 @@
       </c>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" ht="19">
+    <row r="18" spans="1:7" ht="25.5">
       <c r="A18" s="32">
         <v>8</v>
       </c>
@@ -19003,7 +19377,7 @@
       </c>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" ht="19">
+    <row r="19" spans="1:7" ht="25.5">
       <c r="A19" s="32">
         <v>11</v>
       </c>
@@ -19020,7 +19394,7 @@
       </c>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" ht="19">
+    <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="32">
         <v>1</v>
       </c>
@@ -19037,7 +19411,7 @@
       </c>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" ht="19">
+    <row r="21" spans="1:7" ht="25.5">
       <c r="A21" s="32">
         <v>10</v>
       </c>
@@ -19054,7 +19428,7 @@
       </c>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="19">
+    <row r="22" spans="1:7" ht="25.5">
       <c r="A22" s="32">
         <v>3</v>
       </c>
@@ -19071,7 +19445,7 @@
       </c>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" ht="19">
+    <row r="23" spans="1:7" ht="25.5">
       <c r="A23" s="32">
         <v>17</v>
       </c>
@@ -19088,7 +19462,7 @@
       </c>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7" ht="19">
+    <row r="24" spans="1:7" ht="25.5">
       <c r="A24" s="32">
         <v>31</v>
       </c>
@@ -19105,7 +19479,7 @@
       </c>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="19">
+    <row r="25" spans="1:7" ht="25.5">
       <c r="A25" s="32">
         <v>7</v>
       </c>
@@ -19122,7 +19496,7 @@
       </c>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="19">
+    <row r="26" spans="1:7" ht="25.5">
       <c r="A26" s="32">
         <v>5</v>
       </c>
@@ -19139,7 +19513,7 @@
       </c>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="19">
+    <row r="27" spans="1:7" ht="25.5">
       <c r="A27" s="32">
         <v>27</v>
       </c>
@@ -19156,7 +19530,7 @@
       </c>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="19">
+    <row r="28" spans="1:7" ht="25.5">
       <c r="A28" s="32">
         <v>29</v>
       </c>
@@ -19173,7 +19547,7 @@
       </c>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="19">
+    <row r="29" spans="1:7" ht="25.5">
       <c r="A29" s="32">
         <v>13</v>
       </c>
@@ -19190,7 +19564,7 @@
       </c>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="19">
+    <row r="30" spans="1:7" ht="25.5">
       <c r="A30" s="32">
         <v>15</v>
       </c>
@@ -19207,7 +19581,7 @@
       </c>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:7" ht="19">
+    <row r="31" spans="1:7" ht="25.5">
       <c r="A31" s="32">
         <v>24</v>
       </c>
@@ -19224,7 +19598,7 @@
       </c>
       <c r="G31" s="32"/>
     </row>
-    <row r="32" spans="1:7" ht="19">
+    <row r="32" spans="1:7" ht="25.5">
       <c r="A32" s="32">
         <v>9</v>
       </c>
@@ -19241,7 +19615,7 @@
       </c>
       <c r="G32" s="32"/>
     </row>
-    <row r="33" spans="1:7" ht="19">
+    <row r="33" spans="1:7" ht="25.5">
       <c r="A33" s="32">
         <v>28</v>
       </c>
@@ -19258,7 +19632,7 @@
       </c>
       <c r="G33" s="32"/>
     </row>
-    <row r="34" spans="1:7" ht="19">
+    <row r="34" spans="1:7" ht="25.5">
       <c r="A34" s="32">
         <v>12</v>
       </c>
@@ -19275,7 +19649,7 @@
       </c>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" ht="19">
+    <row r="35" spans="1:7" ht="25.5">
       <c r="A35" s="32">
         <v>23</v>
       </c>
@@ -19292,7 +19666,7 @@
       </c>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="1:7" ht="18">
+    <row r="36" spans="1:7" ht="25.5">
       <c r="A36" s="32">
         <v>33</v>
       </c>
@@ -19330,18 +19704,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection sqref="A1:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>

--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="60" windowWidth="25100" windowHeight="15600" tabRatio="500" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="4840" yWindow="160" windowWidth="27160" windowHeight="17300" tabRatio="500" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="430">
   <si>
     <t>小学</t>
   </si>
@@ -2955,9 +2955,6 @@
     <t>语音,</t>
   </si>
   <si>
-    <t>中文,</t>
-  </si>
-  <si>
     <t>考试,</t>
   </si>
   <si>
@@ -3004,27 +3001,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>新东方,扇贝,星火,百度,51,流利说,多说,百词,叽哩呱啦,趣配音,爽哥,学霸,人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,阅读,练习,宝典,助手,课堂,词场,学堂</t>
+  </si>
+  <si>
+    <t>每日,雅思,托福,考研,商务,高考,牛津,英孚,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,双语,词典,发音,音标,作业,美剧,</t>
+  </si>
+  <si>
+    <t>省心英语-天天简单的新概念英语,语音同步,单词听力口语语法翻译考试学习软件</t>
+  </si>
+  <si>
+    <t>省心新概念英语全四册-人人听力口语单词语法翻译日常助手,在线免费开心学英语</t>
+  </si>
+  <si>
+    <t>每日,中英文,四六级,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,英汉,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书</t>
+  </si>
+  <si>
+    <t>新东方,软件,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,课堂,教育,词场,辞典,学堂</t>
+  </si>
+  <si>
+    <t>词汇,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝典,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>每日,雅思,托福,考研,商务,高考,牛津,英孚,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,双语,词典,发音,音标,作业,美剧,大全,留学,达人,题库,词汇,旅行,听书
 新东方,扇贝,星火,百度,51,流利说,多说,百词,叽哩呱啦,趣配音,爽哥,学霸,人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,阅读,练习,宝典,软件,课堂,词场,学堂</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>新东方,扇贝,星火,百度,51,流利说,多说,百词,叽哩呱啦,趣配音,爽哥,学霸,人人,少儿,开心,voa,bbc,ted,出国,在线,日常,基础,语言,教育,阅读,练习,宝典,助手,课堂,词场,学堂</t>
-  </si>
-  <si>
-    <t>每日,雅思,托福,考研,商务,高考,牛津,英孚,儿童,幼儿,懒人,沪江,有道,中英文,英汉,小学,初中,高中,大学,四六级,双语,词典,发音,音标,作业,美剧,</t>
-  </si>
-  <si>
-    <t>省心英语-天天简单的新概念英语,语音同步,单词听力口语语法翻译考试学习软件</t>
-  </si>
-  <si>
-    <t>省心新概念英语全四册-人人听力口语单词语法翻译日常助手,在线免费开心学英语</t>
-  </si>
-  <si>
-    <t>每日,中英文,四六级,雅思,托福,考研,商务,高考,牛津,有道,金山,懒人,沪江,留学,儿童,幼儿,小学,初中,高中,大学,英汉,双语,词典,词汇,发音,音标,作业,美剧,大全,达人,题库,旅行,听书</t>
-  </si>
-  <si>
-    <t>新东方,软件,星火,百度,51,流利说,多说,能飞,扇贝,趣配音,百词,叽哩呱啦,爽哥,天天,简单,voa,bbc,ted,出国,学霸,少儿,基础,语言,阅读,练习,宝典,课堂,教育,词场,辞典,学堂</t>
+    <t>英孚,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>词场,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒人,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>省心新概念英语全四册 -轻松学习单词口语,在线语法助手</t>
+  </si>
+  <si>
+    <t>中英文,翻译官,课堂,高中,高考,教育,语音,同步,考研,儿童,少儿,宝宝,中文,小学,初中,大学,四六级,考试,商务,英汉,词典,词汇,发音,作业帮,题库,美剧,留学,大全,有道,扇贝,沪江网,武侠</t>
+  </si>
+  <si>
+    <t>听力,口语.软件,助手,英孚,人人,开心,天天,voa,bbc,ted,每日,出国,日常,简单,基础,语言,学霸君,阅读,练习,宝典,学堂,旅行,听书,51,懒人,多说,百度,一起秀,托福,牛津,游戏</t>
+  </si>
+  <si>
+    <t>省心英语 - 中英文翻译,轻松学习新概念英语!</t>
+  </si>
+  <si>
+    <t>单词,语法,音标,课堂,在线,高中,高考,教育,语音,同步,考研,儿童,幼儿,少儿,小学,初中,大学,四六级,考试,商务,英汉,词典,词汇,发音,作业帮,题库,美剧,留学,大全,有道,扇贝,沪江,武侠</t>
   </si>
 </sst>
 </file>
@@ -3245,7 +3293,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="532">
+  <cellStyleXfs count="537">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3464,6 +3512,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3849,11 +3902,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3864,7 +3917,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="532">
+  <cellStyles count="537">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4396,6 +4449,11 @@
     <cellStyle name="访问过的超链接" xfId="529" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5639,7 +5697,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -8548,17 +8606,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="67" customHeight="1">
@@ -8695,7 +8753,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>277</v>
@@ -9299,17 +9357,17 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -9319,22 +9377,38 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9345,10 +9419,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9365,13 +9439,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9508,7 +9582,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>284</v>
@@ -9574,7 +9648,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="B23" t="s">
         <v>289</v>
@@ -9959,7 +10033,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s">
         <v>354</v>
@@ -10036,7 +10110,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B65" t="s">
         <v>288</v>
@@ -10080,17 +10154,17 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10100,17 +10174,32 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -10829,7 +10918,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B66" t="s">
         <v>288</v>
@@ -10840,7 +10929,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -10918,19 +11007,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="40" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="39">
+      <c r="P2" s="40">
         <v>4613</v>
       </c>
-      <c r="Q2" s="39">
+      <c r="Q2" s="40">
         <v>1490</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10956,13 +11045,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -10986,19 +11075,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="40" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="40">
         <v>4605</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="40">
         <v>1750</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11024,13 +11113,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -11054,19 +11143,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="40" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="39">
+      <c r="P6" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="40">
         <v>1489</v>
       </c>
-      <c r="R6" s="40" t="s">
+      <c r="R6" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11092,13 +11181,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="39"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -11122,19 +11211,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="40" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="40">
         <v>4606</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="40">
         <v>2175</v>
       </c>
-      <c r="R8" s="40" t="s">
+      <c r="R8" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11160,13 +11249,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="39"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -11190,19 +11279,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="40" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="40">
         <v>4607</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="40">
         <v>2176</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11228,13 +11317,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="39"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -11258,19 +11347,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="N12" s="40" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="39">
+      <c r="P12" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="40">
         <v>46</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11296,13 +11385,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="39"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -11326,19 +11415,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="40" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="40">
         <v>4605</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="40">
         <v>2177</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11364,13 +11453,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="39"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -11394,19 +11483,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="40" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="40">
         <v>53</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="40">
         <v>14</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11432,13 +11521,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="39"/>
+      <c r="N17" s="40"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -11462,19 +11551,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="N18" s="40" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="39">
+      <c r="P18" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="40">
         <v>816</v>
       </c>
-      <c r="R18" s="40" t="s">
+      <c r="R18" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11500,13 +11589,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="39"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -11530,19 +11619,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="40" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="40">
         <v>4605</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="40">
         <v>2174</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11559,13 +11648,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="39"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -11589,19 +11678,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="40" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="40">
         <v>4605</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="40">
         <v>2135</v>
       </c>
-      <c r="R22" s="40" t="s">
+      <c r="R22" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11627,13 +11716,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="39"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -11657,19 +11746,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="40" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="40">
         <v>4607</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="40">
         <v>1174</v>
       </c>
-      <c r="R24" s="40" t="s">
+      <c r="R24" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11695,13 +11784,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="39"/>
+      <c r="N25" s="40"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -11725,19 +11814,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="40" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26" s="40">
         <v>4607</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="40">
         <v>45</v>
       </c>
-      <c r="R26" s="40" t="s">
+      <c r="R26" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11763,13 +11852,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="39"/>
+      <c r="N27" s="40"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -11793,19 +11882,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="40" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="40">
         <v>4606</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="Q28" s="40">
         <v>21</v>
       </c>
-      <c r="R28" s="40" t="s">
+      <c r="R28" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11831,13 +11920,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -11861,19 +11950,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="40" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="39">
+      <c r="P30" s="40">
         <v>4605</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="40">
         <v>14</v>
       </c>
-      <c r="R30" s="40" t="s">
+      <c r="R30" s="41" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11899,13 +11988,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="39"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -11946,523 +12035,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="40">
         <v>4613</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="40">
         <v>1490</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="40" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="40">
         <v>4605</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="40">
         <v>1750</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="39"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="39">
-        <v>0</v>
-      </c>
-      <c r="D43" s="39">
+      <c r="C43" s="40">
+        <v>0</v>
+      </c>
+      <c r="D43" s="40">
         <v>1489</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="39"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="40" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="40">
         <v>4606</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="40">
         <v>2175</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="39"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="40">
         <v>4607</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="40">
         <v>2176</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="39"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="39">
-        <v>0</v>
-      </c>
-      <c r="D49" s="39">
+      <c r="C49" s="40">
+        <v>0</v>
+      </c>
+      <c r="D49" s="40">
         <v>46</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="39"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="40">
         <v>4605</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="40">
         <v>2177</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="39"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="40">
         <v>53</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="40">
         <v>14</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="39"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="39">
-        <v>0</v>
-      </c>
-      <c r="D55" s="39">
+      <c r="C55" s="40">
+        <v>0</v>
+      </c>
+      <c r="D55" s="40">
         <v>816</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="39"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="41"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="40" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="40">
         <v>4605</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="40">
         <v>2174</v>
       </c>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="39"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="40">
         <v>4605</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="40">
         <v>2135</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="39"/>
+      <c r="A60" s="40"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="41"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="40">
         <v>4607</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="40">
         <v>1174</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="39"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="40" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="40">
         <v>4607</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="40">
         <v>45</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="39"/>
+      <c r="A64" s="40"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="40" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="40">
         <v>4606</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="40">
         <v>21</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="39"/>
+      <c r="A66" s="40"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="40">
         <v>4605</v>
       </c>
-      <c r="D67" s="39">
+      <c r="D67" s="40">
         <v>14</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="39"/>
+      <c r="A68" s="40"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="40">
         <v>4605</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="40">
         <v>2172</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="39"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="40" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="40">
         <v>4629</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="40">
         <v>2173</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="39"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="41"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="40" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="40">
         <v>270</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="40">
         <v>2176</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="39"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="40" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="39">
-        <v>0</v>
-      </c>
-      <c r="D75" s="39">
+      <c r="C75" s="40">
+        <v>0</v>
+      </c>
+      <c r="D75" s="40">
         <v>11</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="39"/>
+      <c r="A76" s="40"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -12474,6 +12563,119 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -12498,119 +12700,6 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -19333,15 +19422,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection sqref="A1:P8"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="43" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -19716,7 +19805,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>225</v>
+        <v>415</v>
       </c>
       <c r="L21" t="s">
         <v>261</v>
@@ -19976,7 +20065,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>204</v>
+        <v>418</v>
       </c>
       <c r="L34" t="s">
         <v>301</v>
@@ -20196,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>253</v>
+        <v>417</v>
       </c>
       <c r="L45" t="s">
         <v>294</v>
@@ -20276,7 +20365,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>247</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
         <v>353</v>
@@ -20336,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>256</v>
+        <v>421</v>
       </c>
       <c r="L52" t="s">
         <v>353</v>
@@ -20658,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>202</v>
+        <v>420</v>
       </c>
       <c r="L68" t="s">
         <v>354</v>

--- a/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
+++ b/test1/myBundle/省心关键字(USER-20141129BV--Administrator--2016-04-24-16,29,18)(USER-20141129BV--Administrator--2016-04-24-18,30,05).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="160" windowWidth="27160" windowHeight="17300" tabRatio="500" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="840" yWindow="7920" windowWidth="27160" windowHeight="17300" tabRatio="500" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1.4v" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="1.5.3" sheetId="12" r:id="rId12"/>
     <sheet name="1.5.3v" sheetId="13" r:id="rId13"/>
     <sheet name="1.2.1" sheetId="14" r:id="rId14"/>
+    <sheet name="1.5.4v" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'1.5.1'!$A$2:$F$34</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="433">
   <si>
     <t>小学</t>
   </si>
@@ -3074,6 +3075,16 @@
   <si>
     <t>单词,语法,音标,课堂,在线,高中,高考,教育,语音,同步,考研,儿童,幼儿,少儿,小学,初中,大学,四六级,考试,商务,英汉,词典,词汇,发音,作业帮,题库,美剧,留学,大全,有道,扇贝,沪江,武侠</t>
   </si>
+  <si>
+    <t>叽哩呱啦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人美剧,bbc,voa,儿童教育,51,儿歌大全,宝宝巴士,超级课程表,理财工具,qq阅读,高考必备app,微信多开软件,头条新闻,趣配音,新东方,墨墨,扇贝,懒人听书,免费游戏,金山词霸,旅游攻略</t>
+  </si>
+  <si>
+    <t>每日,牛津,必应,托福,中英文,小学,高中,英汉,考研,出国,基础,大学生,四六级听力,口语发音,雅思词汇,网易有道词典,翻译官,模拟考试,语言,ted,沪江开心,百度作业帮,课堂,小猿搜题库,流利说</t>
+  </si>
 </sst>
 </file>
 
@@ -3902,11 +3913,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="217"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8608,8 +8619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9341,7 +9352,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="35" t="s">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="35">
@@ -9421,8 +9432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:P84"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10949,6 +10960,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A31:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V77"/>
@@ -11007,19 +11049,19 @@
       <c r="G2" s="1">
         <v>64</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="O2" s="8">
         <v>1</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="39">
         <v>4613</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="39">
         <v>1490</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11045,13 +11087,13 @@
       <c r="G3" s="1">
         <v>54</v>
       </c>
-      <c r="N3" s="40"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="41"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:18" ht="19">
       <c r="A4" s="1">
@@ -11075,19 +11117,19 @@
       <c r="G4" s="1">
         <v>44</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>75</v>
       </c>
       <c r="O4" s="8">
         <v>1</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="39">
         <v>4605</v>
       </c>
-      <c r="Q4" s="40">
+      <c r="Q4" s="39">
         <v>1750</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11113,13 +11155,13 @@
       <c r="G5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="40"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" ht="19">
       <c r="A6" s="1">
@@ -11143,19 +11185,19 @@
       <c r="G6" s="1">
         <v>36</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="39" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="40">
+      <c r="P6" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39">
         <v>1489</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11181,13 +11223,13 @@
       <c r="G7" s="1">
         <v>26</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
@@ -11211,19 +11253,19 @@
       <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="N8" s="39" t="s">
         <v>77</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="39">
         <v>4606</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="39">
         <v>2175</v>
       </c>
-      <c r="R8" s="41" t="s">
+      <c r="R8" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11249,13 +11291,13 @@
       <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="N9" s="40"/>
+      <c r="N9" s="39"/>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="40"/>
     </row>
     <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
@@ -11279,19 +11321,19 @@
       <c r="G10" s="1">
         <v>18</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>78</v>
       </c>
       <c r="O10" s="8">
         <v>2</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="39">
         <v>4607</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="39">
         <v>2176</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11317,13 +11359,13 @@
       <c r="G11" s="1">
         <v>17</v>
       </c>
-      <c r="N11" s="40"/>
+      <c r="N11" s="39"/>
       <c r="O11" s="11">
         <v>1</v>
       </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1">
@@ -11347,19 +11389,19 @@
       <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="39" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="8">
         <v>2</v>
       </c>
-      <c r="P12" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="40">
+      <c r="P12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="39">
         <v>46</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11385,13 +11427,13 @@
       <c r="G13" s="1">
         <v>12</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
     </row>
     <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1">
@@ -11415,19 +11457,19 @@
       <c r="G14" s="1">
         <v>11</v>
       </c>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="39" t="s">
         <v>80</v>
       </c>
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <v>4605</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="39">
         <v>2177</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11453,13 +11495,13 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="N15" s="40"/>
+      <c r="N15" s="39"/>
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1">
@@ -11483,19 +11525,19 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="N16" s="39" t="s">
         <v>81</v>
       </c>
       <c r="O16" s="8">
         <v>4</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
         <v>53</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="Q16" s="39">
         <v>14</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11521,13 +11563,13 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="N17" s="40"/>
+      <c r="N17" s="39"/>
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40"/>
     </row>
     <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1">
@@ -11551,19 +11593,19 @@
       <c r="G18" s="1">
         <v>7</v>
       </c>
-      <c r="N18" s="40" t="s">
+      <c r="N18" s="39" t="s">
         <v>82</v>
       </c>
       <c r="O18" s="8">
         <v>4</v>
       </c>
-      <c r="P18" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="40">
+      <c r="P18" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="39">
         <v>816</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11589,13 +11631,13 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="N19" s="40"/>
+      <c r="N19" s="39"/>
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1">
@@ -11619,19 +11661,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="40" t="s">
+      <c r="N20" s="39" t="s">
         <v>83</v>
       </c>
       <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>4605</v>
       </c>
-      <c r="Q20" s="40">
+      <c r="Q20" s="39">
         <v>2174</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11648,13 +11690,13 @@
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="N21" s="40"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="11">
         <v>1</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
     </row>
     <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1">
@@ -11678,19 +11720,19 @@
       <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="N22" s="40" t="s">
+      <c r="N22" s="39" t="s">
         <v>84</v>
       </c>
       <c r="O22" s="8">
         <v>5</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="39">
         <v>4605</v>
       </c>
-      <c r="Q22" s="40">
+      <c r="Q22" s="39">
         <v>2135</v>
       </c>
-      <c r="R22" s="41" t="s">
+      <c r="R22" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11716,13 +11758,13 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="N23" s="40"/>
+      <c r="N23" s="39"/>
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1">
@@ -11746,19 +11788,19 @@
       <c r="G24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="39" t="s">
         <v>85</v>
       </c>
       <c r="O24" s="8">
         <v>5</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="39">
         <v>4607</v>
       </c>
-      <c r="Q24" s="40">
+      <c r="Q24" s="39">
         <v>1174</v>
       </c>
-      <c r="R24" s="41" t="s">
+      <c r="R24" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11784,13 +11826,13 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="N25" s="40"/>
+      <c r="N25" s="39"/>
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1">
@@ -11814,19 +11856,19 @@
       <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="39" t="s">
         <v>86</v>
       </c>
       <c r="O26" s="8">
         <v>6</v>
       </c>
-      <c r="P26" s="40">
+      <c r="P26" s="39">
         <v>4607</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="39">
         <v>45</v>
       </c>
-      <c r="R26" s="41" t="s">
+      <c r="R26" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11852,13 +11894,13 @@
       <c r="G27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="40"/>
+      <c r="N27" s="39"/>
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
     </row>
     <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1">
@@ -11882,19 +11924,19 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="39" t="s">
         <v>87</v>
       </c>
       <c r="O28" s="8">
         <v>7</v>
       </c>
-      <c r="P28" s="40">
+      <c r="P28" s="39">
         <v>4606</v>
       </c>
-      <c r="Q28" s="40">
+      <c r="Q28" s="39">
         <v>21</v>
       </c>
-      <c r="R28" s="41" t="s">
+      <c r="R28" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11920,13 +11962,13 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="N29" s="40"/>
+      <c r="N29" s="39"/>
       <c r="O29" s="12">
         <v>1</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
     </row>
     <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1">
@@ -11950,19 +11992,19 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="40" t="s">
+      <c r="N30" s="39" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="8">
         <v>7</v>
       </c>
-      <c r="P30" s="40">
+      <c r="P30" s="39">
         <v>4605</v>
       </c>
-      <c r="Q30" s="40">
+      <c r="Q30" s="39">
         <v>14</v>
       </c>
-      <c r="R30" s="41" t="s">
+      <c r="R30" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11988,13 +12030,13 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="40"/>
+      <c r="N31" s="39"/>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" ht="19">
       <c r="A32" s="1">
@@ -12035,523 +12077,523 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="19">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
     </row>
     <row r="39" spans="1:22" ht="17">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>73</v>
       </c>
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="39">
         <v>4613</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <v>1490</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="17">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="9">
         <v>0</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:22" ht="17">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="39">
         <v>4605</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <v>1750</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="17">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:22" ht="17">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="40">
-        <v>0</v>
-      </c>
-      <c r="D43" s="40">
+      <c r="C43" s="39">
+        <v>0</v>
+      </c>
+      <c r="D43" s="39">
         <v>1489</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="17">
-      <c r="A44" s="40"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="9">
         <v>0</v>
       </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:22" ht="17">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="39" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="39">
         <v>4606</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="39">
         <v>2175</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="17">
-      <c r="A46" s="40"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="9">
         <v>0</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:22" ht="17">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="39" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="39">
         <v>4607</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="39">
         <v>2176</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="17">
-      <c r="A48" s="40"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="11">
         <v>1</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" ht="17">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
       </c>
-      <c r="C49" s="40">
-        <v>0</v>
-      </c>
-      <c r="D49" s="40">
+      <c r="C49" s="39">
+        <v>0</v>
+      </c>
+      <c r="D49" s="39">
         <v>46</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17">
-      <c r="A50" s="40"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="9">
         <v>0</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" ht="17">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>4605</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="39">
         <v>2177</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="9">
         <v>0</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" ht="17">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>4</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>53</v>
       </c>
-      <c r="D53" s="40">
+      <c r="D53" s="39">
         <v>14</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17">
-      <c r="A54" s="40"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="9">
         <v>0</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5" ht="17">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="40">
-        <v>0</v>
-      </c>
-      <c r="D55" s="40">
+      <c r="C55" s="39">
+        <v>0</v>
+      </c>
+      <c r="D55" s="39">
         <v>816</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17">
-      <c r="A56" s="40"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="9">
         <v>0</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5" ht="17">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="8">
         <v>4</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>4605</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D57" s="39">
         <v>2174</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17">
-      <c r="A58" s="40"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="11">
         <v>1</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5" ht="17">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B59" s="8">
         <v>5</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="39">
         <v>4605</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="39">
         <v>2135</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17">
-      <c r="A60" s="40"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="9">
         <v>0</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" ht="17">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B61" s="8">
         <v>5</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="39">
         <v>4607</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D61" s="39">
         <v>1174</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="9">
         <v>0</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="17">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="39" t="s">
         <v>86</v>
       </c>
       <c r="B63" s="8">
         <v>6</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="39">
         <v>4607</v>
       </c>
-      <c r="D63" s="40">
+      <c r="D63" s="39">
         <v>45</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17">
-      <c r="A64" s="40"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="17">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B65" s="8">
         <v>7</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="39">
         <v>4606</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="39">
         <v>21</v>
       </c>
-      <c r="E65" s="41" t="s">
+      <c r="E65" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="17">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B67" s="8">
         <v>7</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="39">
         <v>4605</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="39">
         <v>14</v>
       </c>
-      <c r="E67" s="41" t="s">
+      <c r="E67" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17">
-      <c r="A68" s="40"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="9">
         <v>0</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="41"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" ht="17">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="39" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="8">
         <v>8</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="39">
         <v>4605</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="39">
         <v>2172</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17">
-      <c r="A70" s="40"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="9">
         <v>0</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="17">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="8">
         <v>8</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="39">
         <v>4629</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="39">
         <v>2173</v>
       </c>
-      <c r="E71" s="41" t="s">
+      <c r="E71" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17">
-      <c r="A72" s="40"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" ht="17">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="8">
         <v>9</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="39">
         <v>270</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="39">
         <v>2176</v>
       </c>
-      <c r="E73" s="41" t="s">
+      <c r="E73" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17">
-      <c r="A74" s="40"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="9">
         <v>0</v>
       </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="41"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" ht="17">
-      <c r="A75" s="40" t="s">
+      <c r="A75" s="39" t="s">
         <v>92</v>
       </c>
       <c r="B75" s="8">
         <v>9</v>
       </c>
-      <c r="C75" s="40">
-        <v>0</v>
-      </c>
-      <c r="D75" s="40">
+      <c r="C75" s="39">
+        <v>0</v>
+      </c>
+      <c r="D75" s="39">
         <v>11</v>
       </c>
-      <c r="E75" s="41" t="s">
+      <c r="E75" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17">
-      <c r="A76" s="40"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="9">
         <v>0</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="41"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="7" t="s">
@@ -12563,119 +12605,6 @@
     <sortCondition descending="1" ref="G1:G32"/>
   </sortState>
   <mergeCells count="137">
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
     <mergeCell ref="B35:V35"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:P3"/>
@@ -12700,6 +12629,119 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="Q14:Q15"/>
     <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
